--- a/testing.xlsx
+++ b/testing.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="640">
   <si>
     <t>UID</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>January 2017</t>
+  </si>
+  <si>
+    <t>February 2017</t>
   </si>
   <si>
     <t>8FD8AAE4A0</t>
@@ -3210,7 +3213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I240"/>
+  <dimension ref="A1:J240"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
@@ -3222,14 +3225,10 @@
     <col customWidth="1" max="3" min="2" style="4" width="30"/>
     <col customWidth="1" max="3" min="3" style="4" width="30"/>
     <col customWidth="1" max="246" min="4" style="4" width="20"/>
-    <col customWidth="1" max="5" min="5" style="4" width="20"/>
-    <col customWidth="1" max="6" min="6" style="4" width="20"/>
-    <col customWidth="1" max="7" min="7" style="4" width="20"/>
-    <col customWidth="1" max="8" min="8" style="4" width="20"/>
-    <col customWidth="1" max="9" min="9" style="4" width="20"/>
+    <col customWidth="1" max="10" min="10" style="4" width="20"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="23" r="1" s="4" spans="1:9">
+    <row customHeight="1" ht="23.1" r="1" s="4" spans="1:10">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3257,26 +3256,29 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row customHeight="1" ht="17" r="2" s="4" spans="1:9">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="2" s="4" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="n"/>
       <c r="D2" s="3" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="3" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="3" s="4" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>6</v>
@@ -3285,15 +3287,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="4" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="4" s="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>2</v>
@@ -3314,15 +3316,15 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="5" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="5" s="4" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3" t="n">
         <v>4</v>
@@ -3331,15 +3333,15 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="6" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="6" s="4" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>2</v>
@@ -3357,12 +3359,12 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="7" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="7" s="4" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="n"/>
       <c r="D7" s="2" t="n">
@@ -3375,30 +3377,30 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="8" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="8" s="4" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="3" t="n"/>
       <c r="E8" t="n">
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="9" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="9" s="4" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>4</v>
@@ -3407,15 +3409,15 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="10" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="10" s="4" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>10</v>
@@ -3430,15 +3432,15 @@
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="11" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="11" s="4" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>13</v>
@@ -3459,15 +3461,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="12" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="12" s="4" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" s="3" t="n">
         <v>2</v>
@@ -3488,15 +3490,15 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="13" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="13" s="4" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D13" s="3" t="n">
         <v>3</v>
@@ -3505,15 +3507,15 @@
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="14" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="14" s="4" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>43</v>
@@ -3534,15 +3536,15 @@
         <v>117</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="15" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="15" s="4" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>9</v>
@@ -3563,15 +3565,15 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="16" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="16" s="4" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>4</v>
@@ -3583,15 +3585,15 @@
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="17" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="17" s="4" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>4</v>
@@ -3606,15 +3608,15 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="18" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="18" s="4" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>8</v>
@@ -3632,15 +3634,15 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="19" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="19" s="4" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>4</v>
@@ -3655,9 +3657,9 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="20" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="20" s="4" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B20" s="3" t="n"/>
       <c r="C20" s="3" t="n"/>
@@ -3665,15 +3667,15 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="21" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="21" s="4" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>5</v>
@@ -3694,15 +3696,15 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="22" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="22" s="4" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>7</v>
@@ -3711,15 +3713,15 @@
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="23" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="23" s="4" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>3</v>
@@ -3734,15 +3736,15 @@
         <v>17</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="24" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="24" s="4" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>3</v>
@@ -3754,15 +3756,15 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="25" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="25" s="4" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="2" t="n">
         <v>1</v>
@@ -3771,29 +3773,29 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="26" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="26" s="4" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="27" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="27" s="4" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>9</v>
@@ -3805,15 +3807,15 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="28" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="28" s="4" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>2</v>
@@ -3828,15 +3830,15 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="29" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="29" s="4" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="2" t="n">
         <v>4</v>
@@ -3854,15 +3856,15 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="30" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="30" s="4" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>2</v>
@@ -3880,15 +3882,15 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="31" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="31" s="4" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="2" t="n">
         <v>2</v>
@@ -3906,15 +3908,15 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="32" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="32" s="4" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="2" t="n">
         <v>3</v>
@@ -3935,15 +3937,15 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="33" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="33" s="4" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>1</v>
@@ -3952,15 +3954,15 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="34" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="34" s="4" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="2" t="n">
         <v>5</v>
@@ -3972,15 +3974,15 @@
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="35" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="35" s="4" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="2" t="n">
         <v>1</v>
@@ -3992,15 +3994,15 @@
         <v>4</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="36" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="36" s="4" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>1</v>
@@ -4012,15 +4014,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="37" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="37" s="4" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="2" t="n">
         <v>4</v>
@@ -4041,15 +4043,15 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="38" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="38" s="4" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="2" t="n">
         <v>6</v>
@@ -4064,15 +4066,15 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="39" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="39" s="4" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="2" t="n">
         <v>7</v>
@@ -4093,15 +4095,15 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="40" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="40" s="4" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="2" t="n">
         <v>4</v>
@@ -4122,15 +4124,15 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="41" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="41" s="4" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="2" t="n">
         <v>2</v>
@@ -4148,15 +4150,15 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="42" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="42" s="4" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="2" t="n">
         <v>3</v>
@@ -4165,15 +4167,15 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="43" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="43" s="4" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="2" t="n">
         <v>3</v>
@@ -4182,29 +4184,29 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="44" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="44" s="4" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="2" t="n">
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="45" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="45" s="4" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="2" t="n">
         <v>4</v>
@@ -4222,15 +4224,15 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="46" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="46" s="4" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="2" t="n">
         <v>2</v>
@@ -4239,15 +4241,15 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="47" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="47" s="4" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="2" t="n">
         <v>3</v>
@@ -4259,15 +4261,15 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="48" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="48" s="4" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="2" t="n">
         <v>2</v>
@@ -4276,15 +4278,15 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="49" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="49" s="4" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="2" t="n">
         <v>4</v>
@@ -4299,15 +4301,15 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="50" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="50" s="4" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="2" t="n">
         <v>4</v>
@@ -4316,15 +4318,15 @@
         <v>4</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="51" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="51" s="4" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="2" t="n">
         <v>3</v>
@@ -4339,15 +4341,15 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="52" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="52" s="4" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="2" t="n">
         <v>4</v>
@@ -4359,29 +4361,29 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="53" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="53" s="4" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="2" t="n">
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="54" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="54" s="4" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="2" t="n">
         <v>3</v>
@@ -4399,15 +4401,15 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="55" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="55" s="4" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="2" t="n">
         <v>4</v>
@@ -4425,15 +4427,15 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="56" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="56" s="4" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="2" t="n">
         <v>3</v>
@@ -4448,15 +4450,15 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="57" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="57" s="4" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="2" t="n">
         <v>2</v>
@@ -4468,29 +4470,29 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="58" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="58" s="4" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="2" t="n">
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="59" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="59" s="4" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="2" t="n">
         <v>6</v>
@@ -4499,15 +4501,15 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="60" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="60" s="4" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="2" t="n">
         <v>2</v>
@@ -4516,15 +4518,15 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="61" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="61" s="4" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="2" t="n">
         <v>3</v>
@@ -4539,15 +4541,15 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="62" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="62" s="4" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="2" t="n">
         <v>2</v>
@@ -4565,29 +4567,29 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="63" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="63" s="4" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="2" t="n">
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="64" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="64" s="4" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D64" s="2" t="n">
         <v>1</v>
@@ -4599,15 +4601,15 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="65" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="65" s="4" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D65" s="2" t="n">
         <v>2</v>
@@ -4619,15 +4621,15 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="66" s="4" spans="1:9">
+    <row customHeight="1" ht="17.1" r="66" s="4" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D66" s="2" t="n">
         <v>3</v>
@@ -4642,29 +4644,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B67" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C67" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D67" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B68" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C68" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D68" t="n">
         <v>4</v>
@@ -4676,15 +4678,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B69" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C69" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D69" t="n">
         <v>8</v>
@@ -4696,15 +4698,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B70" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C70" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D70" t="n">
         <v>3</v>
@@ -4722,15 +4724,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B71" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C71" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D71" t="n">
         <v>3</v>
@@ -4739,15 +4741,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B72" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C72" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D72" t="n">
         <v>3</v>
@@ -4768,15 +4770,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B73" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C73" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D73" t="n">
         <v>3</v>
@@ -4797,15 +4799,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B74" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C74" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D74" t="n">
         <v>8</v>
@@ -4823,15 +4825,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B75" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C75" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D75" t="n">
         <v>1</v>
@@ -4849,29 +4851,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B76" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C76" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D76" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B77" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C77" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D77" t="n">
         <v>2</v>
@@ -4886,15 +4888,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B78" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C78" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D78" t="n">
         <v>3</v>
@@ -4912,15 +4914,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B79" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C79" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D79" t="n">
         <v>3</v>
@@ -4941,15 +4943,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B80" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C80" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D80" t="n">
         <v>3</v>
@@ -4961,15 +4963,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B81" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C81" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D81" t="n">
         <v>2</v>
@@ -4984,15 +4986,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B82" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C82" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D82" t="n">
         <v>1</v>
@@ -5001,15 +5003,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B83" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C83" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D83" t="n">
         <v>1</v>
@@ -5018,15 +5020,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B84" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C84" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D84" t="n">
         <v>1</v>
@@ -5041,15 +5043,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B85" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C85" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D85" t="n">
         <v>2</v>
@@ -5064,15 +5066,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B86" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C86" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D86" t="n">
         <v>1</v>
@@ -5084,15 +5086,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B87" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C87" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D87" t="n">
         <v>2</v>
@@ -5104,15 +5106,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B88" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C88" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D88" t="n">
         <v>1</v>
@@ -5133,29 +5135,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B89" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C89" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D89" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B90" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C90" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D90" t="n">
         <v>2</v>
@@ -5173,15 +5175,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:10">
       <c r="A91" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B91" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C91" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D91" t="n">
         <v>4</v>
@@ -5196,15 +5198,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B92" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C92" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D92" t="n">
         <v>1</v>
@@ -5219,15 +5221,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B93" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C93" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D93" t="n">
         <v>1</v>
@@ -5245,15 +5247,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B94" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C94" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D94" t="n">
         <v>1</v>
@@ -5268,15 +5270,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B95" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C95" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D95" t="n">
         <v>3</v>
@@ -5288,15 +5290,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:10">
       <c r="A96" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B96" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C96" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D96" t="n">
         <v>2</v>
@@ -5317,15 +5319,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B97" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C97" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D97" t="n">
         <v>1</v>
@@ -5340,43 +5342,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B98" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C98" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D98" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:10">
       <c r="A99" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B99" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C99" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D99" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:10">
       <c r="A100" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B100" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C100" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D100" t="n">
         <v>3</v>
@@ -5394,15 +5396,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:10">
       <c r="A101" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B101" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C101" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D101" t="n">
         <v>1</v>
@@ -5420,15 +5422,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:10">
       <c r="A102" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B102" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C102" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D102" t="n">
         <v>1</v>
@@ -5449,15 +5451,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:10">
       <c r="A103" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B103" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C103" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D103" t="n">
         <v>4</v>
@@ -5475,15 +5477,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:10">
       <c r="A104" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B104" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C104" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D104" t="n">
         <v>2</v>
@@ -5492,15 +5494,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:10">
       <c r="A105" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B105" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C105" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D105" t="n">
         <v>2</v>
@@ -5512,15 +5514,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:10">
       <c r="A106" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B106" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C106" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D106" t="n">
         <v>2</v>
@@ -5538,15 +5540,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:10">
       <c r="A107" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B107" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C107" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D107" t="n">
         <v>2</v>
@@ -5564,15 +5566,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:10">
       <c r="A108" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B108" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C108" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D108" t="n">
         <v>2</v>
@@ -5584,15 +5586,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:10">
       <c r="A109" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B109" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C109" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D109" t="n">
         <v>1</v>
@@ -5610,15 +5612,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:10">
       <c r="A110" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B110" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C110" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D110" t="n">
         <v>2</v>
@@ -5633,15 +5635,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:10">
       <c r="A111" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B111" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C111" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D111" t="n">
         <v>2</v>
@@ -5653,15 +5655,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:10">
       <c r="A112" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B112" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C112" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D112" t="n">
         <v>2</v>
@@ -5679,15 +5681,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:10">
       <c r="A113" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B113" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C113" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D113" t="n">
         <v>1</v>
@@ -5708,15 +5710,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:10">
       <c r="A114" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B114" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C114" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E114" t="n">
         <v>12</v>
@@ -5731,37 +5733,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:10">
       <c r="A115" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E115" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:10">
       <c r="A116" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B116" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C116" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E116" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:10">
       <c r="A117" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B117" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C117" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -5773,15 +5775,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:10">
       <c r="A118" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B118" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C118" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E118" t="n">
         <v>2</v>
@@ -5790,9 +5792,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:10">
       <c r="A119" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E119" t="n">
         <v>1</v>
@@ -5801,9 +5803,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:10">
       <c r="A120" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E120" t="n">
         <v>5</v>
@@ -5812,15 +5814,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:10">
       <c r="A121" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B121" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C121" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E121" t="n">
         <v>9</v>
@@ -5835,29 +5837,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:10">
       <c r="A122" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B122" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C122" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E122" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:10">
       <c r="A123" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B123" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C123" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E123" t="n">
         <v>1</v>
@@ -5872,15 +5874,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:10">
       <c r="A124" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B124" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C124" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E124" t="n">
         <v>2</v>
@@ -5892,71 +5894,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:10">
       <c r="A125" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B125" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C125" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E125" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:10">
       <c r="A126" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B126" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C126" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E126" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:10">
       <c r="A127" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B127" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C127" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E127" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:10">
       <c r="A128" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B128" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C128" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E128" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:10">
       <c r="A129" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B129" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C129" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E129" t="n">
         <v>5</v>
@@ -5968,43 +5970,43 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:10">
       <c r="A130" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B130" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C130" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E130" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:10">
       <c r="A131" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B131" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C131" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:10">
       <c r="A132" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B132" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C132" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -6016,71 +6018,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:10">
       <c r="A133" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B133" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C133" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E133" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:10">
       <c r="A134" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B134" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C134" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E134" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:10">
       <c r="A135" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B135" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C135" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E135" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:10">
       <c r="A136" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B136" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C136" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E136" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:10">
       <c r="A137" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B137" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C137" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
@@ -6091,16 +6093,19 @@
       <c r="G137" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:9">
+      <c r="J137" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B138" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C138" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E138" t="n">
         <v>6</v>
@@ -6115,15 +6120,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:10">
       <c r="A139" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B139" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C139" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E139" t="n">
         <v>2</v>
@@ -6138,23 +6143,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:10">
       <c r="A140" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E140" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:10">
       <c r="A141" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B141" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E141" t="n">
         <v>4</v>
@@ -6172,79 +6177,79 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:10">
       <c r="A142" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E142" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:10">
       <c r="A143" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B143" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C143" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E143" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:10">
       <c r="A144" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B144" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C144" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E144" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:10">
       <c r="A145" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B145" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C145" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E145" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:10">
       <c r="A146" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B146" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C146" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E146" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:10">
       <c r="A147" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B147" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C147" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E147" t="n">
         <v>2</v>
@@ -6253,15 +6258,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:10">
       <c r="A148" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B148" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C148" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E148" t="n">
         <v>3</v>
@@ -6270,99 +6275,99 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:10">
       <c r="A149" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B149" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C149" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E149" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:10">
       <c r="A150" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B150" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C150" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E150" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:10">
       <c r="A151" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B151" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C151" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E151" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:10">
       <c r="A152" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B152" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C152" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E152" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:10">
       <c r="A153" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B153" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C153" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E153" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:10">
       <c r="A154" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B154" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C154" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E154" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:10">
       <c r="A155" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B155" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C155" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E155" t="n">
         <v>8</v>
@@ -6380,23 +6385,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:10">
       <c r="A156" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E156" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:10">
       <c r="A157" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B157" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C157" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E157" t="n">
         <v>3</v>
@@ -6405,15 +6410,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:10">
       <c r="A158" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B158" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C158" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E158" t="n">
         <v>17</v>
@@ -6431,15 +6436,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:10">
       <c r="A159" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B159" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C159" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E159" t="n">
         <v>5</v>
@@ -6454,43 +6459,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:10">
       <c r="A160" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B160" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C160" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E160" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:10">
       <c r="A161" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B161" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C161" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E161" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:10">
       <c r="A162" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B162" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C162" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E162" t="n">
         <v>3</v>
@@ -6505,15 +6510,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:10">
       <c r="A163" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B163" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C163" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E163" t="n">
         <v>2</v>
@@ -6522,15 +6527,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:10">
       <c r="A164" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B164" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C164" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E164" t="n">
         <v>2</v>
@@ -6545,23 +6550,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:10">
       <c r="A165" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E165" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:10">
       <c r="A166" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B166" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C166" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E166" t="n">
         <v>2</v>
@@ -6570,9 +6575,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:10">
       <c r="A167" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E167" t="n">
         <v>1</v>
@@ -6581,15 +6586,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:10">
       <c r="A168" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B168" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C168" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E168" t="n">
         <v>2</v>
@@ -6601,15 +6606,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:10">
       <c r="A169" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B169" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C169" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E169" t="n">
         <v>2</v>
@@ -6621,29 +6626,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:10">
       <c r="A170" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B170" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C170" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E170" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:10">
       <c r="A171" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B171" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C171" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E171" t="n">
         <v>2</v>
@@ -6655,15 +6660,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:10">
       <c r="A172" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B172" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C172" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E172" t="n">
         <v>2</v>
@@ -6672,15 +6677,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:10">
       <c r="A173" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B173" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C173" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E173" t="n">
         <v>1</v>
@@ -6692,15 +6697,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:10">
       <c r="A174" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B174" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C174" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E174" t="n">
         <v>6</v>
@@ -6715,15 +6720,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:10">
       <c r="A175" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B175" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C175" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E175" t="n">
         <v>3</v>
@@ -6741,9 +6746,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:10">
       <c r="A176" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E176" t="n">
         <v>1</v>
@@ -6752,67 +6757,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:10">
       <c r="A177" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E177" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:10">
       <c r="A178" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B178" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C178" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E178" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:10">
       <c r="A179" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E179" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:10">
       <c r="A180" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B180" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C180" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F180" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:10">
       <c r="A181" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F181" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:10">
       <c r="A182" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B182" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C182" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F182" t="n">
         <v>6</v>
@@ -6827,15 +6832,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:10">
       <c r="A183" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B183" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C183" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F183" t="n">
         <v>4</v>
@@ -6850,9 +6855,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:10">
       <c r="A184" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F184" t="n">
         <v>1</v>
@@ -6864,59 +6869,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:10">
       <c r="A185" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B185" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C185" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F185" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:10">
       <c r="A186" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F186" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:10">
       <c r="A187" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B187" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C187" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F187" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:10">
       <c r="A188" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F188" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:10">
       <c r="A189" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B189" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C189" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F189" t="n">
         <v>3</v>
@@ -6931,45 +6936,45 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:10">
       <c r="A190" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F190" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:10">
       <c r="A191" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B191" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C191" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F191" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:10">
       <c r="A192" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B192" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C192" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F192" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:10">
       <c r="A193" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F193" t="n">
         <v>1</v>
@@ -6978,15 +6983,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:10">
       <c r="A194" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B194" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C194" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F194" t="n">
         <v>3</v>
@@ -7001,15 +7006,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:10">
       <c r="A195" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B195" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C195" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F195" t="n">
         <v>2</v>
@@ -7018,15 +7023,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:10">
       <c r="A196" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B196" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C196" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G196" t="n">
         <v>23</v>
@@ -7035,15 +7040,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:10">
       <c r="A197" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B197" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C197" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G197" t="n">
         <v>9</v>
@@ -7055,23 +7060,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:10">
       <c r="A198" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B198" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C198" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G198" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:10">
       <c r="A199" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G199" t="n">
         <v>5</v>
@@ -7083,51 +7088,51 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:10">
       <c r="A200" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:10">
       <c r="A201" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B201" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C201" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G201" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:10">
       <c r="A202" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B202" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C202" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:10">
       <c r="A203" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B203" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C203" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -7136,47 +7141,47 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:10">
       <c r="A204" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:10">
       <c r="A205" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:10">
       <c r="A206" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:10">
       <c r="A207" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:10">
       <c r="A208" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B208" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C208" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7185,368 +7190,368 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:10">
       <c r="A209" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B209" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C209" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G209" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:10">
       <c r="A210" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:10">
       <c r="A211" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B211" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C211" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G211" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:10">
       <c r="A212" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B212" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C212" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H212" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:10">
       <c r="A213" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H213" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:10">
       <c r="A214" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H214" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:10">
       <c r="A215" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H215" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:10">
       <c r="A216" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B216" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H216" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:10">
       <c r="A217" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H217" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:10">
       <c r="A218" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H218" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:10">
       <c r="A219" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B219" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C219" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H219" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:10">
       <c r="A220" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B220" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C220" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H220" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:10">
       <c r="A221" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H221" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:10">
       <c r="A222" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B222" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C222" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H222" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:10">
       <c r="A223" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B223" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C223" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="I223" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:10">
       <c r="A224" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B224" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C224" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="I224" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:10">
       <c r="A225" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B225" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C225" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I225" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:10">
       <c r="A226" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B226" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C226" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="I226" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:10">
       <c r="A227" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B227" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C227" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="I227" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:10">
       <c r="A228" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B228" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C228" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="I228" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:10">
       <c r="A229" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="I229" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:10">
       <c r="A230" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B230" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C230" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="I230" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:10">
       <c r="A231" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="I231" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:10">
       <c r="A232" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B232" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C232" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="I232" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:10">
       <c r="A233" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="I233" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:10">
       <c r="A234" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="I234" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:10">
       <c r="A235" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="I235" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:10">
       <c r="A236" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B236" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C236" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="I236" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:10">
       <c r="A237" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B237" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C237" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="I237" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:10">
       <c r="A238" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="I238" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:10">
       <c r="A239" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B239" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C239" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="I239" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:10">
       <c r="A240" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B240" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C240" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="I240" t="n">
         <v>2</v>
@@ -7567,10 +7572,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7578,9 +7583,9 @@
     <col customWidth="1" max="1" min="1" style="4" width="25"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="19" r="1" s="4" spans="1:2">
+    <row customHeight="1" ht="18.95" r="1" s="4" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7634,6 +7639,15 @@
       </c>
       <c r="B7">
         <f>SUM(Sheet!I2:I240)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <f>SUM(Sheet!J2:J240)</f>
         <v/>
       </c>
     </row>

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="640">
   <si>
     <t>UID</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>January 2017</t>
+  </si>
+  <si>
+    <t>February 2017</t>
   </si>
   <si>
     <t>8FD8AAE4A0</t>
@@ -3210,7 +3213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I240"/>
+  <dimension ref="A1:J240"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
@@ -3229,7 +3232,7 @@
     <col customWidth="1" max="9" min="9" style="4" width="20"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="23" r="1" s="4" spans="1:9">
+    <row customHeight="1" ht="23" r="1" s="4" spans="1:10">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3257,26 +3260,29 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row customHeight="1" ht="17" r="2" s="4" spans="1:9">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17" r="2" s="4" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="n"/>
       <c r="D2" s="3" t="n"/>
     </row>
-    <row customHeight="1" ht="17" r="3" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="3" s="4" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>6</v>
@@ -3285,15 +3291,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="4" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="4" s="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>2</v>
@@ -3314,15 +3320,15 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="5" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="5" s="4" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3" t="n">
         <v>4</v>
@@ -3331,15 +3337,15 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="6" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="6" s="4" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>2</v>
@@ -3357,12 +3363,12 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="7" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="7" s="4" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="n"/>
       <c r="D7" s="2" t="n">
@@ -3375,30 +3381,30 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="8" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="8" s="4" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="3" t="n"/>
       <c r="E8" t="n">
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="9" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="9" s="4" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>4</v>
@@ -3407,15 +3413,15 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="10" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="10" s="4" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>10</v>
@@ -3430,15 +3436,15 @@
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="11" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="11" s="4" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>13</v>
@@ -3459,15 +3465,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="12" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="12" s="4" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" s="3" t="n">
         <v>2</v>
@@ -3488,15 +3494,15 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="13" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="13" s="4" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D13" s="3" t="n">
         <v>3</v>
@@ -3505,15 +3511,15 @@
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="14" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="14" s="4" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>43</v>
@@ -3534,15 +3540,15 @@
         <v>117</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="15" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="15" s="4" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>9</v>
@@ -3563,15 +3569,15 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="16" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="16" s="4" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>4</v>
@@ -3583,15 +3589,15 @@
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="17" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="17" s="4" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>4</v>
@@ -3606,15 +3612,15 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="18" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="18" s="4" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>8</v>
@@ -3632,15 +3638,15 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="19" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="19" s="4" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>4</v>
@@ -3655,9 +3661,9 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="20" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="20" s="4" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B20" s="3" t="n"/>
       <c r="C20" s="3" t="n"/>
@@ -3665,15 +3671,15 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="21" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="21" s="4" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>5</v>
@@ -3694,15 +3700,15 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="22" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="22" s="4" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>7</v>
@@ -3711,15 +3717,15 @@
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="23" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="23" s="4" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>3</v>
@@ -3734,15 +3740,15 @@
         <v>17</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="24" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="24" s="4" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>3</v>
@@ -3754,15 +3760,15 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="25" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="25" s="4" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="2" t="n">
         <v>1</v>
@@ -3771,29 +3777,29 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="26" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="26" s="4" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="27" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="27" s="4" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>9</v>
@@ -3805,15 +3811,15 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="28" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="28" s="4" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>2</v>
@@ -3828,15 +3834,15 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="29" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="29" s="4" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="2" t="n">
         <v>4</v>
@@ -3854,15 +3860,15 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="30" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="30" s="4" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>2</v>
@@ -3880,15 +3886,15 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="31" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="31" s="4" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="2" t="n">
         <v>2</v>
@@ -3906,15 +3912,15 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="32" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="32" s="4" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="2" t="n">
         <v>3</v>
@@ -3935,15 +3941,15 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="33" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="33" s="4" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>1</v>
@@ -3952,15 +3958,15 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="34" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="34" s="4" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="2" t="n">
         <v>5</v>
@@ -3972,15 +3978,15 @@
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="35" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="35" s="4" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="2" t="n">
         <v>1</v>
@@ -3992,15 +3998,15 @@
         <v>4</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="36" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="36" s="4" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>1</v>
@@ -4012,15 +4018,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="37" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="37" s="4" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="2" t="n">
         <v>4</v>
@@ -4041,15 +4047,15 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="38" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="38" s="4" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="2" t="n">
         <v>6</v>
@@ -4064,15 +4070,15 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="39" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="39" s="4" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="2" t="n">
         <v>7</v>
@@ -4093,15 +4099,15 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="40" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="40" s="4" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="2" t="n">
         <v>4</v>
@@ -4122,15 +4128,15 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="41" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="41" s="4" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="2" t="n">
         <v>2</v>
@@ -4148,15 +4154,15 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="42" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="42" s="4" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="2" t="n">
         <v>3</v>
@@ -4165,15 +4171,15 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="43" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="43" s="4" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="2" t="n">
         <v>3</v>
@@ -4182,29 +4188,29 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="44" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="44" s="4" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="2" t="n">
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="45" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="45" s="4" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="2" t="n">
         <v>4</v>
@@ -4222,15 +4228,15 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="46" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="46" s="4" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="2" t="n">
         <v>2</v>
@@ -4239,15 +4245,15 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="47" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="47" s="4" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="2" t="n">
         <v>3</v>
@@ -4259,15 +4265,15 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="48" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="48" s="4" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="2" t="n">
         <v>2</v>
@@ -4276,15 +4282,15 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="49" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="49" s="4" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="2" t="n">
         <v>4</v>
@@ -4299,15 +4305,15 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="50" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="50" s="4" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="2" t="n">
         <v>4</v>
@@ -4316,15 +4322,15 @@
         <v>4</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="51" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="51" s="4" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="2" t="n">
         <v>3</v>
@@ -4339,15 +4345,15 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="52" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="52" s="4" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="2" t="n">
         <v>4</v>
@@ -4359,29 +4365,29 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="53" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="53" s="4" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="2" t="n">
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="54" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="54" s="4" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="2" t="n">
         <v>3</v>
@@ -4399,15 +4405,15 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="55" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="55" s="4" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="2" t="n">
         <v>4</v>
@@ -4425,15 +4431,15 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="56" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="56" s="4" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="2" t="n">
         <v>3</v>
@@ -4448,15 +4454,15 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="57" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="57" s="4" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="2" t="n">
         <v>2</v>
@@ -4468,29 +4474,29 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="58" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="58" s="4" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="2" t="n">
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="59" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="59" s="4" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="2" t="n">
         <v>6</v>
@@ -4499,15 +4505,15 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="60" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="60" s="4" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="2" t="n">
         <v>2</v>
@@ -4516,15 +4522,15 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="61" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="61" s="4" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="2" t="n">
         <v>3</v>
@@ -4539,15 +4545,15 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="62" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="62" s="4" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="2" t="n">
         <v>2</v>
@@ -4565,29 +4571,29 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="63" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="63" s="4" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="2" t="n">
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="64" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="64" s="4" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D64" s="2" t="n">
         <v>1</v>
@@ -4599,15 +4605,15 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="65" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="65" s="4" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D65" s="2" t="n">
         <v>2</v>
@@ -4619,15 +4625,15 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="66" s="4" spans="1:9">
+    <row customHeight="1" ht="17" r="66" s="4" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D66" s="2" t="n">
         <v>3</v>
@@ -4642,29 +4648,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B67" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C67" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D67" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B68" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C68" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D68" t="n">
         <v>4</v>
@@ -4676,15 +4682,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B69" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C69" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D69" t="n">
         <v>8</v>
@@ -4696,15 +4702,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B70" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C70" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D70" t="n">
         <v>3</v>
@@ -4722,15 +4728,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B71" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C71" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D71" t="n">
         <v>3</v>
@@ -4739,15 +4745,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B72" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C72" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D72" t="n">
         <v>3</v>
@@ -4768,15 +4774,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B73" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C73" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D73" t="n">
         <v>3</v>
@@ -4797,15 +4803,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B74" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C74" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D74" t="n">
         <v>8</v>
@@ -4823,15 +4829,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B75" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C75" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D75" t="n">
         <v>1</v>
@@ -4849,29 +4855,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B76" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C76" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D76" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B77" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C77" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D77" t="n">
         <v>2</v>
@@ -4886,15 +4892,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B78" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C78" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D78" t="n">
         <v>3</v>
@@ -4912,15 +4918,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B79" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C79" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D79" t="n">
         <v>3</v>
@@ -4941,15 +4947,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B80" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C80" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D80" t="n">
         <v>3</v>
@@ -4961,15 +4967,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B81" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C81" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D81" t="n">
         <v>2</v>
@@ -4984,15 +4990,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B82" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C82" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D82" t="n">
         <v>1</v>
@@ -5001,15 +5007,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B83" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C83" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D83" t="n">
         <v>1</v>
@@ -5018,15 +5024,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B84" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C84" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D84" t="n">
         <v>1</v>
@@ -5041,15 +5047,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B85" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C85" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D85" t="n">
         <v>2</v>
@@ -5064,15 +5070,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B86" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C86" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D86" t="n">
         <v>1</v>
@@ -5084,15 +5090,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B87" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C87" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D87" t="n">
         <v>2</v>
@@ -5104,15 +5110,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B88" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C88" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D88" t="n">
         <v>1</v>
@@ -5133,29 +5139,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B89" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C89" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D89" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B90" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C90" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D90" t="n">
         <v>2</v>
@@ -5173,15 +5179,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:10">
       <c r="A91" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B91" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C91" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D91" t="n">
         <v>4</v>
@@ -5196,15 +5202,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B92" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C92" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D92" t="n">
         <v>1</v>
@@ -5219,15 +5225,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B93" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C93" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D93" t="n">
         <v>1</v>
@@ -5245,15 +5251,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B94" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C94" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D94" t="n">
         <v>1</v>
@@ -5268,15 +5274,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B95" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C95" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D95" t="n">
         <v>3</v>
@@ -5288,15 +5294,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:10">
       <c r="A96" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B96" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C96" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D96" t="n">
         <v>2</v>
@@ -5317,15 +5323,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B97" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C97" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D97" t="n">
         <v>1</v>
@@ -5340,43 +5346,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B98" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C98" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D98" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:10">
       <c r="A99" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B99" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C99" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D99" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:10">
       <c r="A100" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B100" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C100" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D100" t="n">
         <v>3</v>
@@ -5394,15 +5400,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:10">
       <c r="A101" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B101" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C101" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D101" t="n">
         <v>1</v>
@@ -5420,15 +5426,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:10">
       <c r="A102" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B102" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C102" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D102" t="n">
         <v>1</v>
@@ -5449,15 +5455,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:10">
       <c r="A103" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B103" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C103" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D103" t="n">
         <v>4</v>
@@ -5475,15 +5481,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:10">
       <c r="A104" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B104" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C104" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D104" t="n">
         <v>2</v>
@@ -5492,15 +5498,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:10">
       <c r="A105" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B105" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C105" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D105" t="n">
         <v>2</v>
@@ -5512,15 +5518,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:10">
       <c r="A106" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B106" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C106" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D106" t="n">
         <v>2</v>
@@ -5538,15 +5544,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:10">
       <c r="A107" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B107" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C107" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D107" t="n">
         <v>2</v>
@@ -5564,15 +5570,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:10">
       <c r="A108" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B108" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C108" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D108" t="n">
         <v>2</v>
@@ -5584,15 +5590,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:10">
       <c r="A109" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B109" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C109" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D109" t="n">
         <v>1</v>
@@ -5610,15 +5616,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:10">
       <c r="A110" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B110" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C110" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D110" t="n">
         <v>2</v>
@@ -5633,15 +5639,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:10">
       <c r="A111" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B111" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C111" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D111" t="n">
         <v>2</v>
@@ -5653,15 +5659,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:10">
       <c r="A112" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B112" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C112" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D112" t="n">
         <v>2</v>
@@ -5679,15 +5685,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:10">
       <c r="A113" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B113" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C113" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D113" t="n">
         <v>1</v>
@@ -5708,15 +5714,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:10">
       <c r="A114" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B114" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C114" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E114" t="n">
         <v>12</v>
@@ -5731,37 +5737,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:10">
       <c r="A115" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E115" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:10">
       <c r="A116" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B116" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C116" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E116" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:10">
       <c r="A117" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B117" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C117" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -5773,15 +5779,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:10">
       <c r="A118" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B118" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C118" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E118" t="n">
         <v>2</v>
@@ -5790,9 +5796,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:10">
       <c r="A119" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E119" t="n">
         <v>1</v>
@@ -5801,9 +5807,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:10">
       <c r="A120" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E120" t="n">
         <v>5</v>
@@ -5812,15 +5818,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:10">
       <c r="A121" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B121" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C121" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E121" t="n">
         <v>9</v>
@@ -5835,29 +5841,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:10">
       <c r="A122" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B122" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C122" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E122" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:10">
       <c r="A123" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B123" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C123" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E123" t="n">
         <v>1</v>
@@ -5872,15 +5878,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:10">
       <c r="A124" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B124" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C124" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E124" t="n">
         <v>2</v>
@@ -5892,71 +5898,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:10">
       <c r="A125" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B125" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C125" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E125" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:10">
       <c r="A126" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B126" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C126" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E126" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:10">
       <c r="A127" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B127" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C127" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E127" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:10">
       <c r="A128" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B128" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C128" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E128" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:10">
       <c r="A129" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B129" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C129" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E129" t="n">
         <v>5</v>
@@ -5968,43 +5974,43 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:10">
       <c r="A130" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B130" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C130" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E130" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:10">
       <c r="A131" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B131" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C131" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:10">
       <c r="A132" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B132" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C132" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -6016,71 +6022,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:10">
       <c r="A133" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B133" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C133" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E133" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:10">
       <c r="A134" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B134" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C134" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E134" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:10">
       <c r="A135" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B135" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C135" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E135" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:10">
       <c r="A136" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B136" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C136" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E136" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:10">
       <c r="A137" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B137" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C137" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
@@ -6091,16 +6097,19 @@
       <c r="G137" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:9">
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B138" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C138" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E138" t="n">
         <v>6</v>
@@ -6115,15 +6124,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:10">
       <c r="A139" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B139" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C139" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E139" t="n">
         <v>2</v>
@@ -6138,23 +6147,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:10">
       <c r="A140" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E140" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:10">
       <c r="A141" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B141" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E141" t="n">
         <v>4</v>
@@ -6172,79 +6181,79 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:10">
       <c r="A142" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E142" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:10">
       <c r="A143" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B143" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C143" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E143" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:10">
       <c r="A144" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B144" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C144" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E144" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:10">
       <c r="A145" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B145" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C145" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E145" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:10">
       <c r="A146" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B146" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C146" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E146" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:10">
       <c r="A147" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B147" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C147" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E147" t="n">
         <v>2</v>
@@ -6253,15 +6262,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:10">
       <c r="A148" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B148" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C148" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E148" t="n">
         <v>3</v>
@@ -6270,99 +6279,99 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:10">
       <c r="A149" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B149" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C149" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E149" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:10">
       <c r="A150" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B150" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C150" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E150" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:10">
       <c r="A151" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B151" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C151" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E151" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:10">
       <c r="A152" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B152" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C152" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E152" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:10">
       <c r="A153" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B153" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C153" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E153" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:10">
       <c r="A154" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B154" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C154" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E154" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:10">
       <c r="A155" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B155" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C155" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E155" t="n">
         <v>8</v>
@@ -6380,23 +6389,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:10">
       <c r="A156" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E156" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:10">
       <c r="A157" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B157" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C157" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E157" t="n">
         <v>3</v>
@@ -6405,15 +6414,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:10">
       <c r="A158" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B158" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C158" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E158" t="n">
         <v>17</v>
@@ -6431,15 +6440,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:10">
       <c r="A159" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B159" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C159" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E159" t="n">
         <v>5</v>
@@ -6454,43 +6463,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:10">
       <c r="A160" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B160" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C160" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E160" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:10">
       <c r="A161" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B161" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C161" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E161" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:10">
       <c r="A162" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B162" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C162" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E162" t="n">
         <v>3</v>
@@ -6505,15 +6514,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:10">
       <c r="A163" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B163" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C163" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E163" t="n">
         <v>2</v>
@@ -6522,15 +6531,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:10">
       <c r="A164" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B164" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C164" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E164" t="n">
         <v>2</v>
@@ -6545,23 +6554,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:10">
       <c r="A165" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E165" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:10">
       <c r="A166" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B166" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C166" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E166" t="n">
         <v>2</v>
@@ -6570,9 +6579,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:10">
       <c r="A167" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E167" t="n">
         <v>1</v>
@@ -6581,15 +6590,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:10">
       <c r="A168" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B168" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C168" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E168" t="n">
         <v>2</v>
@@ -6601,15 +6610,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:10">
       <c r="A169" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B169" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C169" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E169" t="n">
         <v>2</v>
@@ -6621,29 +6630,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:10">
       <c r="A170" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B170" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C170" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E170" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:10">
       <c r="A171" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B171" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C171" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E171" t="n">
         <v>2</v>
@@ -6655,15 +6664,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:10">
       <c r="A172" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B172" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C172" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E172" t="n">
         <v>2</v>
@@ -6672,15 +6681,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:10">
       <c r="A173" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B173" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C173" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E173" t="n">
         <v>1</v>
@@ -6692,15 +6701,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:10">
       <c r="A174" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B174" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C174" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E174" t="n">
         <v>6</v>
@@ -6715,15 +6724,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:10">
       <c r="A175" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B175" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C175" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E175" t="n">
         <v>3</v>
@@ -6741,9 +6750,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:10">
       <c r="A176" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E176" t="n">
         <v>1</v>
@@ -6752,67 +6761,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:10">
       <c r="A177" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E177" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:10">
       <c r="A178" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B178" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C178" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E178" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:10">
       <c r="A179" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E179" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:10">
       <c r="A180" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B180" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C180" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F180" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:10">
       <c r="A181" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F181" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:10">
       <c r="A182" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B182" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C182" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F182" t="n">
         <v>6</v>
@@ -6827,15 +6836,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:10">
       <c r="A183" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B183" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C183" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F183" t="n">
         <v>4</v>
@@ -6850,9 +6859,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:10">
       <c r="A184" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F184" t="n">
         <v>1</v>
@@ -6864,59 +6873,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:10">
       <c r="A185" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B185" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C185" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F185" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:10">
       <c r="A186" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F186" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:10">
       <c r="A187" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B187" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C187" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F187" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:10">
       <c r="A188" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F188" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:10">
       <c r="A189" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B189" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C189" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F189" t="n">
         <v>3</v>
@@ -6931,45 +6940,45 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:10">
       <c r="A190" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F190" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:10">
       <c r="A191" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B191" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C191" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F191" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:10">
       <c r="A192" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B192" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C192" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F192" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:10">
       <c r="A193" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F193" t="n">
         <v>1</v>
@@ -6978,15 +6987,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:10">
       <c r="A194" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B194" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C194" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F194" t="n">
         <v>3</v>
@@ -7001,15 +7010,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:10">
       <c r="A195" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B195" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C195" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F195" t="n">
         <v>2</v>
@@ -7018,15 +7027,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:10">
       <c r="A196" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B196" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C196" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G196" t="n">
         <v>23</v>
@@ -7035,15 +7044,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:10">
       <c r="A197" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B197" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C197" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G197" t="n">
         <v>9</v>
@@ -7055,23 +7064,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:10">
       <c r="A198" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B198" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C198" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G198" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:10">
       <c r="A199" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G199" t="n">
         <v>5</v>
@@ -7083,51 +7092,51 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:10">
       <c r="A200" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:10">
       <c r="A201" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B201" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C201" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G201" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:10">
       <c r="A202" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B202" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C202" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:10">
       <c r="A203" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B203" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C203" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -7136,47 +7145,47 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:10">
       <c r="A204" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:10">
       <c r="A205" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:10">
       <c r="A206" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:10">
       <c r="A207" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:10">
       <c r="A208" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B208" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C208" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7185,368 +7194,368 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:10">
       <c r="A209" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B209" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C209" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G209" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:10">
       <c r="A210" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:10">
       <c r="A211" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B211" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C211" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G211" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:10">
       <c r="A212" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B212" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C212" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H212" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:10">
       <c r="A213" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H213" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:10">
       <c r="A214" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H214" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:10">
       <c r="A215" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H215" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:10">
       <c r="A216" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B216" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H216" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:10">
       <c r="A217" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H217" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:10">
       <c r="A218" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H218" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:10">
       <c r="A219" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B219" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C219" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H219" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:10">
       <c r="A220" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B220" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C220" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H220" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:10">
       <c r="A221" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H221" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:10">
       <c r="A222" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B222" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C222" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H222" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:10">
       <c r="A223" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B223" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C223" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="I223" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:10">
       <c r="A224" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B224" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C224" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="I224" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:10">
       <c r="A225" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B225" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C225" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="I225" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:10">
       <c r="A226" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B226" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C226" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="I226" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:10">
       <c r="A227" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B227" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C227" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="I227" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:10">
       <c r="A228" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B228" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C228" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="I228" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:10">
       <c r="A229" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="I229" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:10">
       <c r="A230" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B230" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C230" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="I230" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:10">
       <c r="A231" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="I231" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:10">
       <c r="A232" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B232" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C232" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="I232" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:10">
       <c r="A233" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="I233" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:10">
       <c r="A234" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="I234" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:10">
       <c r="A235" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="I235" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:10">
       <c r="A236" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B236" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C236" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="I236" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:10">
       <c r="A237" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B237" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C237" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="I237" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:10">
       <c r="A238" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="I238" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:10">
       <c r="A239" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B239" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C239" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="I239" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:10">
       <c r="A240" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B240" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C240" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="I240" t="n">
         <v>2</v>
@@ -7567,7 +7576,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -7580,7 +7589,7 @@
   <sheetData>
     <row customHeight="1" ht="19" r="1" s="4" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7634,6 +7643,15 @@
       </c>
       <c r="B7">
         <f>SUM(Sheet!I2:I240)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <f>SUM(Sheet!J2:J240)</f>
         <v/>
       </c>
     </row>

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr codeName="ThisWorkbook"/>
-  <s:bookViews>
-    <s:workbookView activeTab="1"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-    <s:sheet name="Monthly_STAT" sheetId="2" r:id="rId2"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FreddyAnthony\Documents\Python\summer_project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" activeTab="1"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Monthly_STAT" sheetId="2" r:id="rId2"/>
+  </sheets>
+  <calcPr calcId="162913"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="643">
   <si>
     <t>UID</t>
   </si>
@@ -1932,6 +1937,15 @@
   </si>
   <si>
     <t>rahyner.penaranda@jjay.cuny.ney</t>
+  </si>
+  <si>
+    <t>CFD89370C0</t>
+  </si>
+  <si>
+    <t>John Tomanelli</t>
+  </si>
+  <si>
+    <t>jptomanelli@gmail.com</t>
   </si>
   <si>
     <t>Month</t>
@@ -1940,45 +1954,31 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color indexed="8"/>
-      <sz val="12"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="18"/>
     </font>
     <font>
+      <i/>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <i val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="15"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="18"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <i val="1"/>
-      <color rgb="00000000"/>
-      <sz val="15"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -2015,24 +2015,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="49" xfId="0"/>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="49" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2101,6 +2099,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3208,38 +3214,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J240"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IL241"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="20"/>
-    <col customWidth="1" max="3" min="2" style="4" width="30"/>
-    <col customWidth="1" max="3" min="3" style="4" width="30"/>
-    <col customWidth="1" max="246" min="4" style="4" width="20"/>
-    <col customWidth="1" max="5" min="5" style="4" width="20"/>
-    <col customWidth="1" max="6" min="6" style="4" width="20"/>
-    <col customWidth="1" max="7" min="7" style="4" width="20"/>
-    <col customWidth="1" max="8" min="8" style="4" width="20"/>
-    <col customWidth="1" max="9" min="9" style="4" width="20"/>
+    <col min="1" max="1" width="20" style="4" customWidth="1"/>
+    <col min="2" max="3" width="30" style="4" customWidth="1"/>
+    <col min="4" max="246" width="20" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="23" r="1" s="4" spans="1:10">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -3264,17 +3260,17 @@
         <v>9</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="2" s="4" spans="1:10">
+    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="3" t="n"/>
-    </row>
-    <row customHeight="1" ht="17" r="3" s="4" spans="1:10">
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -3284,14 +3280,14 @@
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="2">
         <v>6</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="4" s="4" spans="1:10">
+    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -3301,26 +3297,26 @@
       <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4">
         <v>18</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>11</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>11</v>
       </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="5" s="4" spans="1:10">
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -3330,14 +3326,14 @@
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="3">
         <v>4</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="6" s="4" spans="1:10">
+    <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -3347,41 +3343,41 @@
       <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6">
         <v>4</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>4</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>6</v>
       </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="7" s="4" spans="1:10">
+      <c r="I6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="8" s="4" spans="1:10">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -3391,12 +3387,12 @@
       <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="3" t="n"/>
-      <c r="E8" t="n">
+      <c r="D8" s="3"/>
+      <c r="E8">
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="9" s="4" spans="1:10">
+    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -3406,14 +3402,14 @@
       <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="2">
         <v>4</v>
       </c>
-      <c r="E9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="10" s="4" spans="1:10">
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -3423,20 +3419,20 @@
       <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="2">
         <v>10</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>52</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>25</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="11" s="4" spans="1:10">
+    <row r="11" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,26 +3442,26 @@
       <c r="C11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="2">
         <v>13</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>39</v>
       </c>
-      <c r="F11" t="n">
-        <v>2</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
         <v>35</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>12</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="12" s="4" spans="1:10">
+    <row r="12" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -3475,26 +3471,26 @@
       <c r="C12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="D12" s="3">
+        <v>2</v>
+      </c>
+      <c r="E12">
         <v>25</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>12</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>12</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>8</v>
       </c>
-      <c r="I12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="13" s="4" spans="1:10">
+      <c r="I12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -3504,14 +3500,14 @@
       <c r="C13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="D13" s="3">
+        <v>3</v>
+      </c>
+      <c r="E13">
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="14" s="4" spans="1:10">
+    <row r="14" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
@@ -3521,26 +3517,26 @@
       <c r="C14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="2">
         <v>43</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>37</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>51</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>56</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>4</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>117</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="15" s="4" spans="1:10">
+    <row r="15" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
@@ -3550,26 +3546,26 @@
       <c r="C15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" s="2">
         <v>9</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>37</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>31</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>10</v>
       </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="16" s="4" spans="1:10">
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
@@ -3579,17 +3575,17 @@
       <c r="C16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" s="2">
         <v>4</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>9</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="17" s="4" spans="1:10">
+    <row r="17" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>52</v>
       </c>
@@ -3599,20 +3595,20 @@
       <c r="C17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" s="2">
         <v>4</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>10</v>
       </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="18" s="4" spans="1:10">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
@@ -3622,23 +3618,23 @@
       <c r="C18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" s="2">
         <v>8</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>33</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>28</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>25</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="19" s="4" spans="1:10">
+    <row r="19" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>58</v>
       </c>
@@ -3648,30 +3644,30 @@
       <c r="C19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" s="2">
         <v>4</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>21</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>4</v>
       </c>
-      <c r="G19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="20" s="4" spans="1:10">
+      <c r="G19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="3" t="n"/>
-      <c r="C20" s="3" t="n"/>
-      <c r="D20" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="21" s="4" spans="1:10">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
@@ -3681,26 +3677,26 @@
       <c r="C21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" s="2">
         <v>5</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>20</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>14</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>15</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>7</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="22" s="4" spans="1:10">
+    <row r="22" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
@@ -3710,14 +3706,14 @@
       <c r="C22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" s="2">
         <v>7</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="23" s="4" spans="1:10">
+    <row r="23" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>68</v>
       </c>
@@ -3727,20 +3723,20 @@
       <c r="C23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="D23" s="2">
+        <v>3</v>
+      </c>
+      <c r="E23">
         <v>7</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>9</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>17</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="24" s="4" spans="1:10">
+    <row r="24" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>71</v>
       </c>
@@ -3750,17 +3746,17 @@
       <c r="C24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E24" t="n">
-        <v>2</v>
-      </c>
-      <c r="F24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="25" s="4" spans="1:10">
+      <c r="D24" s="2">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>74</v>
       </c>
@@ -3770,14 +3766,14 @@
       <c r="C25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="26" s="4" spans="1:10">
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>77</v>
       </c>
@@ -3787,11 +3783,11 @@
       <c r="C26" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="27" s="4" spans="1:10">
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>80</v>
       </c>
@@ -3801,17 +3797,17 @@
       <c r="C27" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="2" t="n">
+      <c r="D27" s="2">
         <v>9</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>6</v>
       </c>
-      <c r="F27" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="28" s="4" spans="1:10">
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>83</v>
       </c>
@@ -3821,20 +3817,20 @@
       <c r="C28" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E28" t="n">
+      <c r="D28" s="2">
+        <v>2</v>
+      </c>
+      <c r="E28">
         <v>6</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>9</v>
       </c>
-      <c r="G28" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="29" s="4" spans="1:10">
+      <c r="G28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>86</v>
       </c>
@@ -3844,23 +3840,23 @@
       <c r="C29" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" s="2">
         <v>4</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>16</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>8</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>10</v>
       </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="30" s="4" spans="1:10">
+      <c r="H29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>89</v>
       </c>
@@ -3870,23 +3866,23 @@
       <c r="C30" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E30" t="n">
+      <c r="D30" s="2">
+        <v>2</v>
+      </c>
+      <c r="E30">
         <v>22</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>8</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>15</v>
       </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="31" s="4" spans="1:10">
+      <c r="H30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>92</v>
       </c>
@@ -3896,23 +3892,23 @@
       <c r="C31" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E31" t="n">
+      <c r="D31" s="2">
+        <v>2</v>
+      </c>
+      <c r="E31">
         <v>9</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>6</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>4</v>
       </c>
-      <c r="H31" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="32" s="4" spans="1:10">
+      <c r="H31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>95</v>
       </c>
@@ -3922,26 +3918,26 @@
       <c r="C32" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="D32" s="2">
+        <v>3</v>
+      </c>
+      <c r="E32">
         <v>7</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>4</v>
       </c>
-      <c r="G32" t="n">
-        <v>2</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="33" s="4" spans="1:10">
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>98</v>
       </c>
@@ -3951,14 +3947,14 @@
       <c r="C33" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="34" s="4" spans="1:10">
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>101</v>
       </c>
@@ -3968,17 +3964,17 @@
       <c r="C34" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="2" t="n">
+      <c r="D34" s="2">
         <v>5</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>6</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="35" s="4" spans="1:10">
+    <row r="35" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>104</v>
       </c>
@@ -3988,17 +3984,17 @@
       <c r="C35" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D35" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" t="n">
-        <v>3</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
         <v>4</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="36" s="4" spans="1:10">
+    <row r="36" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>107</v>
       </c>
@@ -4008,17 +4004,17 @@
       <c r="C36" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D36" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" t="n">
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36">
         <v>9</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="37" s="4" spans="1:10">
+    <row r="37" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>110</v>
       </c>
@@ -4028,26 +4024,26 @@
       <c r="C37" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D37" s="2" t="n">
+      <c r="D37" s="2">
         <v>4</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>11</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>5</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>4</v>
       </c>
-      <c r="H37" t="n">
-        <v>3</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="38" s="4" spans="1:10">
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>113</v>
       </c>
@@ -4057,20 +4053,20 @@
       <c r="C38" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D38" s="2" t="n">
+      <c r="D38" s="2">
         <v>6</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>13</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>6</v>
       </c>
-      <c r="G38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="39" s="4" spans="1:10">
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>116</v>
       </c>
@@ -4080,26 +4076,26 @@
       <c r="C39" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D39" s="2" t="n">
+      <c r="D39" s="2">
         <v>7</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>21</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>9</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>8</v>
       </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="40" s="4" spans="1:10">
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>119</v>
       </c>
@@ -4109,26 +4105,26 @@
       <c r="C40" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D40" s="2" t="n">
+      <c r="D40" s="2">
         <v>4</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>21</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>10</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>16</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
         <v>4</v>
       </c>
-      <c r="I40" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="41" s="4" spans="1:10">
+      <c r="I40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>122</v>
       </c>
@@ -4138,23 +4134,23 @@
       <c r="C41" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D41" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="D41" s="2">
+        <v>2</v>
+      </c>
+      <c r="E41">
         <v>5</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>4</v>
       </c>
-      <c r="G41" t="n">
-        <v>2</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="42" s="4" spans="1:10">
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>125</v>
       </c>
@@ -4164,14 +4160,14 @@
       <c r="C42" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D42" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="43" s="4" spans="1:10">
+      <c r="D42" s="2">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>128</v>
       </c>
@@ -4181,14 +4177,14 @@
       <c r="C43" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D43" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E43" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="44" s="4" spans="1:10">
+      <c r="D43" s="2">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>131</v>
       </c>
@@ -4198,11 +4194,11 @@
       <c r="C44" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D44" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="45" s="4" spans="1:10">
+      <c r="D44" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>134</v>
       </c>
@@ -4212,23 +4208,23 @@
       <c r="C45" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D45" s="2" t="n">
+      <c r="D45" s="2">
         <v>4</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>18</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>9</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>6</v>
       </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="46" s="4" spans="1:10">
+      <c r="H45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>137</v>
       </c>
@@ -4238,14 +4234,14 @@
       <c r="C46" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D46" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="47" s="4" spans="1:10">
+      <c r="D46" s="2">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>140</v>
       </c>
@@ -4255,17 +4251,17 @@
       <c r="C47" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D47" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E47" t="n">
+      <c r="D47" s="2">
+        <v>3</v>
+      </c>
+      <c r="E47">
         <v>5</v>
       </c>
-      <c r="G47" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="48" s="4" spans="1:10">
+      <c r="G47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>143</v>
       </c>
@@ -4275,14 +4271,14 @@
       <c r="C48" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D48" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E48" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="49" s="4" spans="1:10">
+      <c r="D48" s="2">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>146</v>
       </c>
@@ -4292,20 +4288,20 @@
       <c r="C49" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D49" s="2" t="n">
+      <c r="D49" s="2">
         <v>4</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>8</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>6</v>
       </c>
-      <c r="G49" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="50" s="4" spans="1:10">
+      <c r="G49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>149</v>
       </c>
@@ -4315,14 +4311,14 @@
       <c r="C50" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" s="2">
         <v>4</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>4</v>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="51" s="4" spans="1:10">
+    <row r="51" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>152</v>
       </c>
@@ -4332,20 +4328,20 @@
       <c r="C51" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D51" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E51" t="n">
+      <c r="D51" s="2">
+        <v>3</v>
+      </c>
+      <c r="E51">
         <v>4</v>
       </c>
-      <c r="F51" t="n">
-        <v>2</v>
-      </c>
-      <c r="G51" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="52" s="4" spans="1:10">
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>155</v>
       </c>
@@ -4355,17 +4351,17 @@
       <c r="C52" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D52" s="2" t="n">
+      <c r="D52" s="2">
         <v>4</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>8</v>
       </c>
-      <c r="I52" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="53" s="4" spans="1:10">
+      <c r="I52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>158</v>
       </c>
@@ -4375,11 +4371,11 @@
       <c r="C53" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D53" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="54" s="4" spans="1:10">
+      <c r="D53" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>161</v>
       </c>
@@ -4389,23 +4385,23 @@
       <c r="C54" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D54" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E54" t="n">
+      <c r="D54" s="2">
+        <v>3</v>
+      </c>
+      <c r="E54">
         <v>12</v>
       </c>
-      <c r="F54" t="n">
-        <v>3</v>
-      </c>
-      <c r="G54" t="n">
+      <c r="F54">
+        <v>3</v>
+      </c>
+      <c r="G54">
         <v>5</v>
       </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="55" s="4" spans="1:10">
+      <c r="H54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>164</v>
       </c>
@@ -4415,23 +4411,23 @@
       <c r="C55" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D55" s="2" t="n">
+      <c r="D55" s="2">
         <v>4</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>17</v>
       </c>
-      <c r="F55" t="n">
-        <v>2</v>
-      </c>
-      <c r="G55" t="n">
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
         <v>12</v>
       </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="56" s="4" spans="1:10">
+      <c r="H55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>167</v>
       </c>
@@ -4441,20 +4437,20 @@
       <c r="C56" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D56" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E56" t="n">
-        <v>1</v>
-      </c>
-      <c r="F56" t="n">
-        <v>3</v>
-      </c>
-      <c r="G56" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="57" s="4" spans="1:10">
+      <c r="D56" s="2">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>170</v>
       </c>
@@ -4464,17 +4460,17 @@
       <c r="C57" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D57" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E57" t="n">
-        <v>3</v>
-      </c>
-      <c r="G57" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="58" s="4" spans="1:10">
+      <c r="D57" s="2">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>173</v>
       </c>
@@ -4484,11 +4480,11 @@
       <c r="C58" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D58" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="59" s="4" spans="1:10">
+      <c r="D58" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>176</v>
       </c>
@@ -4498,14 +4494,14 @@
       <c r="C59" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D59" s="2" t="n">
+      <c r="D59" s="2">
         <v>6</v>
       </c>
-      <c r="E59" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="60" s="4" spans="1:10">
+      <c r="E59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>179</v>
       </c>
@@ -4515,14 +4511,14 @@
       <c r="C60" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D60" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="61" s="4" spans="1:10">
+      <c r="D60" s="2">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>182</v>
       </c>
@@ -4532,20 +4528,20 @@
       <c r="C61" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D61" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E61" t="n">
+      <c r="D61" s="2">
+        <v>3</v>
+      </c>
+      <c r="E61">
         <v>12</v>
       </c>
-      <c r="F61" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="62" s="4" spans="1:10">
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>185</v>
       </c>
@@ -4555,23 +4551,23 @@
       <c r="C62" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D62" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E62" t="n">
+      <c r="D62" s="2">
+        <v>2</v>
+      </c>
+      <c r="E62">
         <v>6</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>7</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>5</v>
       </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="63" s="4" spans="1:10">
+      <c r="H62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>188</v>
       </c>
@@ -4581,11 +4577,11 @@
       <c r="C63" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D63" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="64" s="4" spans="1:10">
+      <c r="D63" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>191</v>
       </c>
@@ -4595,17 +4591,17 @@
       <c r="C64" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D64" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E64" t="n">
+      <c r="D64" s="2">
+        <v>1</v>
+      </c>
+      <c r="E64">
         <v>4</v>
       </c>
-      <c r="F64" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="65" s="4" spans="1:10">
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>194</v>
       </c>
@@ -4615,17 +4611,17 @@
       <c r="C65" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D65" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="17" r="66" s="4" spans="1:10">
+      <c r="D65" s="2">
+        <v>2</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>197</v>
       </c>
@@ -4635,20 +4631,20 @@
       <c r="C66" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D66" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E66" t="n">
-        <v>2</v>
-      </c>
-      <c r="G66" t="n">
-        <v>1</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="D66" s="2">
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>200</v>
       </c>
@@ -4658,11 +4654,11 @@
       <c r="C67" t="s">
         <v>202</v>
       </c>
-      <c r="D67" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="D67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>203</v>
       </c>
@@ -4672,17 +4668,17 @@
       <c r="C68" t="s">
         <v>205</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>4</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>12</v>
       </c>
-      <c r="F68" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="F68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>206</v>
       </c>
@@ -4692,17 +4688,17 @@
       <c r="C69" t="s">
         <v>208</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>8</v>
       </c>
-      <c r="E69" t="n">
-        <v>2</v>
-      </c>
-      <c r="G69" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>209</v>
       </c>
@@ -4712,23 +4708,23 @@
       <c r="C70" t="s">
         <v>211</v>
       </c>
-      <c r="D70" t="n">
-        <v>3</v>
-      </c>
-      <c r="E70" t="n">
-        <v>2</v>
-      </c>
-      <c r="F70" t="n">
-        <v>1</v>
-      </c>
-      <c r="G70" t="n">
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
         <v>5</v>
       </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="I70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>212</v>
       </c>
@@ -4738,14 +4734,14 @@
       <c r="C71" t="s">
         <v>214</v>
       </c>
-      <c r="D71" t="n">
-        <v>3</v>
-      </c>
-      <c r="E71" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>215</v>
       </c>
@@ -4755,26 +4751,26 @@
       <c r="C72" t="s">
         <v>217</v>
       </c>
-      <c r="D72" t="n">
-        <v>3</v>
-      </c>
-      <c r="E72" t="n">
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72">
         <v>13</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>4</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>9</v>
       </c>
-      <c r="H72" t="n">
+      <c r="H72">
         <v>8</v>
       </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="I72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>218</v>
       </c>
@@ -4784,26 +4780,26 @@
       <c r="C73" t="s">
         <v>220</v>
       </c>
-      <c r="D73" t="n">
-        <v>3</v>
-      </c>
-      <c r="E73" t="n">
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73">
         <v>11</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>7</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>9</v>
       </c>
-      <c r="H73" t="n">
+      <c r="H73">
         <v>4</v>
       </c>
-      <c r="I73" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="I73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>221</v>
       </c>
@@ -4813,23 +4809,23 @@
       <c r="C74" t="s">
         <v>223</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>8</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>15</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>8</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>5</v>
       </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="H74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>224</v>
       </c>
@@ -4839,23 +4835,23 @@
       <c r="C75" t="s">
         <v>226</v>
       </c>
-      <c r="D75" t="n">
-        <v>1</v>
-      </c>
-      <c r="E75" t="n">
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
         <v>7</v>
       </c>
-      <c r="F75" t="n">
-        <v>2</v>
-      </c>
-      <c r="G75" t="n">
-        <v>3</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75">
+        <v>3</v>
+      </c>
+      <c r="H75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>227</v>
       </c>
@@ -4865,11 +4861,11 @@
       <c r="C76" t="s">
         <v>229</v>
       </c>
-      <c r="D76" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>230</v>
       </c>
@@ -4879,20 +4875,20 @@
       <c r="C77" t="s">
         <v>232</v>
       </c>
-      <c r="D77" t="n">
-        <v>2</v>
-      </c>
-      <c r="E77" t="n">
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77">
         <v>6</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>4</v>
       </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="I77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>233</v>
       </c>
@@ -4902,23 +4898,23 @@
       <c r="C78" t="s">
         <v>235</v>
       </c>
-      <c r="D78" t="n">
-        <v>3</v>
-      </c>
-      <c r="E78" t="n">
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78">
         <v>11</v>
       </c>
-      <c r="F78" t="n">
-        <v>3</v>
-      </c>
-      <c r="G78" t="n">
+      <c r="F78">
+        <v>3</v>
+      </c>
+      <c r="G78">
         <v>4</v>
       </c>
-      <c r="H78" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="H78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>236</v>
       </c>
@@ -4928,26 +4924,26 @@
       <c r="C79" t="s">
         <v>238</v>
       </c>
-      <c r="D79" t="n">
-        <v>3</v>
-      </c>
-      <c r="E79" t="n">
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79">
         <v>8</v>
       </c>
-      <c r="F79" t="n">
-        <v>2</v>
-      </c>
-      <c r="G79" t="n">
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79">
         <v>5</v>
       </c>
-      <c r="H79" t="n">
+      <c r="H79">
         <v>4</v>
       </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="I79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>239</v>
       </c>
@@ -4957,17 +4953,17 @@
       <c r="C80" t="s">
         <v>241</v>
       </c>
-      <c r="D80" t="n">
-        <v>3</v>
-      </c>
-      <c r="E80" t="n">
+      <c r="D80">
+        <v>3</v>
+      </c>
+      <c r="E80">
         <v>7</v>
       </c>
-      <c r="F80" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="F80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>242</v>
       </c>
@@ -4977,20 +4973,20 @@
       <c r="C81" t="s">
         <v>244</v>
       </c>
-      <c r="D81" t="n">
-        <v>2</v>
-      </c>
-      <c r="E81" t="n">
-        <v>1</v>
-      </c>
-      <c r="F81" t="n">
-        <v>2</v>
-      </c>
-      <c r="G81" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>245</v>
       </c>
@@ -5000,14 +4996,14 @@
       <c r="C82" t="s">
         <v>247</v>
       </c>
-      <c r="D82" t="n">
-        <v>1</v>
-      </c>
-      <c r="E82" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>248</v>
       </c>
@@ -5017,14 +5013,14 @@
       <c r="C83" t="s">
         <v>250</v>
       </c>
-      <c r="D83" t="n">
-        <v>1</v>
-      </c>
-      <c r="E83" t="n">
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>251</v>
       </c>
@@ -5034,20 +5030,20 @@
       <c r="C84" t="s">
         <v>253</v>
       </c>
-      <c r="D84" t="n">
-        <v>1</v>
-      </c>
-      <c r="E84" t="n">
-        <v>2</v>
-      </c>
-      <c r="F84" t="n">
-        <v>3</v>
-      </c>
-      <c r="G84" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>3</v>
+      </c>
+      <c r="G84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>254</v>
       </c>
@@ -5057,20 +5053,20 @@
       <c r="C85" t="s">
         <v>256</v>
       </c>
-      <c r="D85" t="n">
-        <v>2</v>
-      </c>
-      <c r="E85" t="n">
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85">
         <v>7</v>
       </c>
-      <c r="F85" t="n">
-        <v>1</v>
-      </c>
-      <c r="G85" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>257</v>
       </c>
@@ -5080,17 +5076,17 @@
       <c r="C86" t="s">
         <v>259</v>
       </c>
-      <c r="D86" t="n">
-        <v>1</v>
-      </c>
-      <c r="E86" t="n">
-        <v>1</v>
-      </c>
-      <c r="G86" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>260</v>
       </c>
@@ -5100,17 +5096,17 @@
       <c r="C87" t="s">
         <v>262</v>
       </c>
-      <c r="D87" t="n">
-        <v>2</v>
-      </c>
-      <c r="E87" t="n">
-        <v>3</v>
-      </c>
-      <c r="F87" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>3</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>263</v>
       </c>
@@ -5120,26 +5116,26 @@
       <c r="C88" t="s">
         <v>265</v>
       </c>
-      <c r="D88" t="n">
-        <v>1</v>
-      </c>
-      <c r="E88" t="n">
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
         <v>16</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>8</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>8</v>
       </c>
-      <c r="H88" t="n">
+      <c r="H88">
         <v>13</v>
       </c>
-      <c r="I88" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="I88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>266</v>
       </c>
@@ -5149,11 +5145,11 @@
       <c r="C89" t="s">
         <v>268</v>
       </c>
-      <c r="D89" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="D89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>269</v>
       </c>
@@ -5163,23 +5159,23 @@
       <c r="C90" t="s">
         <v>271</v>
       </c>
-      <c r="D90" t="n">
-        <v>2</v>
-      </c>
-      <c r="E90" t="n">
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90">
         <v>7</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>5</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>4</v>
       </c>
-      <c r="H90" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="H90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>272</v>
       </c>
@@ -5189,20 +5185,20 @@
       <c r="C91" t="s">
         <v>274</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>4</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>10</v>
       </c>
-      <c r="F91" t="n">
-        <v>2</v>
-      </c>
-      <c r="G91" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>275</v>
       </c>
@@ -5212,20 +5208,20 @@
       <c r="C92" t="s">
         <v>277</v>
       </c>
-      <c r="D92" t="n">
-        <v>1</v>
-      </c>
-      <c r="E92" t="n">
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
         <v>6</v>
       </c>
-      <c r="F92" t="n">
-        <v>2</v>
-      </c>
-      <c r="G92" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="G92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>278</v>
       </c>
@@ -5235,23 +5231,23 @@
       <c r="C93" t="s">
         <v>280</v>
       </c>
-      <c r="D93" t="n">
-        <v>1</v>
-      </c>
-      <c r="E93" t="n">
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
         <v>5</v>
       </c>
-      <c r="F93" t="n">
-        <v>2</v>
-      </c>
-      <c r="G93" t="n">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>281</v>
       </c>
@@ -5261,20 +5257,20 @@
       <c r="C94" t="s">
         <v>283</v>
       </c>
-      <c r="D94" t="n">
-        <v>1</v>
-      </c>
-      <c r="E94" t="n">
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
         <v>4</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>6</v>
       </c>
-      <c r="G94" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="G94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>284</v>
       </c>
@@ -5284,17 +5280,17 @@
       <c r="C95" t="s">
         <v>286</v>
       </c>
-      <c r="D95" t="n">
-        <v>3</v>
-      </c>
-      <c r="E95" t="n">
+      <c r="D95">
+        <v>3</v>
+      </c>
+      <c r="E95">
         <v>4</v>
       </c>
-      <c r="F95" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="F95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>287</v>
       </c>
@@ -5304,26 +5300,26 @@
       <c r="C96" t="s">
         <v>289</v>
       </c>
-      <c r="D96" t="n">
-        <v>2</v>
-      </c>
-      <c r="E96" t="n">
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96">
         <v>13</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>8</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>10</v>
       </c>
-      <c r="H96" t="n">
+      <c r="H96">
         <v>8</v>
       </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="I96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>290</v>
       </c>
@@ -5333,20 +5329,20 @@
       <c r="C97" t="s">
         <v>292</v>
       </c>
-      <c r="D97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E97" t="n">
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
         <v>4</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>4</v>
       </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="H97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>293</v>
       </c>
@@ -5356,11 +5352,11 @@
       <c r="C98" t="s">
         <v>295</v>
       </c>
-      <c r="D98" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="D98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>296</v>
       </c>
@@ -5370,11 +5366,11 @@
       <c r="C99" t="s">
         <v>298</v>
       </c>
-      <c r="D99" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="D99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>299</v>
       </c>
@@ -5384,23 +5380,23 @@
       <c r="C100" t="s">
         <v>301</v>
       </c>
-      <c r="D100" t="n">
-        <v>3</v>
-      </c>
-      <c r="E100" t="n">
+      <c r="D100">
+        <v>3</v>
+      </c>
+      <c r="E100">
         <v>9</v>
       </c>
-      <c r="F100" t="n">
-        <v>3</v>
-      </c>
-      <c r="G100" t="n">
+      <c r="F100">
+        <v>3</v>
+      </c>
+      <c r="G100">
         <v>4</v>
       </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="I100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>302</v>
       </c>
@@ -5410,23 +5406,23 @@
       <c r="C101" t="s">
         <v>304</v>
       </c>
-      <c r="D101" t="n">
-        <v>1</v>
-      </c>
-      <c r="E101" t="n">
-        <v>3</v>
-      </c>
-      <c r="F101" t="n">
-        <v>2</v>
-      </c>
-      <c r="G101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>3</v>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>305</v>
       </c>
@@ -5436,26 +5432,26 @@
       <c r="C102" t="s">
         <v>307</v>
       </c>
-      <c r="D102" t="n">
-        <v>1</v>
-      </c>
-      <c r="E102" t="n">
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
         <v>4</v>
       </c>
-      <c r="F102" t="n">
-        <v>3</v>
-      </c>
-      <c r="G102" t="n">
+      <c r="F102">
+        <v>3</v>
+      </c>
+      <c r="G102">
         <v>4</v>
       </c>
-      <c r="H102" t="n">
+      <c r="H102">
         <v>4</v>
       </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="I102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>308</v>
       </c>
@@ -5465,23 +5461,23 @@
       <c r="C103" t="s">
         <v>310</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>4</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E103">
         <v>16</v>
       </c>
-      <c r="F103" t="n">
+      <c r="F103">
         <v>13</v>
       </c>
-      <c r="G103" t="n">
+      <c r="G103">
         <v>11</v>
       </c>
-      <c r="H103" t="n">
+      <c r="H103">
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>311</v>
       </c>
@@ -5491,14 +5487,14 @@
       <c r="C104" t="s">
         <v>313</v>
       </c>
-      <c r="D104" t="n">
-        <v>2</v>
-      </c>
-      <c r="E104" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>314</v>
       </c>
@@ -5508,17 +5504,17 @@
       <c r="C105" t="s">
         <v>316</v>
       </c>
-      <c r="D105" t="n">
-        <v>2</v>
-      </c>
-      <c r="E105" t="n">
-        <v>1</v>
-      </c>
-      <c r="F105" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>317</v>
       </c>
@@ -5528,23 +5524,23 @@
       <c r="C106" t="s">
         <v>319</v>
       </c>
-      <c r="D106" t="n">
-        <v>2</v>
-      </c>
-      <c r="E106" t="n">
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106">
         <v>16</v>
       </c>
-      <c r="F106" t="n">
-        <v>3</v>
-      </c>
-      <c r="G106" t="n">
-        <v>2</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="F106">
+        <v>3</v>
+      </c>
+      <c r="G106">
+        <v>2</v>
+      </c>
+      <c r="H106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>320</v>
       </c>
@@ -5554,23 +5550,23 @@
       <c r="C107" t="s">
         <v>322</v>
       </c>
-      <c r="D107" t="n">
-        <v>2</v>
-      </c>
-      <c r="E107" t="n">
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107">
         <v>24</v>
       </c>
-      <c r="F107" t="n">
+      <c r="F107">
         <v>21</v>
       </c>
-      <c r="G107" t="n">
+      <c r="G107">
         <v>21</v>
       </c>
-      <c r="H107" t="n">
+      <c r="H107">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>323</v>
       </c>
@@ -5580,17 +5576,17 @@
       <c r="C108" t="s">
         <v>325</v>
       </c>
-      <c r="D108" t="n">
-        <v>2</v>
-      </c>
-      <c r="E108" t="n">
-        <v>2</v>
-      </c>
-      <c r="F108" t="n">
+      <c r="D108">
+        <v>2</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+      <c r="F108">
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>326</v>
       </c>
@@ -5600,23 +5596,23 @@
       <c r="C109" t="s">
         <v>328</v>
       </c>
-      <c r="D109" t="n">
-        <v>1</v>
-      </c>
-      <c r="E109" t="n">
-        <v>1</v>
-      </c>
-      <c r="F109" t="n">
-        <v>1</v>
-      </c>
-      <c r="G109" t="n">
-        <v>2</v>
-      </c>
-      <c r="H109" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>2</v>
+      </c>
+      <c r="H109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>329</v>
       </c>
@@ -5626,20 +5622,20 @@
       <c r="C110" t="s">
         <v>331</v>
       </c>
-      <c r="D110" t="n">
-        <v>2</v>
-      </c>
-      <c r="E110" t="n">
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110">
         <v>14</v>
       </c>
-      <c r="F110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="I110">
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>332</v>
       </c>
@@ -5649,17 +5645,17 @@
       <c r="C111" t="s">
         <v>334</v>
       </c>
-      <c r="D111" t="n">
-        <v>2</v>
-      </c>
-      <c r="E111" t="n">
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111">
         <v>14</v>
       </c>
-      <c r="F111" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10">
+      <c r="F111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>335</v>
       </c>
@@ -5669,23 +5665,23 @@
       <c r="C112" t="s">
         <v>337</v>
       </c>
-      <c r="D112" t="n">
-        <v>2</v>
-      </c>
-      <c r="E112" t="n">
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112">
         <v>16</v>
       </c>
-      <c r="F112" t="n">
+      <c r="F112">
         <v>7</v>
       </c>
-      <c r="G112" t="n">
+      <c r="G112">
         <v>6</v>
       </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10">
+      <c r="H112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>338</v>
       </c>
@@ -5695,26 +5691,26 @@
       <c r="C113" t="s">
         <v>340</v>
       </c>
-      <c r="D113" t="n">
-        <v>1</v>
-      </c>
-      <c r="E113" t="n">
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
         <v>11</v>
       </c>
-      <c r="F113" t="n">
-        <v>2</v>
-      </c>
-      <c r="G113" t="n">
+      <c r="F113">
+        <v>2</v>
+      </c>
+      <c r="G113">
         <v>7</v>
       </c>
-      <c r="H113" t="n">
+      <c r="H113">
         <v>5</v>
       </c>
-      <c r="I113" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10">
+      <c r="I113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>341</v>
       </c>
@@ -5724,28 +5720,28 @@
       <c r="C114" t="s">
         <v>343</v>
       </c>
-      <c r="E114" t="n">
+      <c r="E114">
         <v>12</v>
       </c>
-      <c r="F114" t="n">
+      <c r="F114">
         <v>7</v>
       </c>
-      <c r="G114" t="n">
+      <c r="G114">
         <v>8</v>
       </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10">
+      <c r="H114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>344</v>
       </c>
-      <c r="E115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10">
+      <c r="E115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>345</v>
       </c>
@@ -5755,11 +5751,11 @@
       <c r="C116" t="s">
         <v>347</v>
       </c>
-      <c r="E116" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10">
+      <c r="E116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>348</v>
       </c>
@@ -5769,17 +5765,17 @@
       <c r="C117" t="s">
         <v>350</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E117">
         <v>4</v>
       </c>
-      <c r="F117" t="n">
-        <v>2</v>
-      </c>
-      <c r="G117" t="n">
+      <c r="F117">
+        <v>2</v>
+      </c>
+      <c r="G117">
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>351</v>
       </c>
@@ -5789,36 +5785,36 @@
       <c r="C118" t="s">
         <v>353</v>
       </c>
-      <c r="E118" t="n">
-        <v>2</v>
-      </c>
-      <c r="G118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10">
+      <c r="E118">
+        <v>2</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>354</v>
       </c>
-      <c r="E119" t="n">
-        <v>1</v>
-      </c>
-      <c r="F119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10">
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>355</v>
       </c>
-      <c r="E120" t="n">
+      <c r="E120">
         <v>5</v>
       </c>
-      <c r="F120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10">
+      <c r="F120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>356</v>
       </c>
@@ -5828,20 +5824,20 @@
       <c r="C121" t="s">
         <v>358</v>
       </c>
-      <c r="E121" t="n">
+      <c r="E121">
         <v>9</v>
       </c>
-      <c r="F121" t="n">
+      <c r="F121">
         <v>5</v>
       </c>
-      <c r="G121" t="n">
+      <c r="G121">
         <v>7</v>
       </c>
-      <c r="H121" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10">
+      <c r="H121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>359</v>
       </c>
@@ -5851,11 +5847,11 @@
       <c r="C122" t="s">
         <v>361</v>
       </c>
-      <c r="E122" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10">
+      <c r="E122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>362</v>
       </c>
@@ -5865,20 +5861,20 @@
       <c r="C123" t="s">
         <v>364</v>
       </c>
-      <c r="E123" t="n">
-        <v>1</v>
-      </c>
-      <c r="F123" t="n">
-        <v>2</v>
-      </c>
-      <c r="G123" t="n">
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>2</v>
+      </c>
+      <c r="G123">
         <v>8</v>
       </c>
-      <c r="H123" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10">
+      <c r="H123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>365</v>
       </c>
@@ -5888,17 +5884,17 @@
       <c r="C124" t="s">
         <v>367</v>
       </c>
-      <c r="E124" t="n">
-        <v>2</v>
-      </c>
-      <c r="G124" t="n">
-        <v>3</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10">
+      <c r="E124">
+        <v>2</v>
+      </c>
+      <c r="G124">
+        <v>3</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>368</v>
       </c>
@@ -5908,11 +5904,11 @@
       <c r="C125" t="s">
         <v>370</v>
       </c>
-      <c r="E125" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10">
+      <c r="E125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>371</v>
       </c>
@@ -5922,11 +5918,11 @@
       <c r="C126" t="s">
         <v>373</v>
       </c>
-      <c r="E126" t="n">
+      <c r="E126">
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>374</v>
       </c>
@@ -5936,11 +5932,11 @@
       <c r="C127" t="s">
         <v>376</v>
       </c>
-      <c r="E127" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10">
+      <c r="E127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>377</v>
       </c>
@@ -5950,11 +5946,11 @@
       <c r="C128" t="s">
         <v>379</v>
       </c>
-      <c r="E128" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10">
+      <c r="E128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>380</v>
       </c>
@@ -5964,17 +5960,17 @@
       <c r="C129" t="s">
         <v>382</v>
       </c>
-      <c r="E129" t="n">
+      <c r="E129">
         <v>5</v>
       </c>
-      <c r="G129" t="n">
-        <v>1</v>
-      </c>
-      <c r="H129" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10">
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>383</v>
       </c>
@@ -5984,11 +5980,11 @@
       <c r="C130" t="s">
         <v>385</v>
       </c>
-      <c r="E130" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10">
+      <c r="E130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>386</v>
       </c>
@@ -5998,11 +5994,11 @@
       <c r="C131" t="s">
         <v>388</v>
       </c>
-      <c r="E131" t="n">
+      <c r="E131">
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>389</v>
       </c>
@@ -6012,17 +6008,17 @@
       <c r="C132" t="s">
         <v>391</v>
       </c>
-      <c r="E132" t="n">
+      <c r="E132">
         <v>8</v>
       </c>
-      <c r="F132" t="n">
-        <v>3</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10">
+      <c r="F132">
+        <v>3</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>392</v>
       </c>
@@ -6032,11 +6028,11 @@
       <c r="C133" t="s">
         <v>394</v>
       </c>
-      <c r="E133" t="n">
+      <c r="E133">
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>395</v>
       </c>
@@ -6046,11 +6042,11 @@
       <c r="C134" t="s">
         <v>397</v>
       </c>
-      <c r="E134" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10">
+      <c r="E134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>398</v>
       </c>
@@ -6060,11 +6056,11 @@
       <c r="C135" t="s">
         <v>400</v>
       </c>
-      <c r="E135" t="n">
+      <c r="E135">
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>401</v>
       </c>
@@ -6074,11 +6070,11 @@
       <c r="C136" t="s">
         <v>403</v>
       </c>
-      <c r="E136" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10">
+      <c r="E136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>404</v>
       </c>
@@ -6088,20 +6084,20 @@
       <c r="C137" t="s">
         <v>406</v>
       </c>
-      <c r="E137" t="n">
+      <c r="E137">
         <v>4</v>
       </c>
-      <c r="F137" t="n">
-        <v>3</v>
-      </c>
-      <c r="G137" t="n">
-        <v>1</v>
-      </c>
-      <c r="J137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10">
+      <c r="F137">
+        <v>3</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>407</v>
       </c>
@@ -6111,20 +6107,20 @@
       <c r="C138" t="s">
         <v>409</v>
       </c>
-      <c r="E138" t="n">
+      <c r="E138">
         <v>6</v>
       </c>
-      <c r="F138" t="n">
+      <c r="F138">
         <v>4</v>
       </c>
-      <c r="G138" t="n">
+      <c r="G138">
         <v>4</v>
       </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10">
+      <c r="H138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>410</v>
       </c>
@@ -6134,28 +6130,28 @@
       <c r="C139" t="s">
         <v>412</v>
       </c>
-      <c r="E139" t="n">
-        <v>2</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1</v>
-      </c>
-      <c r="G139" t="n">
-        <v>1</v>
-      </c>
-      <c r="H139" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10">
+      <c r="E139">
+        <v>2</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="H139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>413</v>
       </c>
-      <c r="E140" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10">
+      <c r="E140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>414</v>
       </c>
@@ -6165,31 +6161,31 @@
       <c r="C141" t="s">
         <v>416</v>
       </c>
-      <c r="E141" t="n">
+      <c r="E141">
         <v>4</v>
       </c>
-      <c r="F141" t="n">
+      <c r="F141">
         <v>9</v>
       </c>
-      <c r="G141" t="n">
+      <c r="G141">
         <v>12</v>
       </c>
-      <c r="H141" t="n">
-        <v>3</v>
-      </c>
-      <c r="I141" t="n">
+      <c r="H141">
+        <v>3</v>
+      </c>
+      <c r="I141">
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>417</v>
       </c>
-      <c r="E142" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10">
+      <c r="E142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>418</v>
       </c>
@@ -6199,11 +6195,11 @@
       <c r="C143" t="s">
         <v>420</v>
       </c>
-      <c r="E143" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10">
+      <c r="E143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>421</v>
       </c>
@@ -6213,11 +6209,11 @@
       <c r="C144" t="s">
         <v>423</v>
       </c>
-      <c r="E144" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10">
+      <c r="E144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>424</v>
       </c>
@@ -6227,11 +6223,11 @@
       <c r="C145" t="s">
         <v>426</v>
       </c>
-      <c r="E145" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10">
+      <c r="E145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>427</v>
       </c>
@@ -6241,11 +6237,11 @@
       <c r="C146" t="s">
         <v>429</v>
       </c>
-      <c r="E146" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10">
+      <c r="E146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>430</v>
       </c>
@@ -6255,14 +6251,14 @@
       <c r="C147" t="s">
         <v>432</v>
       </c>
-      <c r="E147" t="n">
-        <v>2</v>
-      </c>
-      <c r="G147" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10">
+      <c r="E147">
+        <v>2</v>
+      </c>
+      <c r="G147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>433</v>
       </c>
@@ -6272,14 +6268,14 @@
       <c r="C148" t="s">
         <v>435</v>
       </c>
-      <c r="E148" t="n">
-        <v>3</v>
-      </c>
-      <c r="G148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10">
+      <c r="E148">
+        <v>3</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>436</v>
       </c>
@@ -6289,11 +6285,11 @@
       <c r="C149" t="s">
         <v>438</v>
       </c>
-      <c r="E149" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10">
+      <c r="E149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>439</v>
       </c>
@@ -6303,11 +6299,11 @@
       <c r="C150" t="s">
         <v>441</v>
       </c>
-      <c r="E150" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10">
+      <c r="E150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>442</v>
       </c>
@@ -6317,11 +6313,11 @@
       <c r="C151" t="s">
         <v>444</v>
       </c>
-      <c r="E151" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10">
+      <c r="E151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>445</v>
       </c>
@@ -6331,11 +6327,11 @@
       <c r="C152" t="s">
         <v>447</v>
       </c>
-      <c r="E152" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10">
+      <c r="E152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>448</v>
       </c>
@@ -6345,11 +6341,11 @@
       <c r="C153" t="s">
         <v>450</v>
       </c>
-      <c r="E153" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10">
+      <c r="E153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>451</v>
       </c>
@@ -6359,11 +6355,11 @@
       <c r="C154" t="s">
         <v>453</v>
       </c>
-      <c r="E154" t="n">
+      <c r="E154">
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>454</v>
       </c>
@@ -6373,31 +6369,31 @@
       <c r="C155" t="s">
         <v>455</v>
       </c>
-      <c r="E155" t="n">
+      <c r="E155">
         <v>8</v>
       </c>
-      <c r="F155" t="n">
+      <c r="F155">
         <v>13</v>
       </c>
-      <c r="G155" t="n">
+      <c r="G155">
         <v>24</v>
       </c>
-      <c r="H155" t="n">
+      <c r="H155">
         <v>13</v>
       </c>
-      <c r="I155" t="n">
+      <c r="I155">
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>456</v>
       </c>
-      <c r="E156" t="n">
+      <c r="E156">
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>457</v>
       </c>
@@ -6407,14 +6403,14 @@
       <c r="C157" t="s">
         <v>459</v>
       </c>
-      <c r="E157" t="n">
-        <v>3</v>
-      </c>
-      <c r="F157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10">
+      <c r="E157">
+        <v>3</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>460</v>
       </c>
@@ -6424,23 +6420,23 @@
       <c r="C158" t="s">
         <v>461</v>
       </c>
-      <c r="E158" t="n">
+      <c r="E158">
         <v>17</v>
       </c>
-      <c r="F158" t="n">
+      <c r="F158">
         <v>8</v>
       </c>
-      <c r="G158" t="n">
+      <c r="G158">
         <v>10</v>
       </c>
-      <c r="H158" t="n">
+      <c r="H158">
         <v>5</v>
       </c>
-      <c r="I158" t="n">
+      <c r="I158">
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>462</v>
       </c>
@@ -6450,20 +6446,20 @@
       <c r="C159" t="s">
         <v>464</v>
       </c>
-      <c r="E159" t="n">
+      <c r="E159">
         <v>5</v>
       </c>
-      <c r="F159" t="n">
+      <c r="F159">
         <v>5</v>
       </c>
-      <c r="G159" t="n">
+      <c r="G159">
         <v>9</v>
       </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10">
+      <c r="H159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>465</v>
       </c>
@@ -6473,11 +6469,11 @@
       <c r="C160" t="s">
         <v>467</v>
       </c>
-      <c r="E160" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10">
+      <c r="E160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>468</v>
       </c>
@@ -6487,11 +6483,11 @@
       <c r="C161" t="s">
         <v>470</v>
       </c>
-      <c r="E161" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10">
+      <c r="E161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>471</v>
       </c>
@@ -6501,20 +6497,20 @@
       <c r="C162" t="s">
         <v>473</v>
       </c>
-      <c r="E162" t="n">
-        <v>3</v>
-      </c>
-      <c r="F162" t="n">
-        <v>1</v>
-      </c>
-      <c r="G162" t="n">
-        <v>1</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10">
+      <c r="E162">
+        <v>3</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+      <c r="G162">
+        <v>1</v>
+      </c>
+      <c r="H162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>474</v>
       </c>
@@ -6524,14 +6520,14 @@
       <c r="C163" t="s">
         <v>476</v>
       </c>
-      <c r="E163" t="n">
-        <v>2</v>
-      </c>
-      <c r="F163" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10">
+      <c r="E163">
+        <v>2</v>
+      </c>
+      <c r="F163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>477</v>
       </c>
@@ -6541,28 +6537,28 @@
       <c r="C164" t="s">
         <v>479</v>
       </c>
-      <c r="E164" t="n">
-        <v>2</v>
-      </c>
-      <c r="F164" t="n">
-        <v>1</v>
-      </c>
-      <c r="G164" t="n">
-        <v>3</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10">
+      <c r="E164">
+        <v>2</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+      <c r="G164">
+        <v>3</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>480</v>
       </c>
-      <c r="E165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10">
+      <c r="E165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>481</v>
       </c>
@@ -6572,25 +6568,25 @@
       <c r="C166" t="s">
         <v>483</v>
       </c>
-      <c r="E166" t="n">
-        <v>2</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10">
+      <c r="E166">
+        <v>2</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>484</v>
       </c>
-      <c r="E167" t="n">
-        <v>1</v>
-      </c>
-      <c r="F167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10">
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>485</v>
       </c>
@@ -6600,17 +6596,17 @@
       <c r="C168" t="s">
         <v>487</v>
       </c>
-      <c r="E168" t="n">
-        <v>2</v>
-      </c>
-      <c r="F168" t="n">
-        <v>3</v>
-      </c>
-      <c r="G168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10">
+      <c r="E168">
+        <v>2</v>
+      </c>
+      <c r="F168">
+        <v>3</v>
+      </c>
+      <c r="G168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>488</v>
       </c>
@@ -6620,17 +6616,17 @@
       <c r="C169" t="s">
         <v>490</v>
       </c>
-      <c r="E169" t="n">
-        <v>2</v>
-      </c>
-      <c r="F169" t="n">
-        <v>1</v>
-      </c>
-      <c r="G169" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10">
+      <c r="E169">
+        <v>2</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+      <c r="G169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>491</v>
       </c>
@@ -6640,11 +6636,11 @@
       <c r="C170" t="s">
         <v>493</v>
       </c>
-      <c r="E170" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10">
+      <c r="E170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>494</v>
       </c>
@@ -6654,17 +6650,17 @@
       <c r="C171" t="s">
         <v>130</v>
       </c>
-      <c r="E171" t="n">
-        <v>2</v>
-      </c>
-      <c r="F171" t="n">
+      <c r="E171">
+        <v>2</v>
+      </c>
+      <c r="F171">
         <v>11</v>
       </c>
-      <c r="G171" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10">
+      <c r="G171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>495</v>
       </c>
@@ -6674,14 +6670,14 @@
       <c r="C172" t="s">
         <v>497</v>
       </c>
-      <c r="E172" t="n">
-        <v>2</v>
-      </c>
-      <c r="F172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10">
+      <c r="E172">
+        <v>2</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>498</v>
       </c>
@@ -6691,17 +6687,17 @@
       <c r="C173" t="s">
         <v>500</v>
       </c>
-      <c r="E173" t="n">
-        <v>1</v>
-      </c>
-      <c r="F173" t="n">
-        <v>2</v>
-      </c>
-      <c r="G173" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10">
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173">
+        <v>2</v>
+      </c>
+      <c r="G173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>501</v>
       </c>
@@ -6711,20 +6707,20 @@
       <c r="C174" t="s">
         <v>67</v>
       </c>
-      <c r="E174" t="n">
+      <c r="E174">
         <v>6</v>
       </c>
-      <c r="F174" t="n">
+      <c r="F174">
         <v>5</v>
       </c>
-      <c r="G174" t="n">
+      <c r="G174">
         <v>10</v>
       </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10">
+      <c r="H174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>503</v>
       </c>
@@ -6734,42 +6730,42 @@
       <c r="C175" t="s">
         <v>505</v>
       </c>
-      <c r="E175" t="n">
-        <v>3</v>
-      </c>
-      <c r="F175" t="n">
+      <c r="E175">
+        <v>3</v>
+      </c>
+      <c r="F175">
         <v>20</v>
       </c>
-      <c r="G175" t="n">
+      <c r="G175">
         <v>18</v>
       </c>
-      <c r="H175" t="n">
+      <c r="H175">
         <v>4</v>
       </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10">
+      <c r="I175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>506</v>
       </c>
-      <c r="E176" t="n">
-        <v>1</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10">
+      <c r="E176">
+        <v>1</v>
+      </c>
+      <c r="H176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>507</v>
       </c>
-      <c r="E177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10">
+      <c r="E177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>508</v>
       </c>
@@ -6779,19 +6775,19 @@
       <c r="C178" t="s">
         <v>510</v>
       </c>
-      <c r="E178" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10">
+      <c r="E178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>511</v>
       </c>
-      <c r="E179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10">
+      <c r="E179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>512</v>
       </c>
@@ -6801,19 +6797,19 @@
       <c r="C180" t="s">
         <v>514</v>
       </c>
-      <c r="F180" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10">
+      <c r="F180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>515</v>
       </c>
-      <c r="F181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10">
+      <c r="F181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>516</v>
       </c>
@@ -6823,20 +6819,20 @@
       <c r="C182" t="s">
         <v>518</v>
       </c>
-      <c r="F182" t="n">
+      <c r="F182">
         <v>6</v>
       </c>
-      <c r="G182" t="n">
+      <c r="G182">
         <v>16</v>
       </c>
-      <c r="H182" t="n">
+      <c r="H182">
         <v>4</v>
       </c>
-      <c r="I182" t="n">
+      <c r="I182">
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>519</v>
       </c>
@@ -6846,34 +6842,34 @@
       <c r="C183" t="s">
         <v>521</v>
       </c>
-      <c r="F183" t="n">
+      <c r="F183">
         <v>4</v>
       </c>
-      <c r="G183" t="n">
+      <c r="G183">
         <v>4</v>
       </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10">
+      <c r="H183">
+        <v>1</v>
+      </c>
+      <c r="I183">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>522</v>
       </c>
-      <c r="F184" t="n">
-        <v>1</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10">
+      <c r="F184">
+        <v>1</v>
+      </c>
+      <c r="H184">
+        <v>1</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>523</v>
       </c>
@@ -6883,19 +6879,19 @@
       <c r="C185" t="s">
         <v>525</v>
       </c>
-      <c r="F185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10">
+      <c r="F185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>526</v>
       </c>
-      <c r="F186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10">
+      <c r="F186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>527</v>
       </c>
@@ -6905,19 +6901,19 @@
       <c r="C187" t="s">
         <v>529</v>
       </c>
-      <c r="F187" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10">
+      <c r="F187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>530</v>
       </c>
-      <c r="F188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10">
+      <c r="F188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>531</v>
       </c>
@@ -6927,28 +6923,28 @@
       <c r="C189" t="s">
         <v>533</v>
       </c>
-      <c r="F189" t="n">
-        <v>3</v>
-      </c>
-      <c r="G189" t="n">
-        <v>2</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10">
+      <c r="F189">
+        <v>3</v>
+      </c>
+      <c r="G189">
+        <v>2</v>
+      </c>
+      <c r="H189">
+        <v>1</v>
+      </c>
+      <c r="I189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>534</v>
       </c>
-      <c r="F190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10">
+      <c r="F190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>535</v>
       </c>
@@ -6958,11 +6954,11 @@
       <c r="C191" t="s">
         <v>537</v>
       </c>
-      <c r="F191" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10">
+      <c r="F191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>538</v>
       </c>
@@ -6972,22 +6968,22 @@
       <c r="C192" t="s">
         <v>540</v>
       </c>
-      <c r="F192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10">
+      <c r="F192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>541</v>
       </c>
-      <c r="F193" t="n">
-        <v>1</v>
-      </c>
-      <c r="G193" t="n">
+      <c r="F193">
+        <v>1</v>
+      </c>
+      <c r="G193">
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>542</v>
       </c>
@@ -6997,20 +6993,20 @@
       <c r="C194" t="s">
         <v>31</v>
       </c>
-      <c r="F194" t="n">
-        <v>3</v>
-      </c>
-      <c r="G194" t="n">
+      <c r="F194">
+        <v>3</v>
+      </c>
+      <c r="G194">
         <v>13</v>
       </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10">
+      <c r="H194">
+        <v>1</v>
+      </c>
+      <c r="I194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>543</v>
       </c>
@@ -7020,14 +7016,14 @@
       <c r="C195" t="s">
         <v>545</v>
       </c>
-      <c r="F195" t="n">
-        <v>2</v>
-      </c>
-      <c r="G195" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10">
+      <c r="F195">
+        <v>2</v>
+      </c>
+      <c r="G195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>546</v>
       </c>
@@ -7037,14 +7033,14 @@
       <c r="C196" t="s">
         <v>548</v>
       </c>
-      <c r="G196" t="n">
+      <c r="G196">
         <v>23</v>
       </c>
-      <c r="H196" t="n">
+      <c r="H196">
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>549</v>
       </c>
@@ -7054,17 +7050,17 @@
       <c r="C197" t="s">
         <v>551</v>
       </c>
-      <c r="G197" t="n">
+      <c r="G197">
         <v>9</v>
       </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10">
+      <c r="H197">
+        <v>1</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>552</v>
       </c>
@@ -7074,33 +7070,33 @@
       <c r="C198" t="s">
         <v>554</v>
       </c>
-      <c r="G198" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10">
+      <c r="G198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>555</v>
       </c>
-      <c r="G199" t="n">
+      <c r="G199">
         <v>5</v>
       </c>
-      <c r="H199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I199" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10">
+      <c r="H199">
+        <v>2</v>
+      </c>
+      <c r="I199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>556</v>
       </c>
-      <c r="G200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10">
+      <c r="G200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>557</v>
       </c>
@@ -7110,11 +7106,11 @@
       <c r="C201" t="s">
         <v>559</v>
       </c>
-      <c r="G201" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10">
+      <c r="G201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>560</v>
       </c>
@@ -7124,11 +7120,11 @@
       <c r="C202" t="s">
         <v>562</v>
       </c>
-      <c r="G202" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10">
+      <c r="G202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>563</v>
       </c>
@@ -7138,46 +7134,46 @@
       <c r="C203" t="s">
         <v>565</v>
       </c>
-      <c r="G203" t="n">
-        <v>2</v>
-      </c>
-      <c r="H203" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10">
+      <c r="G203">
+        <v>2</v>
+      </c>
+      <c r="H203">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>566</v>
       </c>
-      <c r="G204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10">
+      <c r="G204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>567</v>
       </c>
-      <c r="G205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10">
+      <c r="G205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>568</v>
       </c>
-      <c r="G206" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10">
+      <c r="G206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>569</v>
       </c>
-      <c r="G207" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10">
+      <c r="G207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>570</v>
       </c>
@@ -7187,14 +7183,14 @@
       <c r="C208" t="s">
         <v>572</v>
       </c>
-      <c r="G208" t="n">
-        <v>1</v>
-      </c>
-      <c r="H208" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10">
+      <c r="G208">
+        <v>1</v>
+      </c>
+      <c r="H208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>573</v>
       </c>
@@ -7204,19 +7200,19 @@
       <c r="C209" t="s">
         <v>575</v>
       </c>
-      <c r="G209" t="n">
+      <c r="G209">
         <v>6</v>
       </c>
     </row>
-    <row r="210" spans="1:10">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>576</v>
       </c>
-      <c r="G210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10">
+      <c r="G210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>577</v>
       </c>
@@ -7226,11 +7222,11 @@
       <c r="C211" t="s">
         <v>579</v>
       </c>
-      <c r="G211" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10">
+      <c r="G211">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>580</v>
       </c>
@@ -7240,62 +7236,62 @@
       <c r="C212" t="s">
         <v>51</v>
       </c>
-      <c r="H212" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10">
+      <c r="H212">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>581</v>
       </c>
-      <c r="H213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10">
+      <c r="H213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>582</v>
       </c>
-      <c r="H214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10">
+      <c r="H214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>583</v>
       </c>
-      <c r="H215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10">
+      <c r="H215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>584</v>
       </c>
       <c r="B216" t="s">
         <v>585</v>
       </c>
-      <c r="H216" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10">
+      <c r="H216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>586</v>
       </c>
-      <c r="H217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10">
+      <c r="H217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>587</v>
       </c>
-      <c r="H218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10">
+      <c r="H218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>588</v>
       </c>
@@ -7305,11 +7301,11 @@
       <c r="C219" t="s">
         <v>590</v>
       </c>
-      <c r="H219" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10">
+      <c r="H219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>591</v>
       </c>
@@ -7319,19 +7315,19 @@
       <c r="C220" t="s">
         <v>593</v>
       </c>
-      <c r="H220" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10">
+      <c r="H220">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>594</v>
       </c>
-      <c r="H221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10">
+      <c r="H221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>595</v>
       </c>
@@ -7341,11 +7337,11 @@
       <c r="C222" t="s">
         <v>596</v>
       </c>
-      <c r="H222" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10">
+      <c r="H222">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>597</v>
       </c>
@@ -7355,11 +7351,11 @@
       <c r="C223" t="s">
         <v>599</v>
       </c>
-      <c r="I223" t="n">
+      <c r="I223">
         <v>6</v>
       </c>
     </row>
-    <row r="224" spans="1:10">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>600</v>
       </c>
@@ -7369,11 +7365,11 @@
       <c r="C224" t="s">
         <v>602</v>
       </c>
-      <c r="I224" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10">
+      <c r="I224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>603</v>
       </c>
@@ -7383,11 +7379,11 @@
       <c r="C225" t="s">
         <v>605</v>
       </c>
-      <c r="I225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10">
+      <c r="I225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>606</v>
       </c>
@@ -7397,11 +7393,11 @@
       <c r="C226" t="s">
         <v>608</v>
       </c>
-      <c r="I226" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10">
+      <c r="I226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>609</v>
       </c>
@@ -7411,11 +7407,11 @@
       <c r="C227" t="s">
         <v>611</v>
       </c>
-      <c r="I227" t="n">
+      <c r="I227">
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:10">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>612</v>
       </c>
@@ -7425,19 +7421,19 @@
       <c r="C228" t="s">
         <v>614</v>
       </c>
-      <c r="I228" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10">
+      <c r="I228">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>615</v>
       </c>
-      <c r="I229" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10">
+      <c r="I229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>616</v>
       </c>
@@ -7447,19 +7443,19 @@
       <c r="C230" t="s">
         <v>618</v>
       </c>
-      <c r="I230" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10">
+      <c r="I230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>619</v>
       </c>
-      <c r="I231" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10">
+      <c r="I231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>620</v>
       </c>
@@ -7469,35 +7465,35 @@
       <c r="C232" t="s">
         <v>622</v>
       </c>
-      <c r="I232" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10">
+      <c r="I232">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>623</v>
       </c>
-      <c r="I233" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10">
+      <c r="I233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>624</v>
       </c>
-      <c r="I234" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10">
+      <c r="I234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>625</v>
       </c>
-      <c r="I235" t="n">
+      <c r="I235">
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:10">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>626</v>
       </c>
@@ -7507,11 +7503,11 @@
       <c r="C236" t="s">
         <v>628</v>
       </c>
-      <c r="I236" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10">
+      <c r="I236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>629</v>
       </c>
@@ -7521,19 +7517,19 @@
       <c r="C237" t="s">
         <v>631</v>
       </c>
-      <c r="I237" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10">
+      <c r="I237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>632</v>
       </c>
-      <c r="I238" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10">
+      <c r="I238">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>633</v>
       </c>
@@ -7543,11 +7539,11 @@
       <c r="C239" t="s">
         <v>635</v>
       </c>
-      <c r="I239" t="n">
+      <c r="I239">
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:10">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>636</v>
       </c>
@@ -7557,12 +7553,26 @@
       <c r="C240" t="s">
         <v>638</v>
       </c>
-      <c r="I240" t="n">
+      <c r="I240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>639</v>
+      </c>
+      <c r="B241" t="s">
+        <v>640</v>
+      </c>
+      <c r="C241" t="s">
+        <v>641</v>
+      </c>
+      <c r="J241">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
@@ -7571,91 +7581,87 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="25"/>
+    <col min="1" max="1" width="25" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="19" r="1" s="4" spans="1:2">
-      <c r="A1" s="8" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    <row r="1" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <f>SUM(Sheet!D2:D240)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <f>SUM(Sheet!D2:D241)</f>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <f>SUM(Sheet!E2:E240)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <f>SUM(Sheet!E2:E241)</f>
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <f>SUM(Sheet!F2:F240)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <f>SUM(Sheet!F2:F241)</f>
+        <v>616</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <f>SUM(Sheet!G2:G240)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <f>SUM(Sheet!G2:G241)</f>
+        <v>673</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <f>SUM(Sheet!H2:H240)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <f>SUM(Sheet!H2:H241)</f>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <f>SUM(Sheet!I2:I240)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <f>SUM(Sheet!I2:I241)</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <f>SUM(Sheet!J2:J240)</f>
-        <v/>
+        <f>SUM(Sheet!J2:J241)</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/testing.xlsx
+++ b/testing.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FreddyAnthony\Documents\Python\summer_project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" activeTab="1"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Monthly_STAT" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Monthly_STAT" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="643">
   <si>
     <t>UID</t>
   </si>
@@ -1234,718 +1229,718 @@
     <t>jose.martinez@jjay.cuny.edu</t>
   </si>
   <si>
+    <t>4FD8AB6C20</t>
+  </si>
+  <si>
+    <t>Freddy Beltran</t>
+  </si>
+  <si>
+    <t>freddy.beltran@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>CFD8A9A340</t>
+  </si>
+  <si>
+    <t>Kathleena Girling</t>
+  </si>
+  <si>
+    <t>kathleena.girling@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>CFD8AC6080</t>
+  </si>
+  <si>
+    <t>CFD8A948E0</t>
+  </si>
+  <si>
+    <t>Vanessa Cordero</t>
+  </si>
+  <si>
+    <t>Vanessa.cordero@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>CFD899AA20</t>
+  </si>
+  <si>
+    <t>CFD8A37420</t>
+  </si>
+  <si>
+    <t>Bria John</t>
+  </si>
+  <si>
+    <t>bria.john@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>8FD8A9F3A0</t>
+  </si>
+  <si>
+    <t>Jorge Rivera-Bueno</t>
+  </si>
+  <si>
+    <t>jorge.riverabueno@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>8FD8A00060</t>
+  </si>
+  <si>
+    <t>Ditta Sulaman</t>
+  </si>
+  <si>
+    <t>ditta.sulaman</t>
+  </si>
+  <si>
+    <t>4FD89FEE00</t>
+  </si>
+  <si>
+    <t>Jayson Cancel</t>
+  </si>
+  <si>
+    <t>jayson.cancel@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>4FD8AA90A0</t>
+  </si>
+  <si>
+    <t>junior campoverde</t>
+  </si>
+  <si>
+    <t>junior.campoverde@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>0FD8ADDBA0</t>
+  </si>
+  <si>
+    <t>jinhong zhao</t>
+  </si>
+  <si>
+    <t>jinhong.zhao@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>0FD8ACFD60</t>
+  </si>
+  <si>
+    <t>megan mcglynn</t>
+  </si>
+  <si>
+    <t>megan.mcglynn@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>0FD8911C80</t>
+  </si>
+  <si>
+    <t>carl baerga</t>
+  </si>
+  <si>
+    <t>carl.baerga@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>8FD8ADF760</t>
+  </si>
+  <si>
+    <t>esmerly feliz</t>
+  </si>
+  <si>
+    <t>esmerly.feliz@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>CFD8A82620</t>
+  </si>
+  <si>
+    <t>altina tinaj</t>
+  </si>
+  <si>
+    <t>altina.tinaj@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>0FD89AD220</t>
+  </si>
+  <si>
+    <t>kalniesh joseph</t>
+  </si>
+  <si>
+    <t>kalniesh.joseph@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>4FD8AF0CC0</t>
+  </si>
+  <si>
+    <t>Omar Farias</t>
+  </si>
+  <si>
+    <t>omargfarias@gmail.com</t>
+  </si>
+  <si>
+    <t>0FD8AFD720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jennifer.mercedes@jjay.cuny.edu </t>
+  </si>
+  <si>
+    <t>0FD8A926C0</t>
+  </si>
+  <si>
+    <t>8FD8AF7620</t>
+  </si>
+  <si>
+    <t>Karl Morales</t>
+  </si>
+  <si>
+    <t>karl.morales@ymail.com</t>
+  </si>
+  <si>
+    <t>0FD89CD000</t>
+  </si>
+  <si>
+    <t>david.schachner</t>
+  </si>
+  <si>
+    <t>8FD8AEB240</t>
+  </si>
+  <si>
+    <t>luciano.ibbott</t>
+  </si>
+  <si>
+    <t>luciano.ibbott@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>8FD8AC75E0</t>
+  </si>
+  <si>
+    <t>Alberto Torres</t>
+  </si>
+  <si>
+    <t>alberto.torres@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>CFD8A3D840</t>
+  </si>
+  <si>
+    <t>gabriel mac donna</t>
+  </si>
+  <si>
+    <t>gabriel.macdonna@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>8FD8A57200</t>
+  </si>
+  <si>
+    <t>Averill Curameng</t>
+  </si>
+  <si>
+    <t>averill.curameng@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>8FD89E1D20</t>
+  </si>
+  <si>
+    <t>Talha Arshad</t>
+  </si>
+  <si>
+    <t>talha.arshad@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>4FD8967620</t>
+  </si>
+  <si>
+    <t>Robert Morel</t>
+  </si>
+  <si>
+    <t>robert.morel@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>4FD8912840</t>
+  </si>
+  <si>
+    <t>4FD89FD920</t>
+  </si>
+  <si>
+    <t>kyle grant</t>
+  </si>
+  <si>
+    <t>kyle.grant@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>4FD8A2F8A0</t>
+  </si>
+  <si>
+    <t>8FD8A51540</t>
+  </si>
+  <si>
+    <t>paola acosta</t>
+  </si>
+  <si>
+    <t>paola.acosta@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>4FD8A311C0</t>
+  </si>
+  <si>
+    <t>steve mendez</t>
+  </si>
+  <si>
+    <t>steve.mendez@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>0FD8A87380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crystal Evelyn </t>
+  </si>
+  <si>
+    <t>Crystal.Evelyn@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>CFD8AF1280</t>
+  </si>
+  <si>
+    <t>4FD8ACB680</t>
+  </si>
+  <si>
+    <t>gabriella jurkowski</t>
+  </si>
+  <si>
+    <t>gabriella.jurkowski@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>8FD8ACCF00</t>
+  </si>
+  <si>
+    <t>Alexis Gao</t>
+  </si>
+  <si>
+    <t>Alexis.gao@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>0FD8AF9E00</t>
+  </si>
+  <si>
+    <t>Karla Pimentel</t>
+  </si>
+  <si>
+    <t>4FD8A33DE0</t>
+  </si>
+  <si>
+    <t>Anne Crosby</t>
+  </si>
+  <si>
+    <t>anne.crosby@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>8FD8A5D640</t>
+  </si>
+  <si>
+    <t>0FD89E2BC0</t>
+  </si>
+  <si>
+    <t>CFD89D3000</t>
+  </si>
+  <si>
+    <t>kevin elder</t>
+  </si>
+  <si>
+    <t>kevin.elder@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>0FD89CDFC0</t>
+  </si>
+  <si>
+    <t>4FD8A2C320</t>
+  </si>
+  <si>
+    <t>Frederick Chute</t>
+  </si>
+  <si>
+    <t>frederick.chute@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>0FD8AB9660</t>
+  </si>
+  <si>
+    <t>CFD88517C0</t>
+  </si>
+  <si>
+    <t>Joseph Giordano</t>
+  </si>
+  <si>
+    <t>joseph.giordano@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>CFD8AFA4C0</t>
+  </si>
+  <si>
+    <t>arango juan</t>
+  </si>
+  <si>
+    <t>arango.juan@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>8FD89F60C0</t>
+  </si>
+  <si>
+    <t>8FD890D800</t>
+  </si>
+  <si>
+    <t>Victoria Ferraro</t>
+  </si>
+  <si>
+    <t>t0riferraro95@gmail.com</t>
+  </si>
+  <si>
+    <t>0FD8AC15A0</t>
+  </si>
+  <si>
+    <t>CFD8A2DD60</t>
+  </si>
+  <si>
+    <t>Ryan Hill</t>
+  </si>
+  <si>
+    <t>ryan.hill.@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>4FD8AFA0A0</t>
+  </si>
+  <si>
+    <t>0FD8AFCD00</t>
+  </si>
+  <si>
+    <t>Joshua Itteera</t>
+  </si>
+  <si>
+    <t>joshua.itteera@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>8FD89AEEA0</t>
+  </si>
+  <si>
+    <t>4FD8AC2940</t>
+  </si>
+  <si>
+    <t>Elisa Crespo</t>
+  </si>
+  <si>
+    <t>elisa.crespo@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>8FD89F78A0</t>
+  </si>
+  <si>
+    <t>robert persaud</t>
+  </si>
+  <si>
+    <t>robert.persaud@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>4FD89EA5E0</t>
+  </si>
+  <si>
+    <t>0FD8AF13C0</t>
+  </si>
+  <si>
+    <t>4FD8AD8900</t>
+  </si>
+  <si>
+    <t>Kyle Gauck</t>
+  </si>
+  <si>
+    <t>kyle.gauk@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>0FD8B5ED00</t>
+  </si>
+  <si>
+    <t>Crosby anne</t>
+  </si>
+  <si>
+    <t>crosby.anne@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>4FD8B5DC60</t>
+  </si>
+  <si>
+    <t>Nadine Espinosa</t>
+  </si>
+  <si>
+    <t>nadine.espinosa@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>4FD89791A0</t>
+  </si>
+  <si>
+    <t>Alison Richardson</t>
+  </si>
+  <si>
+    <t>Alison.Richardson@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>0FD8B60440</t>
+  </si>
+  <si>
+    <t>0FD8AA84E0</t>
+  </si>
+  <si>
+    <t>CFD8A02E80</t>
+  </si>
+  <si>
+    <t>Dennis Boyle</t>
+  </si>
+  <si>
+    <t>Dennis.boyle@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>8FD8AE2360</t>
+  </si>
+  <si>
+    <t>ANTHONY MANNUZZA</t>
+  </si>
+  <si>
+    <t>anthony.mannuzza@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>8FD8A2F700</t>
+  </si>
+  <si>
+    <t>Allen Parker</t>
+  </si>
+  <si>
+    <t>Allen.parker@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>8FD8A91020</t>
+  </si>
+  <si>
+    <t>0FD8AE84A0</t>
+  </si>
+  <si>
+    <t>0FD89D77A0</t>
+  </si>
+  <si>
+    <t>8FD89060A0</t>
+  </si>
+  <si>
+    <t>0FD8AD6220</t>
+  </si>
+  <si>
+    <t>Rachel james</t>
+  </si>
+  <si>
+    <t>rachel.james@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>0FD8A22A40</t>
+  </si>
+  <si>
+    <t>Michael Lee</t>
+  </si>
+  <si>
+    <t>michael.lee4@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>CFD8ABE4A0</t>
+  </si>
+  <si>
+    <t>8FD8992AE0</t>
+  </si>
+  <si>
+    <t>samuel kronfeld</t>
+  </si>
+  <si>
+    <t>samuel.kronfeld@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>8FD8AFF180</t>
+  </si>
+  <si>
+    <t>4FD892FD60</t>
+  </si>
+  <si>
+    <t>8FD88BA9C0</t>
+  </si>
+  <si>
+    <t>0FD8A8D020</t>
+  </si>
+  <si>
+    <t>4FD8906720</t>
+  </si>
+  <si>
+    <t>Kristie Londono</t>
+  </si>
+  <si>
+    <t>CFD89940A0</t>
+  </si>
+  <si>
+    <t>0FD8A8F3C0</t>
+  </si>
+  <si>
+    <t>CFD8A36D60</t>
+  </si>
+  <si>
+    <t>Diana Naula</t>
+  </si>
+  <si>
+    <t>naula.diana@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>0FD8AAFF40</t>
+  </si>
+  <si>
+    <t>Ulice Molina</t>
+  </si>
+  <si>
+    <t>ulice.molina@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>CFD8A56400</t>
+  </si>
+  <si>
+    <t>0FD8AFF200</t>
+  </si>
+  <si>
+    <t>raymond.huang@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>0FD8ABF6C0</t>
+  </si>
+  <si>
+    <t>Evony Morel</t>
+  </si>
+  <si>
+    <t>evoney.morel@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>4FD8AB1960</t>
+  </si>
+  <si>
+    <t>Alondra Rangel</t>
+  </si>
+  <si>
+    <t>alondra.rangel@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>4FD8AB6640</t>
+  </si>
+  <si>
+    <t>Victoria Soobryan</t>
+  </si>
+  <si>
+    <t>victoria.soobryan@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>CFD8ADC440</t>
+  </si>
+  <si>
+    <t>Jorge Delgado</t>
+  </si>
+  <si>
+    <t>Jorge.delgado@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>0FD8B42CC0</t>
+  </si>
+  <si>
+    <t>amin shahid</t>
+  </si>
+  <si>
+    <t>amin.shahid@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>8FD8A3A820</t>
+  </si>
+  <si>
+    <t>cowell,truman</t>
+  </si>
+  <si>
+    <t>cowell.truman@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>8FD8B367A0</t>
+  </si>
+  <si>
+    <t>4FD8B36A40</t>
+  </si>
+  <si>
+    <t>Jean Augustin</t>
+  </si>
+  <si>
+    <t>Jean.Augustine@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>0FD8B45C20</t>
+  </si>
+  <si>
+    <t>8FD8B68DE0</t>
+  </si>
+  <si>
+    <t>Miguel Martillo</t>
+  </si>
+  <si>
+    <t>miguel.martillo@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>8FD8B65040</t>
+  </si>
+  <si>
+    <t>CFD8AEC840</t>
+  </si>
+  <si>
+    <t>8FD8ADBD20</t>
+  </si>
+  <si>
+    <t>8FD8A91340</t>
+  </si>
+  <si>
+    <t>Jesse Silkworth</t>
+  </si>
+  <si>
+    <t>jesse,silkworth@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>CFD8A1B540</t>
+  </si>
+  <si>
+    <t>Davron Zakhidov</t>
+  </si>
+  <si>
+    <t>davron.zakhidov@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>8FD8A8D440</t>
+  </si>
+  <si>
+    <t>0FD8AE9A00</t>
+  </si>
+  <si>
+    <t>Kenneth akan</t>
+  </si>
+  <si>
+    <t>kenneth.akan@jjay.cuny.edu</t>
+  </si>
+  <si>
+    <t>8FD8AFD100</t>
+  </si>
+  <si>
+    <t>rahyner penaranda</t>
+  </si>
+  <si>
+    <t>rahyner.penaranda@jjay.cuny.ney</t>
+  </si>
+  <si>
+    <t>CFD89370C0</t>
+  </si>
+  <si>
+    <t>John Tomanelli</t>
+  </si>
+  <si>
+    <t>jptomanelli@gmail.com</t>
+  </si>
+  <si>
     <t>4FD889D140</t>
   </si>
   <si>
     <t>Freddy Velez</t>
   </si>
   <si>
-    <t>Freddy.velez@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>4FD8AB6C20</t>
-  </si>
-  <si>
-    <t>Freddy Beltran</t>
-  </si>
-  <si>
-    <t>freddy.beltran@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>CFD8A9A340</t>
-  </si>
-  <si>
-    <t>Kathleena Girling</t>
-  </si>
-  <si>
-    <t>kathleena.girling@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>CFD8AC6080</t>
-  </si>
-  <si>
-    <t>CFD8A948E0</t>
-  </si>
-  <si>
-    <t>Vanessa Cordero</t>
-  </si>
-  <si>
-    <t>Vanessa.cordero@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>CFD899AA20</t>
-  </si>
-  <si>
-    <t>CFD8A37420</t>
-  </si>
-  <si>
-    <t>Bria John</t>
-  </si>
-  <si>
-    <t>bria.john@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>8FD8A9F3A0</t>
-  </si>
-  <si>
-    <t>Jorge Rivera-Bueno</t>
-  </si>
-  <si>
-    <t>jorge.riverabueno@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>8FD8A00060</t>
-  </si>
-  <si>
-    <t>Ditta Sulaman</t>
-  </si>
-  <si>
-    <t>ditta.sulaman</t>
-  </si>
-  <si>
-    <t>4FD89FEE00</t>
-  </si>
-  <si>
-    <t>Jayson Cancel</t>
-  </si>
-  <si>
-    <t>jayson.cancel@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>4FD8AA90A0</t>
-  </si>
-  <si>
-    <t>junior campoverde</t>
-  </si>
-  <si>
-    <t>junior.campoverde@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>0FD8ADDBA0</t>
-  </si>
-  <si>
-    <t>jinhong zhao</t>
-  </si>
-  <si>
-    <t>jinhong.zhao@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>0FD8ACFD60</t>
-  </si>
-  <si>
-    <t>megan mcglynn</t>
-  </si>
-  <si>
-    <t>megan.mcglynn@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>0FD8911C80</t>
-  </si>
-  <si>
-    <t>carl baerga</t>
-  </si>
-  <si>
-    <t>carl.baerga@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>8FD8ADF760</t>
-  </si>
-  <si>
-    <t>esmerly feliz</t>
-  </si>
-  <si>
-    <t>esmerly.feliz@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>CFD8A82620</t>
-  </si>
-  <si>
-    <t>altina tinaj</t>
-  </si>
-  <si>
-    <t>altina.tinaj@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>0FD89AD220</t>
-  </si>
-  <si>
-    <t>kalniesh joseph</t>
-  </si>
-  <si>
-    <t>kalniesh.joseph@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>4FD8AF0CC0</t>
-  </si>
-  <si>
-    <t>Omar Farias</t>
-  </si>
-  <si>
-    <t>omargfarias@gmail.com</t>
-  </si>
-  <si>
-    <t>0FD8AFD720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jennifer.mercedes@jjay.cuny.edu </t>
-  </si>
-  <si>
-    <t>0FD8A926C0</t>
-  </si>
-  <si>
-    <t>8FD8AF7620</t>
-  </si>
-  <si>
-    <t>Karl Morales</t>
-  </si>
-  <si>
-    <t>karl.morales@ymail.com</t>
-  </si>
-  <si>
-    <t>0FD89CD000</t>
-  </si>
-  <si>
-    <t>david.schachner</t>
-  </si>
-  <si>
-    <t>8FD8AEB240</t>
-  </si>
-  <si>
-    <t>luciano.ibbott</t>
-  </si>
-  <si>
-    <t>luciano.ibbott@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>8FD8AC75E0</t>
-  </si>
-  <si>
-    <t>Alberto Torres</t>
-  </si>
-  <si>
-    <t>alberto.torres@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>CFD8A3D840</t>
-  </si>
-  <si>
-    <t>gabriel mac donna</t>
-  </si>
-  <si>
-    <t>gabriel.macdonna@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>8FD8A57200</t>
-  </si>
-  <si>
-    <t>Averill Curameng</t>
-  </si>
-  <si>
-    <t>averill.curameng@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>8FD89E1D20</t>
-  </si>
-  <si>
-    <t>Talha Arshad</t>
-  </si>
-  <si>
-    <t>talha.arshad@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>4FD8967620</t>
-  </si>
-  <si>
-    <t>Robert Morel</t>
-  </si>
-  <si>
-    <t>robert.morel@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>4FD8912840</t>
-  </si>
-  <si>
-    <t>4FD89FD920</t>
-  </si>
-  <si>
-    <t>kyle grant</t>
-  </si>
-  <si>
-    <t>kyle.grant@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>4FD8A2F8A0</t>
-  </si>
-  <si>
-    <t>8FD8A51540</t>
-  </si>
-  <si>
-    <t>paola acosta</t>
-  </si>
-  <si>
-    <t>paola.acosta@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>4FD8A311C0</t>
-  </si>
-  <si>
-    <t>steve mendez</t>
-  </si>
-  <si>
-    <t>steve.mendez@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>0FD8A87380</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crystal Evelyn </t>
-  </si>
-  <si>
-    <t>Crystal.Evelyn@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>CFD8AF1280</t>
-  </si>
-  <si>
-    <t>4FD8ACB680</t>
-  </si>
-  <si>
-    <t>gabriella jurkowski</t>
-  </si>
-  <si>
-    <t>gabriella.jurkowski@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>8FD8ACCF00</t>
-  </si>
-  <si>
-    <t>Alexis Gao</t>
-  </si>
-  <si>
-    <t>Alexis.gao@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>0FD8AF9E00</t>
-  </si>
-  <si>
-    <t>Karla Pimentel</t>
-  </si>
-  <si>
-    <t>4FD8A33DE0</t>
-  </si>
-  <si>
-    <t>Anne Crosby</t>
-  </si>
-  <si>
-    <t>anne.crosby@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>8FD8A5D640</t>
-  </si>
-  <si>
-    <t>0FD89E2BC0</t>
-  </si>
-  <si>
-    <t>CFD89D3000</t>
-  </si>
-  <si>
-    <t>kevin elder</t>
-  </si>
-  <si>
-    <t>kevin.elder@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>0FD89CDFC0</t>
-  </si>
-  <si>
-    <t>4FD8A2C320</t>
-  </si>
-  <si>
-    <t>Frederick Chute</t>
-  </si>
-  <si>
-    <t>frederick.chute@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>0FD8AB9660</t>
-  </si>
-  <si>
-    <t>CFD88517C0</t>
-  </si>
-  <si>
-    <t>Joseph Giordano</t>
-  </si>
-  <si>
-    <t>joseph.giordano@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>CFD8AFA4C0</t>
-  </si>
-  <si>
-    <t>arango juan</t>
-  </si>
-  <si>
-    <t>arango.juan@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>8FD89F60C0</t>
-  </si>
-  <si>
-    <t>8FD890D800</t>
-  </si>
-  <si>
-    <t>Victoria Ferraro</t>
-  </si>
-  <si>
-    <t>t0riferraro95@gmail.com</t>
-  </si>
-  <si>
-    <t>0FD8AC15A0</t>
-  </si>
-  <si>
-    <t>CFD8A2DD60</t>
-  </si>
-  <si>
-    <t>Ryan Hill</t>
-  </si>
-  <si>
-    <t>ryan.hill.@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>4FD8AFA0A0</t>
-  </si>
-  <si>
-    <t>0FD8AFCD00</t>
-  </si>
-  <si>
-    <t>Joshua Itteera</t>
-  </si>
-  <si>
-    <t>joshua.itteera@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>8FD89AEEA0</t>
-  </si>
-  <si>
-    <t>4FD8AC2940</t>
-  </si>
-  <si>
-    <t>Elisa Crespo</t>
-  </si>
-  <si>
-    <t>elisa.crespo@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>8FD89F78A0</t>
-  </si>
-  <si>
-    <t>robert persaud</t>
-  </si>
-  <si>
-    <t>robert.persaud@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>4FD89EA5E0</t>
-  </si>
-  <si>
-    <t>0FD8AF13C0</t>
-  </si>
-  <si>
-    <t>4FD8AD8900</t>
-  </si>
-  <si>
-    <t>Kyle Gauck</t>
-  </si>
-  <si>
-    <t>kyle.gauk@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>0FD8B5ED00</t>
-  </si>
-  <si>
-    <t>Crosby anne</t>
-  </si>
-  <si>
-    <t>crosby.anne@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>4FD8B5DC60</t>
-  </si>
-  <si>
-    <t>Nadine Espinosa</t>
-  </si>
-  <si>
-    <t>nadine.espinosa@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>4FD89791A0</t>
-  </si>
-  <si>
-    <t>Alison Richardson</t>
-  </si>
-  <si>
-    <t>Alison.Richardson@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>0FD8B60440</t>
-  </si>
-  <si>
-    <t>0FD8AA84E0</t>
-  </si>
-  <si>
-    <t>CFD8A02E80</t>
-  </si>
-  <si>
-    <t>Dennis Boyle</t>
-  </si>
-  <si>
-    <t>Dennis.boyle@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>8FD8AE2360</t>
-  </si>
-  <si>
-    <t>ANTHONY MANNUZZA</t>
-  </si>
-  <si>
-    <t>anthony.mannuzza@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>8FD8A2F700</t>
-  </si>
-  <si>
-    <t>Allen Parker</t>
-  </si>
-  <si>
-    <t>Allen.parker@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>8FD8A91020</t>
-  </si>
-  <si>
-    <t>0FD8AE84A0</t>
-  </si>
-  <si>
-    <t>0FD89D77A0</t>
-  </si>
-  <si>
-    <t>8FD89060A0</t>
-  </si>
-  <si>
-    <t>0FD8AD6220</t>
-  </si>
-  <si>
-    <t>Rachel james</t>
-  </si>
-  <si>
-    <t>rachel.james@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>0FD8A22A40</t>
-  </si>
-  <si>
-    <t>Michael Lee</t>
-  </si>
-  <si>
-    <t>michael.lee4@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>CFD8ABE4A0</t>
-  </si>
-  <si>
-    <t>8FD8992AE0</t>
-  </si>
-  <si>
-    <t>samuel kronfeld</t>
-  </si>
-  <si>
-    <t>samuel.kronfeld@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>8FD8AFF180</t>
-  </si>
-  <si>
-    <t>4FD892FD60</t>
-  </si>
-  <si>
-    <t>8FD88BA9C0</t>
-  </si>
-  <si>
-    <t>0FD8A8D020</t>
-  </si>
-  <si>
-    <t>4FD8906720</t>
-  </si>
-  <si>
-    <t>Kristie Londono</t>
-  </si>
-  <si>
-    <t>CFD89940A0</t>
-  </si>
-  <si>
-    <t>0FD8A8F3C0</t>
-  </si>
-  <si>
-    <t>CFD8A36D60</t>
-  </si>
-  <si>
-    <t>Diana Naula</t>
-  </si>
-  <si>
-    <t>naula.diana@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>0FD8AAFF40</t>
-  </si>
-  <si>
-    <t>Ulice Molina</t>
-  </si>
-  <si>
-    <t>ulice.molina@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>CFD8A56400</t>
-  </si>
-  <si>
-    <t>0FD8AFF200</t>
-  </si>
-  <si>
-    <t>raymond.huang@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>0FD8ABF6C0</t>
-  </si>
-  <si>
-    <t>Evony Morel</t>
-  </si>
-  <si>
-    <t>evoney.morel@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>4FD8AB1960</t>
-  </si>
-  <si>
-    <t>Alondra Rangel</t>
-  </si>
-  <si>
-    <t>alondra.rangel@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>4FD8AB6640</t>
-  </si>
-  <si>
-    <t>Victoria Soobryan</t>
-  </si>
-  <si>
-    <t>victoria.soobryan@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>CFD8ADC440</t>
-  </si>
-  <si>
-    <t>Jorge Delgado</t>
-  </si>
-  <si>
-    <t>Jorge.delgado@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>0FD8B42CC0</t>
-  </si>
-  <si>
-    <t>amin shahid</t>
-  </si>
-  <si>
-    <t>amin.shahid@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>8FD8A3A820</t>
-  </si>
-  <si>
-    <t>cowell,truman</t>
-  </si>
-  <si>
-    <t>cowell.truman@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>8FD8B367A0</t>
-  </si>
-  <si>
-    <t>4FD8B36A40</t>
-  </si>
-  <si>
-    <t>Jean Augustin</t>
-  </si>
-  <si>
-    <t>Jean.Augustine@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>0FD8B45C20</t>
-  </si>
-  <si>
-    <t>8FD8B68DE0</t>
-  </si>
-  <si>
-    <t>Miguel Martillo</t>
-  </si>
-  <si>
-    <t>miguel.martillo@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>8FD8B65040</t>
-  </si>
-  <si>
-    <t>CFD8AEC840</t>
-  </si>
-  <si>
-    <t>8FD8ADBD20</t>
-  </si>
-  <si>
-    <t>8FD8A91340</t>
-  </si>
-  <si>
-    <t>Jesse Silkworth</t>
-  </si>
-  <si>
-    <t>jesse,silkworth@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>CFD8A1B540</t>
-  </si>
-  <si>
-    <t>Davron Zakhidov</t>
-  </si>
-  <si>
-    <t>davron.zakhidov@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>8FD8A8D440</t>
-  </si>
-  <si>
-    <t>0FD8AE9A00</t>
-  </si>
-  <si>
-    <t>Kenneth akan</t>
-  </si>
-  <si>
-    <t>kenneth.akan@jjay.cuny.edu</t>
-  </si>
-  <si>
-    <t>8FD8AFD100</t>
-  </si>
-  <si>
-    <t>rahyner penaranda</t>
-  </si>
-  <si>
-    <t>rahyner.penaranda@jjay.cuny.ney</t>
-  </si>
-  <si>
-    <t>CFD89370C0</t>
-  </si>
-  <si>
-    <t>John Tomanelli</t>
-  </si>
-  <si>
-    <t>jptomanelli@gmail.com</t>
+    <t>freddy.velez@jjay.cuny.edu</t>
   </si>
   <si>
     <t>Month</t>
@@ -1954,31 +1949,35 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="5">
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="18"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <i val="1"/>
+      <sz val="15"/>
     </font>
     <font>
       <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <i/>
+      <i val="1"/>
       <sz val="15"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -2015,98 +2014,23 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="9">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="2" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -3214,28 +3138,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IL241"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J241"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B242" sqref="B242"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="20" style="4" customWidth="1"/>
-    <col min="2" max="3" width="30" style="4" customWidth="1"/>
-    <col min="4" max="246" width="20" style="4" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="4" width="20"/>
+    <col customWidth="1" max="3" min="2" style="4" width="30"/>
+    <col customWidth="1" max="3" min="3" style="4" width="30"/>
+    <col customWidth="1" max="246" min="4" style="4" width="20"/>
+    <col customWidth="1" max="10" min="10" style="4" width="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row customHeight="1" ht="23.1" r="1" s="4" spans="1:10">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -3260,17 +3190,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="17.1" r="2" s="4" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.1" r="3" s="4" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -3280,14 +3210,14 @@
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="17.1" r="4" s="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -3297,26 +3227,26 @@
       <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2">
-        <v>2</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
         <v>18</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>11</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>11</v>
       </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="5" s="4" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -3326,14 +3256,14 @@
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="17.1" r="6" s="4" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -3343,41 +3273,41 @@
       <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="2">
-        <v>2</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
         <v>4</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>4</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>6</v>
       </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="7" s="4" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="8" s="4" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -3387,12 +3317,12 @@
       <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8">
+      <c r="D8" s="3" t="n"/>
+      <c r="E8" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="17.1" r="9" s="4" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -3402,14 +3332,14 @@
       <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="10" s="4" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -3419,20 +3349,20 @@
       <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>52</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>25</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="17.1" r="11" s="4" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
@@ -3442,26 +3372,26 @@
       <c r="C11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>39</v>
       </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
         <v>35</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>12</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="17.1" r="12" s="4" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -3471,26 +3401,26 @@
       <c r="C12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="3">
-        <v>2</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
         <v>25</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>12</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>12</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>8</v>
       </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="13" s="4" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -3500,14 +3430,14 @@
       <c r="C13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="3">
-        <v>3</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="17.1" r="14" s="4" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
@@ -3517,26 +3447,26 @@
       <c r="C14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>37</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>51</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>56</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>4</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="n">
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="17.1" r="15" s="4" spans="1:10">
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
@@ -3546,26 +3476,26 @@
       <c r="C15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>37</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>31</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>10</v>
       </c>
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="16" s="4" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
@@ -3575,17 +3505,17 @@
       <c r="C16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>9</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="17.1" r="17" s="4" spans="1:10">
       <c r="A17" s="1" t="s">
         <v>52</v>
       </c>
@@ -3595,20 +3525,20 @@
       <c r="C17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>10</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="18" s="4" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
@@ -3618,23 +3548,23 @@
       <c r="C18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>33</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>28</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="n">
         <v>25</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="17.1" r="19" s="4" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>58</v>
       </c>
@@ -3644,30 +3574,30 @@
       <c r="C19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>21</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>4</v>
       </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="20" s="4" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="n"/>
+      <c r="C20" s="3" t="n"/>
+      <c r="D20" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="21" s="4" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
@@ -3677,26 +3607,26 @@
       <c r="C21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>20</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>14</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="n">
         <v>15</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="n">
         <v>7</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="17.1" r="22" s="4" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
@@ -3706,14 +3636,14 @@
       <c r="C22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="17.1" r="23" s="4" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>68</v>
       </c>
@@ -3723,20 +3653,20 @@
       <c r="C23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="2">
-        <v>3</v>
-      </c>
-      <c r="E23">
+      <c r="D23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="n">
         <v>7</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="n">
         <v>9</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="17.1" r="24" s="4" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>71</v>
       </c>
@@ -3746,17 +3676,17 @@
       <c r="C24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="2">
-        <v>3</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="25" s="4" spans="1:10">
       <c r="A25" s="1" t="s">
         <v>74</v>
       </c>
@@ -3766,14 +3696,14 @@
       <c r="C25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="2">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="26" s="4" spans="1:10">
       <c r="A26" s="1" t="s">
         <v>77</v>
       </c>
@@ -3783,11 +3713,11 @@
       <c r="C26" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="27" s="4" spans="1:10">
       <c r="A27" s="1" t="s">
         <v>80</v>
       </c>
@@ -3797,17 +3727,17 @@
       <c r="C27" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>6</v>
       </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="28" s="4" spans="1:10">
       <c r="A28" s="1" t="s">
         <v>83</v>
       </c>
@@ -3817,20 +3747,20 @@
       <c r="C28" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="2">
-        <v>2</v>
-      </c>
-      <c r="E28">
+      <c r="D28" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
         <v>6</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="n">
         <v>9</v>
       </c>
-      <c r="G28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="29" s="4" spans="1:10">
       <c r="A29" s="1" t="s">
         <v>86</v>
       </c>
@@ -3840,23 +3770,23 @@
       <c r="C29" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>16</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="n">
         <v>8</v>
       </c>
-      <c r="G29">
+      <c r="G29" t="n">
         <v>10</v>
       </c>
-      <c r="H29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="30" s="4" spans="1:10">
       <c r="A30" s="1" t="s">
         <v>89</v>
       </c>
@@ -3866,23 +3796,23 @@
       <c r="C30" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="2">
-        <v>2</v>
-      </c>
-      <c r="E30">
+      <c r="D30" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" t="n">
         <v>22</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="n">
         <v>8</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="n">
         <v>15</v>
       </c>
-      <c r="H30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="31" s="4" spans="1:10">
       <c r="A31" s="1" t="s">
         <v>92</v>
       </c>
@@ -3892,23 +3822,23 @@
       <c r="C31" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="2">
-        <v>2</v>
-      </c>
-      <c r="E31">
+      <c r="D31" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" t="n">
         <v>9</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="n">
         <v>6</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="n">
         <v>4</v>
       </c>
-      <c r="H31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="32" s="4" spans="1:10">
       <c r="A32" s="1" t="s">
         <v>95</v>
       </c>
@@ -3918,26 +3848,26 @@
       <c r="C32" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="2">
-        <v>3</v>
-      </c>
-      <c r="E32">
+      <c r="D32" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" t="n">
         <v>7</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="n">
         <v>4</v>
       </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
-      <c r="H32">
-        <v>2</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="33" s="4" spans="1:10">
       <c r="A33" s="1" t="s">
         <v>98</v>
       </c>
@@ -3947,14 +3877,14 @@
       <c r="C33" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="2">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="34" s="4" spans="1:10">
       <c r="A34" s="1" t="s">
         <v>101</v>
       </c>
@@ -3964,17 +3894,17 @@
       <c r="C34" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>6</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="17.1" r="35" s="4" spans="1:10">
       <c r="A35" s="1" t="s">
         <v>104</v>
       </c>
@@ -3984,17 +3914,17 @@
       <c r="C35" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D35" s="2">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
+      <c r="D35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3</v>
+      </c>
+      <c r="F35" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="17.1" r="36" s="4" spans="1:10">
       <c r="A36" s="1" t="s">
         <v>107</v>
       </c>
@@ -4004,17 +3934,17 @@
       <c r="C36" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D36" s="2">
-        <v>1</v>
-      </c>
-      <c r="E36">
+      <c r="D36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
         <v>9</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="17.1" r="37" s="4" spans="1:10">
       <c r="A37" s="1" t="s">
         <v>110</v>
       </c>
@@ -4024,26 +3954,26 @@
       <c r="C37" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>11</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="n">
         <v>5</v>
       </c>
-      <c r="G37">
+      <c r="G37" t="n">
         <v>4</v>
       </c>
-      <c r="H37">
-        <v>3</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="38" s="4" spans="1:10">
       <c r="A38" s="1" t="s">
         <v>113</v>
       </c>
@@ -4053,20 +3983,20 @@
       <c r="C38" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>13</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="n">
         <v>6</v>
       </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="39" s="4" spans="1:10">
       <c r="A39" s="1" t="s">
         <v>116</v>
       </c>
@@ -4076,26 +4006,26 @@
       <c r="C39" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>21</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="n">
         <v>9</v>
       </c>
-      <c r="G39">
+      <c r="G39" t="n">
         <v>8</v>
       </c>
-      <c r="H39">
-        <v>2</v>
-      </c>
-      <c r="I39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="40" s="4" spans="1:10">
       <c r="A40" s="1" t="s">
         <v>119</v>
       </c>
@@ -4105,26 +4035,26 @@
       <c r="C40" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>21</v>
       </c>
-      <c r="F40">
+      <c r="F40" t="n">
         <v>10</v>
       </c>
-      <c r="G40">
+      <c r="G40" t="n">
         <v>16</v>
       </c>
-      <c r="H40">
+      <c r="H40" t="n">
         <v>4</v>
       </c>
-      <c r="I40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="41" s="4" spans="1:10">
       <c r="A41" s="1" t="s">
         <v>122</v>
       </c>
@@ -4134,23 +4064,23 @@
       <c r="C41" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D41" s="2">
-        <v>2</v>
-      </c>
-      <c r="E41">
+      <c r="D41" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E41" t="n">
         <v>5</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="n">
         <v>4</v>
       </c>
-      <c r="G41">
-        <v>2</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G41" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="42" s="4" spans="1:10">
       <c r="A42" s="1" t="s">
         <v>125</v>
       </c>
@@ -4160,14 +4090,14 @@
       <c r="C42" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D42" s="2">
-        <v>3</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="43" s="4" spans="1:10">
       <c r="A43" s="1" t="s">
         <v>128</v>
       </c>
@@ -4177,14 +4107,14 @@
       <c r="C43" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D43" s="2">
-        <v>3</v>
-      </c>
-      <c r="E43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="44" s="4" spans="1:10">
       <c r="A44" s="1" t="s">
         <v>131</v>
       </c>
@@ -4194,11 +4124,11 @@
       <c r="C44" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D44" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="45" s="4" spans="1:10">
       <c r="A45" s="1" t="s">
         <v>134</v>
       </c>
@@ -4208,23 +4138,23 @@
       <c r="C45" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>18</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="n">
         <v>9</v>
       </c>
-      <c r="G45">
+      <c r="G45" t="n">
         <v>6</v>
       </c>
-      <c r="H45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="46" s="4" spans="1:10">
       <c r="A46" s="1" t="s">
         <v>137</v>
       </c>
@@ -4234,14 +4164,14 @@
       <c r="C46" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D46" s="2">
-        <v>2</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="47" s="4" spans="1:10">
       <c r="A47" s="1" t="s">
         <v>140</v>
       </c>
@@ -4251,17 +4181,17 @@
       <c r="C47" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D47" s="2">
-        <v>3</v>
-      </c>
-      <c r="E47">
+      <c r="D47" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E47" t="n">
         <v>5</v>
       </c>
-      <c r="G47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="48" s="4" spans="1:10">
       <c r="A48" s="1" t="s">
         <v>143</v>
       </c>
@@ -4271,14 +4201,14 @@
       <c r="C48" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D48" s="2">
-        <v>2</v>
-      </c>
-      <c r="E48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="49" s="4" spans="1:10">
       <c r="A49" s="1" t="s">
         <v>146</v>
       </c>
@@ -4288,20 +4218,20 @@
       <c r="C49" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="n">
         <v>8</v>
       </c>
-      <c r="F49">
+      <c r="F49" t="n">
         <v>6</v>
       </c>
-      <c r="G49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="50" s="4" spans="1:10">
       <c r="A50" s="1" t="s">
         <v>149</v>
       </c>
@@ -4311,14 +4241,14 @@
       <c r="C50" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="17.1" r="51" s="4" spans="1:10">
       <c r="A51" s="1" t="s">
         <v>152</v>
       </c>
@@ -4328,20 +4258,20 @@
       <c r="C51" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D51" s="2">
-        <v>3</v>
-      </c>
-      <c r="E51">
+      <c r="D51" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E51" t="n">
         <v>4</v>
       </c>
-      <c r="F51">
-        <v>2</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F51" t="n">
+        <v>2</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="52" s="4" spans="1:10">
       <c r="A52" s="1" t="s">
         <v>155</v>
       </c>
@@ -4351,17 +4281,17 @@
       <c r="C52" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="n">
         <v>8</v>
       </c>
-      <c r="I52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="53" s="4" spans="1:10">
       <c r="A53" s="1" t="s">
         <v>158</v>
       </c>
@@ -4371,11 +4301,11 @@
       <c r="C53" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D53" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D53" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="54" s="4" spans="1:10">
       <c r="A54" s="1" t="s">
         <v>161</v>
       </c>
@@ -4385,23 +4315,23 @@
       <c r="C54" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D54" s="2">
-        <v>3</v>
-      </c>
-      <c r="E54">
+      <c r="D54" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E54" t="n">
         <v>12</v>
       </c>
-      <c r="F54">
-        <v>3</v>
-      </c>
-      <c r="G54">
+      <c r="F54" t="n">
+        <v>3</v>
+      </c>
+      <c r="G54" t="n">
         <v>5</v>
       </c>
-      <c r="H54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="55" s="4" spans="1:10">
       <c r="A55" s="1" t="s">
         <v>164</v>
       </c>
@@ -4411,23 +4341,23 @@
       <c r="C55" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E55">
+      <c r="E55" t="n">
         <v>17</v>
       </c>
-      <c r="F55">
-        <v>2</v>
-      </c>
-      <c r="G55">
+      <c r="F55" t="n">
+        <v>2</v>
+      </c>
+      <c r="G55" t="n">
         <v>12</v>
       </c>
-      <c r="H55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="56" s="4" spans="1:10">
       <c r="A56" s="1" t="s">
         <v>167</v>
       </c>
@@ -4437,20 +4367,20 @@
       <c r="C56" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D56" s="2">
-        <v>3</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56">
-        <v>3</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D56" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>3</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="57" s="4" spans="1:10">
       <c r="A57" s="1" t="s">
         <v>170</v>
       </c>
@@ -4460,17 +4390,17 @@
       <c r="C57" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D57" s="2">
-        <v>2</v>
-      </c>
-      <c r="E57">
-        <v>3</v>
-      </c>
-      <c r="G57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D57" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="58" s="4" spans="1:10">
       <c r="A58" s="1" t="s">
         <v>173</v>
       </c>
@@ -4480,11 +4410,11 @@
       <c r="C58" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D58" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D58" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="59" s="4" spans="1:10">
       <c r="A59" s="1" t="s">
         <v>176</v>
       </c>
@@ -4494,14 +4424,14 @@
       <c r="C59" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="60" s="4" spans="1:10">
       <c r="A60" s="1" t="s">
         <v>179</v>
       </c>
@@ -4511,14 +4441,14 @@
       <c r="C60" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D60" s="2">
-        <v>2</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D60" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="61" s="4" spans="1:10">
       <c r="A61" s="1" t="s">
         <v>182</v>
       </c>
@@ -4528,20 +4458,20 @@
       <c r="C61" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D61" s="2">
-        <v>3</v>
-      </c>
-      <c r="E61">
+      <c r="D61" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E61" t="n">
         <v>12</v>
       </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F61" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="62" s="4" spans="1:10">
       <c r="A62" s="1" t="s">
         <v>185</v>
       </c>
@@ -4551,23 +4481,23 @@
       <c r="C62" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D62" s="2">
-        <v>2</v>
-      </c>
-      <c r="E62">
+      <c r="D62" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E62" t="n">
         <v>6</v>
       </c>
-      <c r="F62">
+      <c r="F62" t="n">
         <v>7</v>
       </c>
-      <c r="G62">
+      <c r="G62" t="n">
         <v>5</v>
       </c>
-      <c r="H62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="63" s="4" spans="1:10">
       <c r="A63" s="1" t="s">
         <v>188</v>
       </c>
@@ -4577,11 +4507,11 @@
       <c r="C63" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D63" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D63" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="64" s="4" spans="1:10">
       <c r="A64" s="1" t="s">
         <v>191</v>
       </c>
@@ -4591,17 +4521,17 @@
       <c r="C64" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D64" s="2">
-        <v>1</v>
-      </c>
-      <c r="E64">
+      <c r="D64" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" t="n">
         <v>4</v>
       </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="65" s="4" spans="1:10">
       <c r="A65" s="1" t="s">
         <v>194</v>
       </c>
@@ -4611,17 +4541,17 @@
       <c r="C65" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D65" s="2">
-        <v>2</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="H65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D65" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="17.1" r="66" s="4" spans="1:10">
       <c r="A66" s="1" t="s">
         <v>197</v>
       </c>
@@ -4631,20 +4561,20 @@
       <c r="C66" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D66" s="2">
-        <v>3</v>
-      </c>
-      <c r="E66">
-        <v>2</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-      <c r="H66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D66" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>200</v>
       </c>
@@ -4654,11 +4584,11 @@
       <c r="C67" t="s">
         <v>202</v>
       </c>
-      <c r="D67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>203</v>
       </c>
@@ -4668,17 +4598,17 @@
       <c r="C68" t="s">
         <v>205</v>
       </c>
-      <c r="D68">
+      <c r="D68" t="n">
         <v>4</v>
       </c>
-      <c r="E68">
+      <c r="E68" t="n">
         <v>12</v>
       </c>
-      <c r="F68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>206</v>
       </c>
@@ -4688,17 +4618,17 @@
       <c r="C69" t="s">
         <v>208</v>
       </c>
-      <c r="D69">
+      <c r="D69" t="n">
         <v>8</v>
       </c>
-      <c r="E69">
-        <v>2</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E69" t="n">
+        <v>2</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>209</v>
       </c>
@@ -4708,23 +4638,23 @@
       <c r="C70" t="s">
         <v>211</v>
       </c>
-      <c r="D70">
-        <v>3</v>
-      </c>
-      <c r="E70">
-        <v>2</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70">
+      <c r="D70" t="n">
+        <v>3</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" t="n">
         <v>5</v>
       </c>
-      <c r="I70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>212</v>
       </c>
@@ -4734,14 +4664,14 @@
       <c r="C71" t="s">
         <v>214</v>
       </c>
-      <c r="D71">
-        <v>3</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D71" t="n">
+        <v>3</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
         <v>215</v>
       </c>
@@ -4751,26 +4681,26 @@
       <c r="C72" t="s">
         <v>217</v>
       </c>
-      <c r="D72">
-        <v>3</v>
-      </c>
-      <c r="E72">
+      <c r="D72" t="n">
+        <v>3</v>
+      </c>
+      <c r="E72" t="n">
         <v>13</v>
       </c>
-      <c r="F72">
+      <c r="F72" t="n">
         <v>4</v>
       </c>
-      <c r="G72">
+      <c r="G72" t="n">
         <v>9</v>
       </c>
-      <c r="H72">
+      <c r="H72" t="n">
         <v>8</v>
       </c>
-      <c r="I72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
         <v>218</v>
       </c>
@@ -4780,26 +4710,26 @@
       <c r="C73" t="s">
         <v>220</v>
       </c>
-      <c r="D73">
-        <v>3</v>
-      </c>
-      <c r="E73">
+      <c r="D73" t="n">
+        <v>3</v>
+      </c>
+      <c r="E73" t="n">
         <v>11</v>
       </c>
-      <c r="F73">
+      <c r="F73" t="n">
         <v>7</v>
       </c>
-      <c r="G73">
+      <c r="G73" t="n">
         <v>9</v>
       </c>
-      <c r="H73">
+      <c r="H73" t="n">
         <v>4</v>
       </c>
-      <c r="I73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
         <v>221</v>
       </c>
@@ -4809,23 +4739,23 @@
       <c r="C74" t="s">
         <v>223</v>
       </c>
-      <c r="D74">
+      <c r="D74" t="n">
         <v>8</v>
       </c>
-      <c r="E74">
+      <c r="E74" t="n">
         <v>15</v>
       </c>
-      <c r="F74">
+      <c r="F74" t="n">
         <v>8</v>
       </c>
-      <c r="G74">
+      <c r="G74" t="n">
         <v>5</v>
       </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>224</v>
       </c>
@@ -4835,23 +4765,23 @@
       <c r="C75" t="s">
         <v>226</v>
       </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
+      <c r="D75" t="n">
+        <v>1</v>
+      </c>
+      <c r="E75" t="n">
         <v>7</v>
       </c>
-      <c r="F75">
-        <v>2</v>
-      </c>
-      <c r="G75">
-        <v>3</v>
-      </c>
-      <c r="H75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F75" t="n">
+        <v>2</v>
+      </c>
+      <c r="G75" t="n">
+        <v>3</v>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
         <v>227</v>
       </c>
@@ -4861,11 +4791,11 @@
       <c r="C76" t="s">
         <v>229</v>
       </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
         <v>230</v>
       </c>
@@ -4875,20 +4805,20 @@
       <c r="C77" t="s">
         <v>232</v>
       </c>
-      <c r="D77">
-        <v>2</v>
-      </c>
-      <c r="E77">
+      <c r="D77" t="n">
+        <v>2</v>
+      </c>
+      <c r="E77" t="n">
         <v>6</v>
       </c>
-      <c r="F77">
+      <c r="F77" t="n">
         <v>4</v>
       </c>
-      <c r="I77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
         <v>233</v>
       </c>
@@ -4898,23 +4828,23 @@
       <c r="C78" t="s">
         <v>235</v>
       </c>
-      <c r="D78">
-        <v>3</v>
-      </c>
-      <c r="E78">
+      <c r="D78" t="n">
+        <v>3</v>
+      </c>
+      <c r="E78" t="n">
         <v>11</v>
       </c>
-      <c r="F78">
-        <v>3</v>
-      </c>
-      <c r="G78">
+      <c r="F78" t="n">
+        <v>3</v>
+      </c>
+      <c r="G78" t="n">
         <v>4</v>
       </c>
-      <c r="H78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
         <v>236</v>
       </c>
@@ -4924,26 +4854,26 @@
       <c r="C79" t="s">
         <v>238</v>
       </c>
-      <c r="D79">
-        <v>3</v>
-      </c>
-      <c r="E79">
+      <c r="D79" t="n">
+        <v>3</v>
+      </c>
+      <c r="E79" t="n">
         <v>8</v>
       </c>
-      <c r="F79">
-        <v>2</v>
-      </c>
-      <c r="G79">
+      <c r="F79" t="n">
+        <v>2</v>
+      </c>
+      <c r="G79" t="n">
         <v>5</v>
       </c>
-      <c r="H79">
+      <c r="H79" t="n">
         <v>4</v>
       </c>
-      <c r="I79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
         <v>239</v>
       </c>
@@ -4953,17 +4883,17 @@
       <c r="C80" t="s">
         <v>241</v>
       </c>
-      <c r="D80">
-        <v>3</v>
-      </c>
-      <c r="E80">
+      <c r="D80" t="n">
+        <v>3</v>
+      </c>
+      <c r="E80" t="n">
         <v>7</v>
       </c>
-      <c r="F80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
         <v>242</v>
       </c>
@@ -4973,20 +4903,20 @@
       <c r="C81" t="s">
         <v>244</v>
       </c>
-      <c r="D81">
-        <v>2</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81">
-        <v>2</v>
-      </c>
-      <c r="G81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D81" t="n">
+        <v>2</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2</v>
+      </c>
+      <c r="G81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
         <v>245</v>
       </c>
@@ -4996,14 +4926,14 @@
       <c r="C82" t="s">
         <v>247</v>
       </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D82" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
         <v>248</v>
       </c>
@@ -5013,14 +4943,14 @@
       <c r="C83" t="s">
         <v>250</v>
       </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83">
+      <c r="D83" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
         <v>251</v>
       </c>
@@ -5030,20 +4960,20 @@
       <c r="C84" t="s">
         <v>253</v>
       </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84">
-        <v>2</v>
-      </c>
-      <c r="F84">
-        <v>3</v>
-      </c>
-      <c r="G84">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D84" t="n">
+        <v>1</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2</v>
+      </c>
+      <c r="F84" t="n">
+        <v>3</v>
+      </c>
+      <c r="G84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
         <v>254</v>
       </c>
@@ -5053,20 +4983,20 @@
       <c r="C85" t="s">
         <v>256</v>
       </c>
-      <c r="D85">
-        <v>2</v>
-      </c>
-      <c r="E85">
+      <c r="D85" t="n">
+        <v>2</v>
+      </c>
+      <c r="E85" t="n">
         <v>7</v>
       </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F85" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
         <v>257</v>
       </c>
@@ -5076,17 +5006,17 @@
       <c r="C86" t="s">
         <v>259</v>
       </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D86" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
         <v>260</v>
       </c>
@@ -5096,17 +5026,17 @@
       <c r="C87" t="s">
         <v>262</v>
       </c>
-      <c r="D87">
-        <v>2</v>
-      </c>
-      <c r="E87">
-        <v>3</v>
-      </c>
-      <c r="F87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D87" t="n">
+        <v>2</v>
+      </c>
+      <c r="E87" t="n">
+        <v>3</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
         <v>263</v>
       </c>
@@ -5116,26 +5046,26 @@
       <c r="C88" t="s">
         <v>265</v>
       </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-      <c r="E88">
+      <c r="D88" t="n">
+        <v>1</v>
+      </c>
+      <c r="E88" t="n">
         <v>16</v>
       </c>
-      <c r="F88">
+      <c r="F88" t="n">
         <v>8</v>
       </c>
-      <c r="G88">
+      <c r="G88" t="n">
         <v>8</v>
       </c>
-      <c r="H88">
+      <c r="H88" t="n">
         <v>13</v>
       </c>
-      <c r="I88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
         <v>266</v>
       </c>
@@ -5145,11 +5075,11 @@
       <c r="C89" t="s">
         <v>268</v>
       </c>
-      <c r="D89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
         <v>269</v>
       </c>
@@ -5159,23 +5089,23 @@
       <c r="C90" t="s">
         <v>271</v>
       </c>
-      <c r="D90">
-        <v>2</v>
-      </c>
-      <c r="E90">
+      <c r="D90" t="n">
+        <v>2</v>
+      </c>
+      <c r="E90" t="n">
         <v>7</v>
       </c>
-      <c r="F90">
+      <c r="F90" t="n">
         <v>5</v>
       </c>
-      <c r="G90">
+      <c r="G90" t="n">
         <v>4</v>
       </c>
-      <c r="H90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" t="s">
         <v>272</v>
       </c>
@@ -5185,20 +5115,20 @@
       <c r="C91" t="s">
         <v>274</v>
       </c>
-      <c r="D91">
+      <c r="D91" t="n">
         <v>4</v>
       </c>
-      <c r="E91">
+      <c r="E91" t="n">
         <v>10</v>
       </c>
-      <c r="F91">
-        <v>2</v>
-      </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F91" t="n">
+        <v>2</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
         <v>275</v>
       </c>
@@ -5208,20 +5138,20 @@
       <c r="C92" t="s">
         <v>277</v>
       </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-      <c r="E92">
+      <c r="D92" t="n">
+        <v>1</v>
+      </c>
+      <c r="E92" t="n">
         <v>6</v>
       </c>
-      <c r="F92">
-        <v>2</v>
-      </c>
-      <c r="G92">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F92" t="n">
+        <v>2</v>
+      </c>
+      <c r="G92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
         <v>278</v>
       </c>
@@ -5231,23 +5161,23 @@
       <c r="C93" t="s">
         <v>280</v>
       </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-      <c r="E93">
+      <c r="D93" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" t="n">
         <v>5</v>
       </c>
-      <c r="F93">
-        <v>2</v>
-      </c>
-      <c r="G93">
-        <v>1</v>
-      </c>
-      <c r="H93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F93" t="n">
+        <v>2</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
         <v>281</v>
       </c>
@@ -5257,20 +5187,20 @@
       <c r="C94" t="s">
         <v>283</v>
       </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-      <c r="E94">
+      <c r="D94" t="n">
+        <v>1</v>
+      </c>
+      <c r="E94" t="n">
         <v>4</v>
       </c>
-      <c r="F94">
+      <c r="F94" t="n">
         <v>6</v>
       </c>
-      <c r="G94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
         <v>284</v>
       </c>
@@ -5280,17 +5210,17 @@
       <c r="C95" t="s">
         <v>286</v>
       </c>
-      <c r="D95">
-        <v>3</v>
-      </c>
-      <c r="E95">
+      <c r="D95" t="n">
+        <v>3</v>
+      </c>
+      <c r="E95" t="n">
         <v>4</v>
       </c>
-      <c r="F95">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" t="s">
         <v>287</v>
       </c>
@@ -5300,26 +5230,26 @@
       <c r="C96" t="s">
         <v>289</v>
       </c>
-      <c r="D96">
-        <v>2</v>
-      </c>
-      <c r="E96">
+      <c r="D96" t="n">
+        <v>2</v>
+      </c>
+      <c r="E96" t="n">
         <v>13</v>
       </c>
-      <c r="F96">
+      <c r="F96" t="n">
         <v>8</v>
       </c>
-      <c r="G96">
+      <c r="G96" t="n">
         <v>10</v>
       </c>
-      <c r="H96">
+      <c r="H96" t="n">
         <v>8</v>
       </c>
-      <c r="I96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
         <v>290</v>
       </c>
@@ -5329,20 +5259,20 @@
       <c r="C97" t="s">
         <v>292</v>
       </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-      <c r="E97">
+      <c r="D97" t="n">
+        <v>1</v>
+      </c>
+      <c r="E97" t="n">
         <v>4</v>
       </c>
-      <c r="F97">
+      <c r="F97" t="n">
         <v>4</v>
       </c>
-      <c r="H97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
         <v>293</v>
       </c>
@@ -5352,11 +5282,11 @@
       <c r="C98" t="s">
         <v>295</v>
       </c>
-      <c r="D98">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" t="s">
         <v>296</v>
       </c>
@@ -5366,11 +5296,11 @@
       <c r="C99" t="s">
         <v>298</v>
       </c>
-      <c r="D99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" t="s">
         <v>299</v>
       </c>
@@ -5380,23 +5310,23 @@
       <c r="C100" t="s">
         <v>301</v>
       </c>
-      <c r="D100">
-        <v>3</v>
-      </c>
-      <c r="E100">
+      <c r="D100" t="n">
+        <v>3</v>
+      </c>
+      <c r="E100" t="n">
         <v>9</v>
       </c>
-      <c r="F100">
-        <v>3</v>
-      </c>
-      <c r="G100">
+      <c r="F100" t="n">
+        <v>3</v>
+      </c>
+      <c r="G100" t="n">
         <v>4</v>
       </c>
-      <c r="I100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" t="s">
         <v>302</v>
       </c>
@@ -5406,23 +5336,23 @@
       <c r="C101" t="s">
         <v>304</v>
       </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-      <c r="E101">
-        <v>3</v>
-      </c>
-      <c r="F101">
-        <v>2</v>
-      </c>
-      <c r="G101">
-        <v>1</v>
-      </c>
-      <c r="I101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D101" t="n">
+        <v>1</v>
+      </c>
+      <c r="E101" t="n">
+        <v>3</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" t="s">
         <v>305</v>
       </c>
@@ -5432,26 +5362,26 @@
       <c r="C102" t="s">
         <v>307</v>
       </c>
-      <c r="D102">
-        <v>1</v>
-      </c>
-      <c r="E102">
+      <c r="D102" t="n">
+        <v>1</v>
+      </c>
+      <c r="E102" t="n">
         <v>4</v>
       </c>
-      <c r="F102">
-        <v>3</v>
-      </c>
-      <c r="G102">
+      <c r="F102" t="n">
+        <v>3</v>
+      </c>
+      <c r="G102" t="n">
         <v>4</v>
       </c>
-      <c r="H102">
+      <c r="H102" t="n">
         <v>4</v>
       </c>
-      <c r="I102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" t="s">
         <v>308</v>
       </c>
@@ -5461,23 +5391,23 @@
       <c r="C103" t="s">
         <v>310</v>
       </c>
-      <c r="D103">
+      <c r="D103" t="n">
         <v>4</v>
       </c>
-      <c r="E103">
+      <c r="E103" t="n">
         <v>16</v>
       </c>
-      <c r="F103">
+      <c r="F103" t="n">
         <v>13</v>
       </c>
-      <c r="G103">
+      <c r="G103" t="n">
         <v>11</v>
       </c>
-      <c r="H103">
+      <c r="H103" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10">
       <c r="A104" t="s">
         <v>311</v>
       </c>
@@ -5487,14 +5417,14 @@
       <c r="C104" t="s">
         <v>313</v>
       </c>
-      <c r="D104">
-        <v>2</v>
-      </c>
-      <c r="E104">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D104" t="n">
+        <v>2</v>
+      </c>
+      <c r="E104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" t="s">
         <v>314</v>
       </c>
@@ -5504,17 +5434,17 @@
       <c r="C105" t="s">
         <v>316</v>
       </c>
-      <c r="D105">
-        <v>2</v>
-      </c>
-      <c r="E105">
-        <v>1</v>
-      </c>
-      <c r="F105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D105" t="n">
+        <v>2</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" t="s">
         <v>317</v>
       </c>
@@ -5524,23 +5454,23 @@
       <c r="C106" t="s">
         <v>319</v>
       </c>
-      <c r="D106">
-        <v>2</v>
-      </c>
-      <c r="E106">
+      <c r="D106" t="n">
+        <v>2</v>
+      </c>
+      <c r="E106" t="n">
         <v>16</v>
       </c>
-      <c r="F106">
-        <v>3</v>
-      </c>
-      <c r="G106">
-        <v>2</v>
-      </c>
-      <c r="H106">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F106" t="n">
+        <v>3</v>
+      </c>
+      <c r="G106" t="n">
+        <v>2</v>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" t="s">
         <v>320</v>
       </c>
@@ -5550,23 +5480,23 @@
       <c r="C107" t="s">
         <v>322</v>
       </c>
-      <c r="D107">
-        <v>2</v>
-      </c>
-      <c r="E107">
+      <c r="D107" t="n">
+        <v>2</v>
+      </c>
+      <c r="E107" t="n">
         <v>24</v>
       </c>
-      <c r="F107">
+      <c r="F107" t="n">
         <v>21</v>
       </c>
-      <c r="G107">
+      <c r="G107" t="n">
         <v>21</v>
       </c>
-      <c r="H107">
+      <c r="H107" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10">
       <c r="A108" t="s">
         <v>323</v>
       </c>
@@ -5576,17 +5506,17 @@
       <c r="C108" t="s">
         <v>325</v>
       </c>
-      <c r="D108">
-        <v>2</v>
-      </c>
-      <c r="E108">
-        <v>2</v>
-      </c>
-      <c r="F108">
+      <c r="D108" t="n">
+        <v>2</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2</v>
+      </c>
+      <c r="F108" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10">
       <c r="A109" t="s">
         <v>326</v>
       </c>
@@ -5596,23 +5526,23 @@
       <c r="C109" t="s">
         <v>328</v>
       </c>
-      <c r="D109">
-        <v>1</v>
-      </c>
-      <c r="E109">
-        <v>1</v>
-      </c>
-      <c r="F109">
-        <v>1</v>
-      </c>
-      <c r="G109">
-        <v>2</v>
-      </c>
-      <c r="H109">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D109" t="n">
+        <v>1</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1</v>
+      </c>
+      <c r="G109" t="n">
+        <v>2</v>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" t="s">
         <v>329</v>
       </c>
@@ -5622,20 +5552,20 @@
       <c r="C110" t="s">
         <v>331</v>
       </c>
-      <c r="D110">
-        <v>2</v>
-      </c>
-      <c r="E110">
+      <c r="D110" t="n">
+        <v>2</v>
+      </c>
+      <c r="E110" t="n">
         <v>14</v>
       </c>
-      <c r="F110">
-        <v>1</v>
-      </c>
-      <c r="I110">
+      <c r="F110" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10">
       <c r="A111" t="s">
         <v>332</v>
       </c>
@@ -5645,17 +5575,17 @@
       <c r="C111" t="s">
         <v>334</v>
       </c>
-      <c r="D111">
-        <v>2</v>
-      </c>
-      <c r="E111">
+      <c r="D111" t="n">
+        <v>2</v>
+      </c>
+      <c r="E111" t="n">
         <v>14</v>
       </c>
-      <c r="F111">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" t="s">
         <v>335</v>
       </c>
@@ -5665,23 +5595,23 @@
       <c r="C112" t="s">
         <v>337</v>
       </c>
-      <c r="D112">
-        <v>2</v>
-      </c>
-      <c r="E112">
+      <c r="D112" t="n">
+        <v>2</v>
+      </c>
+      <c r="E112" t="n">
         <v>16</v>
       </c>
-      <c r="F112">
+      <c r="F112" t="n">
         <v>7</v>
       </c>
-      <c r="G112">
+      <c r="G112" t="n">
         <v>6</v>
       </c>
-      <c r="H112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" t="s">
         <v>338</v>
       </c>
@@ -5691,26 +5621,26 @@
       <c r="C113" t="s">
         <v>340</v>
       </c>
-      <c r="D113">
-        <v>1</v>
-      </c>
-      <c r="E113">
+      <c r="D113" t="n">
+        <v>1</v>
+      </c>
+      <c r="E113" t="n">
         <v>11</v>
       </c>
-      <c r="F113">
-        <v>2</v>
-      </c>
-      <c r="G113">
+      <c r="F113" t="n">
+        <v>2</v>
+      </c>
+      <c r="G113" t="n">
         <v>7</v>
       </c>
-      <c r="H113">
+      <c r="H113" t="n">
         <v>5</v>
       </c>
-      <c r="I113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" t="s">
         <v>341</v>
       </c>
@@ -5720,28 +5650,28 @@
       <c r="C114" t="s">
         <v>343</v>
       </c>
-      <c r="E114">
+      <c r="E114" t="n">
         <v>12</v>
       </c>
-      <c r="F114">
+      <c r="F114" t="n">
         <v>7</v>
       </c>
-      <c r="G114">
+      <c r="G114" t="n">
         <v>8</v>
       </c>
-      <c r="H114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" t="s">
         <v>344</v>
       </c>
-      <c r="E115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" t="s">
         <v>345</v>
       </c>
@@ -5751,11 +5681,11 @@
       <c r="C116" t="s">
         <v>347</v>
       </c>
-      <c r="E116">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" t="s">
         <v>348</v>
       </c>
@@ -5765,17 +5695,17 @@
       <c r="C117" t="s">
         <v>350</v>
       </c>
-      <c r="E117">
+      <c r="E117" t="n">
         <v>4</v>
       </c>
-      <c r="F117">
-        <v>2</v>
-      </c>
-      <c r="G117">
+      <c r="F117" t="n">
+        <v>2</v>
+      </c>
+      <c r="G117" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10">
       <c r="A118" t="s">
         <v>351</v>
       </c>
@@ -5785,36 +5715,36 @@
       <c r="C118" t="s">
         <v>353</v>
       </c>
-      <c r="E118">
-        <v>2</v>
-      </c>
-      <c r="G118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E118" t="n">
+        <v>2</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" t="s">
         <v>354</v>
       </c>
-      <c r="E119">
-        <v>1</v>
-      </c>
-      <c r="F119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E119" t="n">
+        <v>1</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" t="s">
         <v>355</v>
       </c>
-      <c r="E120">
+      <c r="E120" t="n">
         <v>5</v>
       </c>
-      <c r="F120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" t="s">
         <v>356</v>
       </c>
@@ -5824,20 +5754,20 @@
       <c r="C121" t="s">
         <v>358</v>
       </c>
-      <c r="E121">
+      <c r="E121" t="n">
         <v>9</v>
       </c>
-      <c r="F121">
+      <c r="F121" t="n">
         <v>5</v>
       </c>
-      <c r="G121">
+      <c r="G121" t="n">
         <v>7</v>
       </c>
-      <c r="H121">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" t="s">
         <v>359</v>
       </c>
@@ -5847,11 +5777,11 @@
       <c r="C122" t="s">
         <v>361</v>
       </c>
-      <c r="E122">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" t="s">
         <v>362</v>
       </c>
@@ -5861,20 +5791,20 @@
       <c r="C123" t="s">
         <v>364</v>
       </c>
-      <c r="E123">
-        <v>1</v>
-      </c>
-      <c r="F123">
-        <v>2</v>
-      </c>
-      <c r="G123">
+      <c r="E123" t="n">
+        <v>1</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2</v>
+      </c>
+      <c r="G123" t="n">
         <v>8</v>
       </c>
-      <c r="H123">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" t="s">
         <v>365</v>
       </c>
@@ -5884,17 +5814,17 @@
       <c r="C124" t="s">
         <v>367</v>
       </c>
-      <c r="E124">
-        <v>2</v>
-      </c>
-      <c r="G124">
-        <v>3</v>
-      </c>
-      <c r="H124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E124" t="n">
+        <v>2</v>
+      </c>
+      <c r="G124" t="n">
+        <v>3</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" t="s">
         <v>368</v>
       </c>
@@ -5904,11 +5834,11 @@
       <c r="C125" t="s">
         <v>370</v>
       </c>
-      <c r="E125">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" t="s">
         <v>371</v>
       </c>
@@ -5918,11 +5848,11 @@
       <c r="C126" t="s">
         <v>373</v>
       </c>
-      <c r="E126">
+      <c r="E126" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10">
       <c r="A127" t="s">
         <v>374</v>
       </c>
@@ -5932,11 +5862,11 @@
       <c r="C127" t="s">
         <v>376</v>
       </c>
-      <c r="E127">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E127" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" t="s">
         <v>377</v>
       </c>
@@ -5946,11 +5876,11 @@
       <c r="C128" t="s">
         <v>379</v>
       </c>
-      <c r="E128">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E128" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" t="s">
         <v>380</v>
       </c>
@@ -5960,17 +5890,17 @@
       <c r="C129" t="s">
         <v>382</v>
       </c>
-      <c r="E129">
+      <c r="E129" t="n">
         <v>5</v>
       </c>
-      <c r="G129">
-        <v>1</v>
-      </c>
-      <c r="H129">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G129" t="n">
+        <v>1</v>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" t="s">
         <v>383</v>
       </c>
@@ -5980,11 +5910,11 @@
       <c r="C130" t="s">
         <v>385</v>
       </c>
-      <c r="E130">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E130" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" t="s">
         <v>386</v>
       </c>
@@ -5994,11 +5924,11 @@
       <c r="C131" t="s">
         <v>388</v>
       </c>
-      <c r="E131">
+      <c r="E131" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10">
       <c r="A132" t="s">
         <v>389</v>
       </c>
@@ -6008,17 +5938,17 @@
       <c r="C132" t="s">
         <v>391</v>
       </c>
-      <c r="E132">
+      <c r="E132" t="n">
         <v>8</v>
       </c>
-      <c r="F132">
-        <v>3</v>
-      </c>
-      <c r="H132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F132" t="n">
+        <v>3</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" t="s">
         <v>392</v>
       </c>
@@ -6028,11 +5958,11 @@
       <c r="C133" t="s">
         <v>394</v>
       </c>
-      <c r="E133">
+      <c r="E133" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10">
       <c r="A134" t="s">
         <v>395</v>
       </c>
@@ -6042,11 +5972,11 @@
       <c r="C134" t="s">
         <v>397</v>
       </c>
-      <c r="E134">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" t="s">
         <v>398</v>
       </c>
@@ -6056,11 +5986,11 @@
       <c r="C135" t="s">
         <v>400</v>
       </c>
-      <c r="E135">
+      <c r="E135" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10">
       <c r="A136" t="s">
         <v>401</v>
       </c>
@@ -6070,11 +6000,11 @@
       <c r="C136" t="s">
         <v>403</v>
       </c>
-      <c r="E136">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E136" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" t="s">
         <v>404</v>
       </c>
@@ -6084,20 +6014,20 @@
       <c r="C137" t="s">
         <v>406</v>
       </c>
-      <c r="E137">
+      <c r="E137" t="n">
+        <v>6</v>
+      </c>
+      <c r="F137" t="n">
         <v>4</v>
       </c>
-      <c r="F137">
-        <v>3</v>
-      </c>
-      <c r="G137">
-        <v>1</v>
-      </c>
-      <c r="J137">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G137" t="n">
+        <v>4</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" t="s">
         <v>407</v>
       </c>
@@ -6107,85 +6037,76 @@
       <c r="C138" t="s">
         <v>409</v>
       </c>
-      <c r="E138">
-        <v>6</v>
-      </c>
-      <c r="F138">
-        <v>4</v>
-      </c>
-      <c r="G138">
-        <v>4</v>
-      </c>
-      <c r="H138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E138" t="n">
+        <v>2</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1</v>
+      </c>
+      <c r="H138" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" t="s">
         <v>410</v>
       </c>
-      <c r="B139" t="s">
+      <c r="E139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" t="s">
         <v>411</v>
       </c>
-      <c r="C139" t="s">
+      <c r="B140" t="s">
         <v>412</v>
       </c>
-      <c r="E139">
-        <v>2</v>
-      </c>
-      <c r="F139">
-        <v>1</v>
-      </c>
-      <c r="G139">
-        <v>1</v>
-      </c>
-      <c r="H139">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="C140" t="s">
         <v>413</v>
       </c>
-      <c r="E140">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E140" t="n">
+        <v>4</v>
+      </c>
+      <c r="F140" t="n">
+        <v>9</v>
+      </c>
+      <c r="G140" t="n">
+        <v>12</v>
+      </c>
+      <c r="H140" t="n">
+        <v>3</v>
+      </c>
+      <c r="I140" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" t="s">
         <v>414</v>
       </c>
-      <c r="B141" t="s">
+      <c r="E141" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" t="s">
         <v>415</v>
       </c>
-      <c r="C141" t="s">
+      <c r="B142" t="s">
         <v>416</v>
       </c>
-      <c r="E141">
-        <v>4</v>
-      </c>
-      <c r="F141">
-        <v>9</v>
-      </c>
-      <c r="G141">
-        <v>12</v>
-      </c>
-      <c r="H141">
-        <v>3</v>
-      </c>
-      <c r="I141">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="C142" t="s">
         <v>417</v>
       </c>
-      <c r="E142">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E142" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" t="s">
         <v>418</v>
       </c>
@@ -6195,11 +6116,11 @@
       <c r="C143" t="s">
         <v>420</v>
       </c>
-      <c r="E143">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E143" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" t="s">
         <v>421</v>
       </c>
@@ -6209,11 +6130,11 @@
       <c r="C144" t="s">
         <v>423</v>
       </c>
-      <c r="E144">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E144" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" t="s">
         <v>424</v>
       </c>
@@ -6223,11 +6144,11 @@
       <c r="C145" t="s">
         <v>426</v>
       </c>
-      <c r="E145">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E145" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" t="s">
         <v>427</v>
       </c>
@@ -6237,11 +6158,14 @@
       <c r="C146" t="s">
         <v>429</v>
       </c>
-      <c r="E146">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E146" t="n">
+        <v>2</v>
+      </c>
+      <c r="G146" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" t="s">
         <v>430</v>
       </c>
@@ -6251,14 +6175,14 @@
       <c r="C147" t="s">
         <v>432</v>
       </c>
-      <c r="E147">
-        <v>2</v>
-      </c>
-      <c r="G147">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E147" t="n">
+        <v>3</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" t="s">
         <v>433</v>
       </c>
@@ -6268,14 +6192,11 @@
       <c r="C148" t="s">
         <v>435</v>
       </c>
-      <c r="E148">
-        <v>3</v>
-      </c>
-      <c r="G148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" t="s">
         <v>436</v>
       </c>
@@ -6285,11 +6206,11 @@
       <c r="C149" t="s">
         <v>438</v>
       </c>
-      <c r="E149">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E149" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" t="s">
         <v>439</v>
       </c>
@@ -6299,11 +6220,11 @@
       <c r="C150" t="s">
         <v>441</v>
       </c>
-      <c r="E150">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E150" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" t="s">
         <v>442</v>
       </c>
@@ -6313,11 +6234,11 @@
       <c r="C151" t="s">
         <v>444</v>
       </c>
-      <c r="E151">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E151" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" t="s">
         <v>445</v>
       </c>
@@ -6327,11 +6248,11 @@
       <c r="C152" t="s">
         <v>447</v>
       </c>
-      <c r="E152">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E152" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" t="s">
         <v>448</v>
       </c>
@@ -6341,102 +6262,111 @@
       <c r="C153" t="s">
         <v>450</v>
       </c>
-      <c r="E153">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E153" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" t="s">
         <v>451</v>
       </c>
       <c r="B154" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154" t="s">
         <v>452</v>
       </c>
-      <c r="C154" t="s">
+      <c r="E154" t="n">
+        <v>8</v>
+      </c>
+      <c r="F154" t="n">
+        <v>13</v>
+      </c>
+      <c r="G154" t="n">
+        <v>24</v>
+      </c>
+      <c r="H154" t="n">
+        <v>13</v>
+      </c>
+      <c r="I154" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="A155" t="s">
         <v>453</v>
       </c>
-      <c r="E154">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="E155" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="A156" t="s">
         <v>454</v>
       </c>
-      <c r="B155" t="s">
-        <v>13</v>
-      </c>
-      <c r="C155" t="s">
+      <c r="B156" t="s">
         <v>455</v>
       </c>
-      <c r="E155">
-        <v>8</v>
-      </c>
-      <c r="F155">
-        <v>13</v>
-      </c>
-      <c r="G155">
-        <v>24</v>
-      </c>
-      <c r="H155">
-        <v>13</v>
-      </c>
-      <c r="I155">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="C156" t="s">
         <v>456</v>
       </c>
-      <c r="E156">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E156" t="n">
+        <v>3</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" t="s">
         <v>457</v>
       </c>
       <c r="B157" t="s">
+        <v>19</v>
+      </c>
+      <c r="C157" t="s">
         <v>458</v>
       </c>
-      <c r="C157" t="s">
+      <c r="E157" t="n">
+        <v>17</v>
+      </c>
+      <c r="F157" t="n">
+        <v>8</v>
+      </c>
+      <c r="G157" t="n">
+        <v>10</v>
+      </c>
+      <c r="H157" t="n">
+        <v>5</v>
+      </c>
+      <c r="I157" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158" t="s">
         <v>459</v>
       </c>
-      <c r="E157">
-        <v>3</v>
-      </c>
-      <c r="F157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="B158" t="s">
         <v>460</v>
-      </c>
-      <c r="B158" t="s">
-        <v>19</v>
       </c>
       <c r="C158" t="s">
         <v>461</v>
       </c>
-      <c r="E158">
-        <v>17</v>
-      </c>
-      <c r="F158">
-        <v>8</v>
-      </c>
-      <c r="G158">
-        <v>10</v>
-      </c>
-      <c r="H158">
+      <c r="E158" t="n">
         <v>5</v>
       </c>
-      <c r="I158">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F158" t="n">
+        <v>5</v>
+      </c>
+      <c r="G158" t="n">
+        <v>9</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" t="s">
         <v>462</v>
       </c>
@@ -6446,20 +6376,11 @@
       <c r="C159" t="s">
         <v>464</v>
       </c>
-      <c r="E159">
-        <v>5</v>
-      </c>
-      <c r="F159">
-        <v>5</v>
-      </c>
-      <c r="G159">
-        <v>9</v>
-      </c>
-      <c r="H159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E159" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" t="s">
         <v>465</v>
       </c>
@@ -6469,11 +6390,11 @@
       <c r="C160" t="s">
         <v>467</v>
       </c>
-      <c r="E160">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E160" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" t="s">
         <v>468</v>
       </c>
@@ -6483,11 +6404,20 @@
       <c r="C161" t="s">
         <v>470</v>
       </c>
-      <c r="E161">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E161" t="n">
+        <v>3</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" t="s">
         <v>471</v>
       </c>
@@ -6497,20 +6427,14 @@
       <c r="C162" t="s">
         <v>473</v>
       </c>
-      <c r="E162">
-        <v>3</v>
-      </c>
-      <c r="F162">
-        <v>1</v>
-      </c>
-      <c r="G162">
-        <v>1</v>
-      </c>
-      <c r="H162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E162" t="n">
+        <v>2</v>
+      </c>
+      <c r="F162" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" t="s">
         <v>474</v>
       </c>
@@ -6520,73 +6444,76 @@
       <c r="C163" t="s">
         <v>476</v>
       </c>
-      <c r="E163">
-        <v>2</v>
-      </c>
-      <c r="F163">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E163" t="n">
+        <v>2</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1</v>
+      </c>
+      <c r="G163" t="n">
+        <v>3</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" t="s">
         <v>477</v>
       </c>
-      <c r="B164" t="s">
+      <c r="E164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
+      <c r="A165" t="s">
         <v>478</v>
       </c>
-      <c r="C164" t="s">
+      <c r="B165" t="s">
         <v>479</v>
       </c>
-      <c r="E164">
-        <v>2</v>
-      </c>
-      <c r="F164">
-        <v>1</v>
-      </c>
-      <c r="G164">
-        <v>3</v>
-      </c>
-      <c r="H164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="C165" t="s">
         <v>480</v>
       </c>
-      <c r="E165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E165" t="n">
+        <v>2</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" t="s">
         <v>481</v>
       </c>
-      <c r="B166" t="s">
+      <c r="E166" t="n">
+        <v>1</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
+      <c r="A167" t="s">
         <v>482</v>
       </c>
-      <c r="C166" t="s">
+      <c r="B167" t="s">
         <v>483</v>
       </c>
-      <c r="E166">
-        <v>2</v>
-      </c>
-      <c r="H166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="C167" t="s">
         <v>484</v>
       </c>
-      <c r="E167">
-        <v>1</v>
-      </c>
-      <c r="F167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E167" t="n">
+        <v>2</v>
+      </c>
+      <c r="F167" t="n">
+        <v>3</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" t="s">
         <v>485</v>
       </c>
@@ -6596,17 +6523,17 @@
       <c r="C168" t="s">
         <v>487</v>
       </c>
-      <c r="E168">
-        <v>2</v>
-      </c>
-      <c r="F168">
-        <v>3</v>
-      </c>
-      <c r="G168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E168" t="n">
+        <v>2</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1</v>
+      </c>
+      <c r="G168" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" t="s">
         <v>488</v>
       </c>
@@ -6616,51 +6543,48 @@
       <c r="C169" t="s">
         <v>490</v>
       </c>
-      <c r="E169">
-        <v>2</v>
-      </c>
-      <c r="F169">
-        <v>1</v>
-      </c>
-      <c r="G169">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E169" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" t="s">
         <v>491</v>
       </c>
       <c r="B170" t="s">
+        <v>129</v>
+      </c>
+      <c r="C170" t="s">
+        <v>130</v>
+      </c>
+      <c r="E170" t="n">
+        <v>2</v>
+      </c>
+      <c r="F170" t="n">
+        <v>11</v>
+      </c>
+      <c r="G170" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
+      <c r="A171" t="s">
         <v>492</v>
       </c>
-      <c r="C170" t="s">
+      <c r="B171" t="s">
         <v>493</v>
       </c>
-      <c r="E170">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="C171" t="s">
         <v>494</v>
       </c>
-      <c r="B171" t="s">
-        <v>129</v>
-      </c>
-      <c r="C171" t="s">
-        <v>130</v>
-      </c>
-      <c r="E171">
-        <v>2</v>
-      </c>
-      <c r="F171">
-        <v>11</v>
-      </c>
-      <c r="G171">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E171" t="n">
+        <v>2</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" t="s">
         <v>495</v>
       </c>
@@ -6670,14 +6594,17 @@
       <c r="C172" t="s">
         <v>497</v>
       </c>
-      <c r="E172">
-        <v>2</v>
-      </c>
-      <c r="F172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E172" t="n">
+        <v>1</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2</v>
+      </c>
+      <c r="G172" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" t="s">
         <v>498</v>
       </c>
@@ -6685,131 +6612,134 @@
         <v>499</v>
       </c>
       <c r="C173" t="s">
+        <v>67</v>
+      </c>
+      <c r="E173" t="n">
+        <v>6</v>
+      </c>
+      <c r="F173" t="n">
+        <v>5</v>
+      </c>
+      <c r="G173" t="n">
+        <v>10</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
+      <c r="A174" t="s">
         <v>500</v>
       </c>
-      <c r="E173">
-        <v>1</v>
-      </c>
-      <c r="F173">
-        <v>2</v>
-      </c>
-      <c r="G173">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="B174" t="s">
         <v>501</v>
       </c>
-      <c r="B174" t="s">
+      <c r="C174" t="s">
         <v>502</v>
       </c>
-      <c r="C174" t="s">
-        <v>67</v>
-      </c>
-      <c r="E174">
-        <v>6</v>
-      </c>
-      <c r="F174">
-        <v>5</v>
-      </c>
-      <c r="G174">
-        <v>10</v>
-      </c>
-      <c r="H174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E174" t="n">
+        <v>3</v>
+      </c>
+      <c r="F174" t="n">
+        <v>20</v>
+      </c>
+      <c r="G174" t="n">
+        <v>18</v>
+      </c>
+      <c r="H174" t="n">
+        <v>4</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" t="s">
         <v>503</v>
       </c>
-      <c r="B175" t="s">
+      <c r="E175" t="n">
+        <v>1</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
+      <c r="A176" t="s">
         <v>504</v>
       </c>
-      <c r="C175" t="s">
+      <c r="E176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
+      <c r="A177" t="s">
         <v>505</v>
       </c>
-      <c r="E175">
-        <v>3</v>
-      </c>
-      <c r="F175">
-        <v>20</v>
-      </c>
-      <c r="G175">
-        <v>18</v>
-      </c>
-      <c r="H175">
-        <v>4</v>
-      </c>
-      <c r="I175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="B177" t="s">
         <v>506</v>
       </c>
-      <c r="E176">
-        <v>1</v>
-      </c>
-      <c r="H176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="C177" t="s">
         <v>507</v>
       </c>
-      <c r="E177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E177" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" t="s">
         <v>508</v>
       </c>
-      <c r="B178" t="s">
+      <c r="E178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
+      <c r="A179" t="s">
         <v>509</v>
       </c>
-      <c r="C178" t="s">
+      <c r="B179" t="s">
         <v>510</v>
       </c>
-      <c r="E178">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="C179" t="s">
         <v>511</v>
       </c>
-      <c r="E179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F179" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" t="s">
         <v>512</v>
       </c>
-      <c r="B180" t="s">
+      <c r="F180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
+      <c r="A181" t="s">
         <v>513</v>
       </c>
-      <c r="C180" t="s">
+      <c r="B181" t="s">
         <v>514</v>
       </c>
-      <c r="F180">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="C181" t="s">
         <v>515</v>
       </c>
-      <c r="F181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F181" t="n">
+        <v>6</v>
+      </c>
+      <c r="G181" t="n">
+        <v>16</v>
+      </c>
+      <c r="H181" t="n">
+        <v>4</v>
+      </c>
+      <c r="I181" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" t="s">
         <v>516</v>
       </c>
@@ -6819,132 +6749,123 @@
       <c r="C182" t="s">
         <v>518</v>
       </c>
-      <c r="F182">
-        <v>6</v>
-      </c>
-      <c r="G182">
-        <v>16</v>
-      </c>
-      <c r="H182">
+      <c r="F182" t="n">
         <v>4</v>
       </c>
-      <c r="I182">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G182" t="n">
+        <v>4</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" t="s">
         <v>519</v>
       </c>
-      <c r="B183" t="s">
+      <c r="F183" t="n">
+        <v>1</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
+      <c r="A184" t="s">
         <v>520</v>
       </c>
-      <c r="C183" t="s">
+      <c r="B184" t="s">
         <v>521</v>
       </c>
-      <c r="F183">
-        <v>4</v>
-      </c>
-      <c r="G183">
-        <v>4</v>
-      </c>
-      <c r="H183">
-        <v>1</v>
-      </c>
-      <c r="I183">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="C184" t="s">
         <v>522</v>
       </c>
-      <c r="F184">
-        <v>1</v>
-      </c>
-      <c r="H184">
-        <v>1</v>
-      </c>
-      <c r="I184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" t="s">
         <v>523</v>
       </c>
-      <c r="B185" t="s">
+      <c r="F185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
+      <c r="A186" t="s">
         <v>524</v>
       </c>
-      <c r="C185" t="s">
+      <c r="B186" t="s">
         <v>525</v>
       </c>
-      <c r="F185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="C186" t="s">
         <v>526</v>
       </c>
-      <c r="F186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F186" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" t="s">
         <v>527</v>
       </c>
-      <c r="B187" t="s">
+      <c r="F187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
+      <c r="A188" t="s">
         <v>528</v>
       </c>
-      <c r="C187" t="s">
+      <c r="B188" t="s">
         <v>529</v>
       </c>
-      <c r="F187">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="C188" t="s">
         <v>530</v>
       </c>
-      <c r="F188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F188" t="n">
+        <v>3</v>
+      </c>
+      <c r="G188" t="n">
+        <v>2</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" t="s">
         <v>531</v>
       </c>
-      <c r="B189" t="s">
+      <c r="F189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
+      <c r="A190" t="s">
         <v>532</v>
       </c>
-      <c r="C189" t="s">
+      <c r="B190" t="s">
         <v>533</v>
       </c>
-      <c r="F189">
-        <v>3</v>
-      </c>
-      <c r="G189">
-        <v>2</v>
-      </c>
-      <c r="H189">
-        <v>1</v>
-      </c>
-      <c r="I189">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="C190" t="s">
         <v>534</v>
       </c>
-      <c r="F190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F190" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" t="s">
         <v>535</v>
       </c>
@@ -6954,59 +6875,62 @@
       <c r="C191" t="s">
         <v>537</v>
       </c>
-      <c r="F191">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" t="s">
         <v>538</v>
       </c>
-      <c r="B192" t="s">
+      <c r="F192" t="n">
+        <v>1</v>
+      </c>
+      <c r="G192" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
+      <c r="A193" t="s">
         <v>539</v>
       </c>
-      <c r="C192" t="s">
+      <c r="B193" t="s">
+        <v>30</v>
+      </c>
+      <c r="C193" t="s">
+        <v>31</v>
+      </c>
+      <c r="F193" t="n">
+        <v>3</v>
+      </c>
+      <c r="G193" t="n">
+        <v>13</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
+      <c r="A194" t="s">
         <v>540</v>
       </c>
-      <c r="F192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="B194" t="s">
         <v>541</v>
       </c>
-      <c r="F193">
-        <v>1</v>
-      </c>
-      <c r="G193">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="C194" t="s">
         <v>542</v>
       </c>
-      <c r="B194" t="s">
-        <v>30</v>
-      </c>
-      <c r="C194" t="s">
-        <v>31</v>
-      </c>
-      <c r="F194">
-        <v>3</v>
-      </c>
-      <c r="G194">
-        <v>13</v>
-      </c>
-      <c r="H194">
-        <v>1</v>
-      </c>
-      <c r="I194">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F194" t="n">
+        <v>2</v>
+      </c>
+      <c r="G194" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" t="s">
         <v>543</v>
       </c>
@@ -7016,14 +6940,14 @@
       <c r="C195" t="s">
         <v>545</v>
       </c>
-      <c r="F195">
-        <v>2</v>
-      </c>
-      <c r="G195">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G195" t="n">
+        <v>23</v>
+      </c>
+      <c r="H195" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" t="s">
         <v>546</v>
       </c>
@@ -7033,14 +6957,17 @@
       <c r="C196" t="s">
         <v>548</v>
       </c>
-      <c r="G196">
-        <v>23</v>
-      </c>
-      <c r="H196">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G196" t="n">
+        <v>9</v>
+      </c>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" t="s">
         <v>549</v>
       </c>
@@ -7050,53 +6977,47 @@
       <c r="C197" t="s">
         <v>551</v>
       </c>
-      <c r="G197">
-        <v>9</v>
-      </c>
-      <c r="H197">
-        <v>1</v>
-      </c>
-      <c r="I197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G197" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" t="s">
         <v>552</v>
       </c>
-      <c r="B198" t="s">
+      <c r="G198" t="n">
+        <v>5</v>
+      </c>
+      <c r="H198" t="n">
+        <v>2</v>
+      </c>
+      <c r="I198" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
+      <c r="A199" t="s">
         <v>553</v>
       </c>
-      <c r="C198" t="s">
+      <c r="G199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
+      <c r="A200" t="s">
         <v>554</v>
       </c>
-      <c r="G198">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="B200" t="s">
         <v>555</v>
       </c>
-      <c r="G199">
-        <v>5</v>
-      </c>
-      <c r="H199">
-        <v>2</v>
-      </c>
-      <c r="I199">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="C200" t="s">
         <v>556</v>
       </c>
-      <c r="G200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G200" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" t="s">
         <v>557</v>
       </c>
@@ -7106,11 +7027,11 @@
       <c r="C201" t="s">
         <v>559</v>
       </c>
-      <c r="G201">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G201" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" t="s">
         <v>560</v>
       </c>
@@ -7120,60 +7041,63 @@
       <c r="C202" t="s">
         <v>562</v>
       </c>
-      <c r="G202">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G202" t="n">
+        <v>2</v>
+      </c>
+      <c r="H202" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203" t="s">
         <v>563</v>
       </c>
-      <c r="B203" t="s">
+      <c r="G203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
+      <c r="A204" t="s">
         <v>564</v>
       </c>
-      <c r="C203" t="s">
+      <c r="G204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
+      <c r="A205" t="s">
         <v>565</v>
       </c>
-      <c r="G203">
-        <v>2</v>
-      </c>
-      <c r="H203">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="G205" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
+      <c r="A206" t="s">
         <v>566</v>
       </c>
-      <c r="G204">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="G206" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
+      <c r="A207" t="s">
         <v>567</v>
       </c>
-      <c r="G205">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="B207" t="s">
         <v>568</v>
       </c>
-      <c r="G206">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+      <c r="C207" t="s">
         <v>569</v>
       </c>
-      <c r="G207">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G207" t="n">
+        <v>1</v>
+      </c>
+      <c r="H207" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
       <c r="A208" t="s">
         <v>570</v>
       </c>
@@ -7183,115 +7107,112 @@
       <c r="C208" t="s">
         <v>572</v>
       </c>
-      <c r="G208">
-        <v>1</v>
-      </c>
-      <c r="H208">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G208" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
       <c r="A209" t="s">
         <v>573</v>
       </c>
-      <c r="B209" t="s">
+      <c r="G209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
+      <c r="A210" t="s">
         <v>574</v>
       </c>
-      <c r="C209" t="s">
+      <c r="B210" t="s">
         <v>575</v>
       </c>
-      <c r="G209">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="C210" t="s">
         <v>576</v>
       </c>
-      <c r="G210">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G210" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
       <c r="A211" t="s">
         <v>577</v>
       </c>
       <c r="B211" t="s">
+        <v>50</v>
+      </c>
+      <c r="C211" t="s">
+        <v>51</v>
+      </c>
+      <c r="H211" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
+      <c r="A212" t="s">
         <v>578</v>
       </c>
-      <c r="C211" t="s">
+      <c r="H212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
+      <c r="A213" t="s">
         <v>579</v>
       </c>
-      <c r="G211">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="H213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
+      <c r="A214" t="s">
         <v>580</v>
       </c>
-      <c r="B212" t="s">
-        <v>50</v>
-      </c>
-      <c r="C212" t="s">
-        <v>51</v>
-      </c>
-      <c r="H212">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="H214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10">
+      <c r="A215" t="s">
         <v>581</v>
       </c>
-      <c r="H213">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="B215" t="s">
         <v>582</v>
       </c>
-      <c r="H214">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+      <c r="H215" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10">
+      <c r="A216" t="s">
         <v>583</v>
       </c>
-      <c r="H215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+      <c r="H216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10">
+      <c r="A217" t="s">
         <v>584</v>
       </c>
-      <c r="B216" t="s">
+      <c r="H217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10">
+      <c r="A218" t="s">
         <v>585</v>
       </c>
-      <c r="H216">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+      <c r="B218" t="s">
         <v>586</v>
       </c>
-      <c r="H217">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+      <c r="C218" t="s">
         <v>587</v>
       </c>
-      <c r="H218">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H218" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10">
       <c r="A219" t="s">
         <v>588</v>
       </c>
@@ -7301,47 +7222,47 @@
       <c r="C219" t="s">
         <v>590</v>
       </c>
-      <c r="H219">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H219" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10">
       <c r="A220" t="s">
         <v>591</v>
       </c>
-      <c r="B220" t="s">
+      <c r="H220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10">
+      <c r="A221" t="s">
         <v>592</v>
       </c>
-      <c r="C220" t="s">
+      <c r="B221" t="s">
+        <v>204</v>
+      </c>
+      <c r="C221" t="s">
         <v>593</v>
       </c>
-      <c r="H220">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+      <c r="H221" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10">
+      <c r="A222" t="s">
         <v>594</v>
       </c>
-      <c r="H221">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+      <c r="B222" t="s">
         <v>595</v>
-      </c>
-      <c r="B222" t="s">
-        <v>204</v>
       </c>
       <c r="C222" t="s">
         <v>596</v>
       </c>
-      <c r="H222">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I222" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10">
       <c r="A223" t="s">
         <v>597</v>
       </c>
@@ -7351,11 +7272,11 @@
       <c r="C223" t="s">
         <v>599</v>
       </c>
-      <c r="I223">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10">
       <c r="A224" t="s">
         <v>600</v>
       </c>
@@ -7365,11 +7286,11 @@
       <c r="C224" t="s">
         <v>602</v>
       </c>
-      <c r="I224">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10">
       <c r="A225" t="s">
         <v>603</v>
       </c>
@@ -7379,11 +7300,11 @@
       <c r="C225" t="s">
         <v>605</v>
       </c>
-      <c r="I225">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10">
       <c r="A226" t="s">
         <v>606</v>
       </c>
@@ -7393,11 +7314,11 @@
       <c r="C226" t="s">
         <v>608</v>
       </c>
-      <c r="I226">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I226" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10">
       <c r="A227" t="s">
         <v>609</v>
       </c>
@@ -7407,93 +7328,93 @@
       <c r="C227" t="s">
         <v>611</v>
       </c>
-      <c r="I227">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I227" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10">
       <c r="A228" t="s">
         <v>612</v>
       </c>
-      <c r="B228" t="s">
+      <c r="I228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10">
+      <c r="A229" t="s">
         <v>613</v>
       </c>
-      <c r="C228" t="s">
+      <c r="B229" t="s">
         <v>614</v>
       </c>
-      <c r="I228">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+      <c r="C229" t="s">
         <v>615</v>
       </c>
-      <c r="I229">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I229" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10">
       <c r="A230" t="s">
         <v>616</v>
       </c>
-      <c r="B230" t="s">
+      <c r="I230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10">
+      <c r="A231" t="s">
         <v>617</v>
       </c>
-      <c r="C230" t="s">
+      <c r="B231" t="s">
         <v>618</v>
       </c>
-      <c r="I230">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+      <c r="C231" t="s">
         <v>619</v>
       </c>
-      <c r="I231">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I231" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10">
       <c r="A232" t="s">
         <v>620</v>
       </c>
-      <c r="B232" t="s">
+      <c r="I232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10">
+      <c r="A233" t="s">
         <v>621</v>
       </c>
-      <c r="C232" t="s">
+      <c r="I233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10">
+      <c r="A234" t="s">
         <v>622</v>
       </c>
-      <c r="I232">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+      <c r="I234" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10">
+      <c r="A235" t="s">
         <v>623</v>
       </c>
-      <c r="I233">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+      <c r="B235" t="s">
         <v>624</v>
       </c>
-      <c r="I234">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+      <c r="C235" t="s">
         <v>625</v>
       </c>
-      <c r="I235">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10">
       <c r="A236" t="s">
         <v>626</v>
       </c>
@@ -7503,33 +7424,33 @@
       <c r="C236" t="s">
         <v>628</v>
       </c>
-      <c r="I236">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I236" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10">
       <c r="A237" t="s">
         <v>629</v>
       </c>
-      <c r="B237" t="s">
+      <c r="I237" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10">
+      <c r="A238" t="s">
         <v>630</v>
       </c>
-      <c r="C237" t="s">
+      <c r="B238" t="s">
         <v>631</v>
       </c>
-      <c r="I237">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+      <c r="C238" t="s">
         <v>632</v>
       </c>
-      <c r="I238">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I238" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10">
       <c r="A239" t="s">
         <v>633</v>
       </c>
@@ -7539,11 +7460,11 @@
       <c r="C239" t="s">
         <v>635</v>
       </c>
-      <c r="I239">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I239" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10">
       <c r="A240" t="s">
         <v>636</v>
       </c>
@@ -7553,11 +7474,11 @@
       <c r="C240" t="s">
         <v>638</v>
       </c>
-      <c r="I240">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J240" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10">
       <c r="A241" t="s">
         <v>639</v>
       </c>
@@ -7567,101 +7488,110 @@
       <c r="C241" t="s">
         <v>641</v>
       </c>
-      <c r="J241">
+      <c r="J241" t="n">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
+    <oddHeader/>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="25" style="4" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="4" width="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row customHeight="1" ht="18.95" r="1" s="4" spans="1:2">
+      <c r="A1" s="8" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
         <f>SUM(Sheet!D2:D241)</f>
-        <v>370</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
         <f>SUM(Sheet!E2:E241)</f>
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
         <f>SUM(Sheet!F2:F241)</f>
-        <v>616</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
         <f>SUM(Sheet!G2:G241)</f>
-        <v>673</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
         <f>SUM(Sheet!H2:H241)</f>
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
         <f>SUM(Sheet!I2:I241)</f>
-        <v>270</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
         <f>SUM(Sheet!J2:J241)</f>
-        <v>4</v>
+        <v/>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>